--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Table" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis Unit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="339">
   <si>
     <t>IND_50</t>
   </si>
@@ -1042,7 +1042,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1461,119 +1461,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2101,44 +1991,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AN208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView tabSelected="1" topLeftCell="G52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="27" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
     <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" customWidth="1"/>
+    <col min="25" max="29" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" customWidth="1"/>
     <col min="31" max="31" width="17" customWidth="1"/>
     <col min="32" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.42578125" customWidth="1"/>
-    <col min="35" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.140625" customWidth="1"/>
-    <col min="39" max="39" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.44140625" customWidth="1"/>
+    <col min="35" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.109375" customWidth="1"/>
+    <col min="39" max="39" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="18" customHeight="1">
@@ -4206,9 +4096,8 @@
       <c r="J55" s="7">
         <v>2500</v>
       </c>
-      <c r="K55" s="2">
-        <f>AVERAGE(H55,I55,J55)</f>
-        <v>1066.6666666666667</v>
+      <c r="K55" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>48</v>
@@ -4327,8 +4216,8 @@
         <v>-1000</v>
       </c>
       <c r="K57" s="16">
-        <f>AVERAGE((H57-E57),(I57-F57),(J57-G57))</f>
-        <v>-333.33333333333331</v>
+        <f>AVERAGE(M57,N57,O57)</f>
+        <v>366.66666666666669</v>
       </c>
       <c r="L57" s="16">
         <f t="shared" ref="L57:L58" si="13">AVERAGE(E57,F57,G57)</f>
@@ -4772,8 +4661,8 @@
         <v>900</v>
       </c>
       <c r="K66" s="2">
-        <f>AVERAGE((E66-H66),(F66-I66),(G66-J66))</f>
-        <v>-800</v>
+        <f>AVERAGE(M66,N66,O66)</f>
+        <v>800</v>
       </c>
       <c r="L66" s="2">
         <f>(E66+F66+G66)/3</f>
@@ -4835,9 +4724,8 @@
       <c r="J67" s="7">
         <v>2500</v>
       </c>
-      <c r="K67" s="7">
-        <f>AVERAGE(-H67,-I67,-J67)</f>
-        <v>-1066.6666666666667</v>
+      <c r="K67" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>48</v>
@@ -4956,11 +4844,11 @@
         <v>-1000</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" ref="K69:K70" si="19">AVERAGE((E69-H69),(F69-I69),(G69-J69))</f>
-        <v>333.33333333333331</v>
+        <f>AVERAGE(M69,N69,O69)</f>
+        <v>366.66666666666669</v>
       </c>
       <c r="L69" s="16">
-        <f t="shared" ref="L69:L70" si="20">AVERAGE(E69,F69,G69)</f>
+        <f t="shared" ref="L69:L70" si="19">AVERAGE(E69,F69,G69)</f>
         <v>-33.333333333333336</v>
       </c>
       <c r="M69" s="2">
@@ -5020,11 +4908,11 @@
         <v>100</v>
       </c>
       <c r="K70" s="2">
+        <f t="shared" ref="K70" si="20">AVERAGE((E70-H70),(F70-I70),(G70-J70))</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="16">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="16">
-        <f t="shared" si="20"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="M70" s="2">
@@ -5516,7 +5404,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="19.149999999999999" customHeight="1">
+    <row r="84" spans="1:40" ht="19.2" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -9666,7 +9554,7 @@
     <row r="177" spans="1:15">
       <c r="L177" s="78"/>
     </row>
-    <row r="178" spans="1:15" ht="18.75">
+    <row r="178" spans="1:15" ht="18.600000000000001">
       <c r="A178" s="30" t="s">
         <v>174</v>
       </c>
@@ -10007,67 +9895,67 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="31" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B141">
-    <cfRule type="duplicateValues" dxfId="30" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="29" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B157">
-    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B171">
-    <cfRule type="duplicateValues" dxfId="27" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180">
-    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172 B164:B167">
-    <cfRule type="duplicateValues" dxfId="24" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B128 B132:B135">
-    <cfRule type="duplicateValues" dxfId="16" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164 B157:B160">
-    <cfRule type="duplicateValues" dxfId="22" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141:B144 B148:B151">
-    <cfRule type="duplicateValues" dxfId="8" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149">
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181 B185:B189">
-    <cfRule type="duplicateValues" dxfId="20" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:B89">
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10082,19 +9970,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:15">

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="339">
   <si>
     <t>IND_50</t>
   </si>
@@ -1043,7 +1043,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,8 +1103,14 @@
       <color rgb="FF336699"/>
       <name val="RotisSansSerif55"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1138,6 +1144,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1457,6 +1475,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1991,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AN208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" topLeftCell="I72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O119" sqref="O119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6329,10 +6356,10 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:20">
       <c r="K97" s="11"/>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:20">
       <c r="A99" s="3" t="s">
         <v>145</v>
       </c>
@@ -6345,13 +6372,13 @@
       <c r="D99" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="86" t="s">
         <v>150</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -6369,23 +6396,32 @@
       <c r="L99" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M99" s="36" t="s">
+      <c r="M99" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P99" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="N99" s="36" t="s">
+      <c r="Q99" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="O99" s="36" t="s">
+      <c r="R99" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="P99" s="43" t="s">
+      <c r="S99" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="Q99" s="36" t="s">
+      <c r="T99" s="36" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:20">
       <c r="B100" s="80" t="s">
         <v>233</v>
       </c>
@@ -6394,14 +6430,14 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="2">
-        <v>400</v>
-      </c>
-      <c r="F100" s="2">
-        <v>500</v>
-      </c>
-      <c r="G100" s="2">
-        <v>550</v>
+      <c r="E100" s="87">
+        <v>-400</v>
+      </c>
+      <c r="F100" s="87">
+        <v>-500</v>
+      </c>
+      <c r="G100" s="87">
+        <v>-550</v>
       </c>
       <c r="H100" s="2">
         <v>1200</v>
@@ -6413,28 +6449,40 @@
         <v>1200</v>
       </c>
       <c r="K100" s="16">
-        <f>AVERAGE(E100,F100,G100)</f>
+        <f>AVERAGE(M100,N100,O100)</f>
         <v>483.33333333333331</v>
       </c>
       <c r="L100" s="16">
         <f>AVERAGE(H100,I100,J100)</f>
         <v>1200</v>
       </c>
-      <c r="M100" s="2">
+      <c r="M100" s="87">
+        <f>E100*(-1)</f>
+        <v>400</v>
+      </c>
+      <c r="N100" s="87">
+        <f>F100*(-1)</f>
+        <v>500</v>
+      </c>
+      <c r="O100" s="87">
+        <f>G100*(-1)</f>
+        <v>550</v>
+      </c>
+      <c r="P100" s="2">
         <v>483.33</v>
       </c>
-      <c r="N100" s="37">
+      <c r="Q100" s="37">
         <v>1200</v>
       </c>
-      <c r="O100" s="2">
+      <c r="R100" s="2">
         <v>0.40279999999999999</v>
       </c>
-      <c r="P100" s="40"/>
-      <c r="Q100" s="2" t="s">
+      <c r="S100" s="40"/>
+      <c r="T100" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:20">
       <c r="B101" s="80" t="s">
         <v>234</v>
       </c>
@@ -6443,14 +6491,14 @@
         <v>0.375</v>
       </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="2">
-        <v>300</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G101" s="2">
-        <v>450</v>
+      <c r="E101" s="87">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="G101" s="87">
+        <v>-450</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>48</v>
@@ -6462,28 +6510,40 @@
         <v>1000</v>
       </c>
       <c r="K101" s="16">
-        <f>AVERAGE(E101,F101,G101)</f>
+        <f>AVERAGE(M101,N101,O101)</f>
         <v>375</v>
       </c>
       <c r="L101" s="16">
         <f>AVERAGE(H101,I101,J101)</f>
         <v>1000</v>
       </c>
-      <c r="M101" s="2">
+      <c r="M101" s="87">
+        <f t="shared" ref="M101" si="23">E101*(-1)</f>
+        <v>300</v>
+      </c>
+      <c r="N101" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="O101" s="87">
+        <f t="shared" ref="O101:O103" si="24">G101*(-1)</f>
+        <v>450</v>
+      </c>
+      <c r="P101" s="2">
         <v>375</v>
       </c>
-      <c r="N101" s="37">
+      <c r="Q101" s="37">
         <v>1000</v>
       </c>
-      <c r="O101" s="2">
+      <c r="R101" s="2">
         <v>0.375</v>
       </c>
-      <c r="P101" s="40"/>
-      <c r="Q101" s="2" t="s">
+      <c r="S101" s="40"/>
+      <c r="T101" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:20">
+      <c r="A102" s="85"/>
       <c r="B102" s="80" t="s">
         <v>235</v>
       </c>
@@ -6517,23 +6577,32 @@
       <c r="L102" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N102" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O102" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P102" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N102" s="2" t="s">
+      <c r="Q102" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O102" s="2" t="s">
+      <c r="R102" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P102" s="40" t="s">
+      <c r="S102" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="Q102" s="2" t="s">
+      <c r="T102" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="15" customFormat="1">
+    <row r="103" spans="1:20" s="15" customFormat="1">
       <c r="B103" s="80" t="s">
         <v>236</v>
       </c>
@@ -6543,49 +6612,61 @@
       <c r="D103" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E103" s="16">
+      <c r="E103" s="87">
+        <v>-500</v>
+      </c>
+      <c r="F103" s="87">
+        <v>-200</v>
+      </c>
+      <c r="G103" s="87">
+        <v>300</v>
+      </c>
+      <c r="H103" s="27">
+        <v>0</v>
+      </c>
+      <c r="I103" s="27">
+        <v>0</v>
+      </c>
+      <c r="J103" s="27">
+        <v>0</v>
+      </c>
+      <c r="K103" s="16">
+        <f>AVERAGE(M103,N103,O103)</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="L103" s="16">
+        <f t="shared" ref="L103:L112" si="25">AVERAGE(H103,I103,J103)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="87">
+        <f>E103*(-1)</f>
         <v>500</v>
       </c>
-      <c r="F103" s="16">
-        <v>-200</v>
-      </c>
-      <c r="G103" s="16">
+      <c r="N103" s="87">
+        <f t="shared" ref="N103" si="26">F103*(-1)</f>
+        <v>200</v>
+      </c>
+      <c r="O103" s="87">
+        <f t="shared" si="24"/>
         <v>-300</v>
       </c>
-      <c r="H103" s="27">
-        <v>0</v>
-      </c>
-      <c r="I103" s="27">
-        <v>0</v>
-      </c>
-      <c r="J103" s="27">
-        <v>0</v>
-      </c>
-      <c r="K103" s="16">
-        <f t="shared" ref="K103:K112" si="23">AVERAGE(E103,F103,G103)</f>
-        <v>0</v>
-      </c>
-      <c r="L103" s="16">
-        <f t="shared" ref="L103:L112" si="24">AVERAGE(H103,I103,J103)</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="16">
-        <v>0</v>
-      </c>
-      <c r="N103" s="16">
-        <v>0</v>
-      </c>
-      <c r="O103" s="37">
+      <c r="P103" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="16">
+        <v>0</v>
+      </c>
+      <c r="R103" s="37">
         <v>999999</v>
       </c>
-      <c r="P103" s="42" t="s">
+      <c r="S103" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="Q103" s="2" t="s">
+      <c r="T103" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:20">
       <c r="B104" s="80" t="s">
         <v>237</v>
       </c>
@@ -6595,49 +6676,61 @@
       <c r="D104" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="87">
+        <v>-250</v>
+      </c>
+      <c r="F104" s="87">
+        <v>-250</v>
+      </c>
+      <c r="G104" s="87">
+        <v>-250</v>
+      </c>
+      <c r="H104" s="26">
+        <v>0</v>
+      </c>
+      <c r="I104" s="26">
+        <v>0</v>
+      </c>
+      <c r="J104" s="26">
+        <v>0</v>
+      </c>
+      <c r="K104" s="16">
+        <f>AVERAGE(M104,N104,O104)</f>
         <v>250</v>
       </c>
-      <c r="F104" s="2">
+      <c r="L104" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="87">
+        <f>E104*(-1)</f>
         <v>250</v>
       </c>
-      <c r="G104" s="2">
+      <c r="N104" s="87">
+        <f t="shared" ref="N104" si="27">F104*(-1)</f>
         <v>250</v>
       </c>
-      <c r="H104" s="26">
-        <v>0</v>
-      </c>
-      <c r="I104" s="26">
-        <v>0</v>
-      </c>
-      <c r="J104" s="26">
-        <v>0</v>
-      </c>
-      <c r="K104" s="16">
-        <f t="shared" si="23"/>
+      <c r="O104" s="87">
+        <f t="shared" ref="O104" si="28">G104*(-1)</f>
         <v>250</v>
       </c>
-      <c r="L104" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M104" s="2">
+      <c r="P104" s="2">
         <v>250</v>
       </c>
-      <c r="N104" s="2">
-        <v>0</v>
-      </c>
-      <c r="O104" s="37">
+      <c r="Q104" s="2">
+        <v>0</v>
+      </c>
+      <c r="R104" s="37">
         <v>1000000</v>
       </c>
-      <c r="P104" s="40" t="s">
+      <c r="S104" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="Q104" s="2" t="s">
+      <c r="T104" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:20">
       <c r="B105" s="80" t="s">
         <v>238</v>
       </c>
@@ -6647,48 +6740,60 @@
       <c r="D105" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="87">
+        <v>-100</v>
+      </c>
+      <c r="F105" s="87">
+        <v>-200</v>
+      </c>
+      <c r="G105" s="87">
+        <v>-300</v>
+      </c>
+      <c r="H105" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J105" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K105" s="16">
+        <f>AVERAGE(M105,N105,O105)</f>
+        <v>200</v>
+      </c>
+      <c r="L105" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M105" s="87">
+        <f>E105*(-1)</f>
         <v>100</v>
       </c>
-      <c r="F105" s="2">
+      <c r="N105" s="87">
+        <f t="shared" ref="N105" si="29">F105*(-1)</f>
         <v>200</v>
       </c>
-      <c r="G105" s="2">
+      <c r="O105" s="87">
+        <f t="shared" ref="O105" si="30">G105*(-1)</f>
         <v>300</v>
       </c>
-      <c r="H105" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I105" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J105" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="K105" s="27">
-        <f t="shared" si="23"/>
+      <c r="P105" s="2">
         <v>200</v>
       </c>
-      <c r="L105" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M105" s="2">
-        <v>200</v>
-      </c>
-      <c r="N105" s="2" t="s">
+      <c r="Q105" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O105" s="2" t="s">
+      <c r="R105" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P105" s="40" t="s">
+      <c r="S105" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="Q105" s="2" t="s">
+      <c r="T105" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:20">
       <c r="B106" s="80" t="s">
         <v>239</v>
       </c>
@@ -6716,30 +6821,39 @@
       <c r="J106" s="26">
         <v>2500</v>
       </c>
-      <c r="K106" s="27" t="s">
+      <c r="K106" s="16" t="s">
         <v>48</v>
       </c>
       <c r="L106" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2500</v>
       </c>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N106" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O106" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P106" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N106" s="37">
+      <c r="Q106" s="37">
         <v>2500</v>
       </c>
-      <c r="O106" s="2" t="s">
+      <c r="R106" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P106" s="40" t="s">
+      <c r="S106" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="Q106" s="2" t="s">
+      <c r="T106" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:20">
       <c r="B107" s="80" t="s">
         <v>240</v>
       </c>
@@ -6749,14 +6863,14 @@
       <c r="D107" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E107" s="2">
-        <v>500</v>
-      </c>
-      <c r="F107" s="2">
-        <v>-600</v>
-      </c>
-      <c r="G107" s="2">
-        <v>-200</v>
+      <c r="E107" s="87">
+        <v>-500</v>
+      </c>
+      <c r="F107" s="87">
+        <v>600</v>
+      </c>
+      <c r="G107" s="87">
+        <v>200</v>
       </c>
       <c r="H107" s="26">
         <v>1300</v>
@@ -6767,31 +6881,43 @@
       <c r="J107" s="26">
         <v>1300</v>
       </c>
-      <c r="K107" s="27">
-        <f t="shared" si="23"/>
+      <c r="K107" s="16">
+        <f t="shared" ref="K107:K112" si="31">AVERAGE(M107,N107,O107)</f>
         <v>-100</v>
       </c>
       <c r="L107" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1300</v>
       </c>
-      <c r="M107" s="2">
+      <c r="M107" s="87">
+        <f t="shared" ref="M107" si="32">E107*(-1)</f>
+        <v>500</v>
+      </c>
+      <c r="N107" s="87">
+        <f t="shared" ref="N107" si="33">F107*(-1)</f>
+        <v>-600</v>
+      </c>
+      <c r="O107" s="87">
+        <f t="shared" ref="O107" si="34">G107*(-1)</f>
+        <v>-200</v>
+      </c>
+      <c r="P107" s="2">
         <v>-100</v>
       </c>
-      <c r="N107" s="37">
+      <c r="Q107" s="37">
         <v>1300</v>
       </c>
-      <c r="O107" s="2" t="s">
+      <c r="R107" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P107" s="40" t="s">
+      <c r="S107" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="Q107" s="2" t="s">
+      <c r="T107" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:20">
       <c r="B108" s="80" t="s">
         <v>241</v>
       </c>
@@ -6801,49 +6927,61 @@
       <c r="D108" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="87">
+        <v>-500</v>
+      </c>
+      <c r="F108" s="87">
+        <v>600</v>
+      </c>
+      <c r="G108" s="87">
+        <v>200</v>
+      </c>
+      <c r="H108" s="26">
+        <v>0</v>
+      </c>
+      <c r="I108" s="26">
+        <v>0</v>
+      </c>
+      <c r="J108" s="26">
+        <v>0</v>
+      </c>
+      <c r="K108" s="16">
+        <f t="shared" si="31"/>
+        <v>-100</v>
+      </c>
+      <c r="L108" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="87">
+        <f t="shared" ref="M108" si="35">E108*(-1)</f>
         <v>500</v>
       </c>
-      <c r="F108" s="2">
+      <c r="N108" s="87">
+        <f t="shared" ref="N108" si="36">F108*(-1)</f>
         <v>-600</v>
       </c>
-      <c r="G108" s="2">
+      <c r="O108" s="87">
+        <f t="shared" ref="O108" si="37">G108*(-1)</f>
         <v>-200</v>
       </c>
-      <c r="H108" s="26">
-        <v>0</v>
-      </c>
-      <c r="I108" s="26">
-        <v>0</v>
-      </c>
-      <c r="J108" s="26">
-        <v>0</v>
-      </c>
-      <c r="K108" s="27">
-        <f t="shared" si="23"/>
+      <c r="P108" s="2">
         <v>-100</v>
       </c>
-      <c r="L108" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M108" s="2">
-        <v>-100</v>
-      </c>
-      <c r="N108" s="2">
-        <v>0</v>
-      </c>
-      <c r="O108" s="2" t="s">
+      <c r="Q108" s="2">
+        <v>0</v>
+      </c>
+      <c r="R108" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P108" s="40" t="s">
+      <c r="S108" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="Q108" s="2" t="s">
+      <c r="T108" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:20">
       <c r="B109" s="80" t="s">
         <v>242</v>
       </c>
@@ -6853,14 +6991,14 @@
       <c r="D109" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E109" s="2">
-        <v>500</v>
-      </c>
-      <c r="F109" s="2">
-        <v>-600</v>
-      </c>
-      <c r="G109" s="2">
-        <v>-200</v>
+      <c r="E109" s="87">
+        <v>-500</v>
+      </c>
+      <c r="F109" s="87">
+        <v>600</v>
+      </c>
+      <c r="G109" s="87">
+        <v>200</v>
       </c>
       <c r="H109" s="26">
         <v>-800</v>
@@ -6871,31 +7009,43 @@
       <c r="J109" s="26">
         <v>-800</v>
       </c>
-      <c r="K109" s="27">
-        <f t="shared" si="23"/>
+      <c r="K109" s="16">
+        <f t="shared" si="31"/>
         <v>-100</v>
       </c>
       <c r="L109" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-800</v>
       </c>
-      <c r="M109" s="2">
+      <c r="M109" s="87">
+        <f t="shared" ref="M109" si="38">E109*(-1)</f>
+        <v>500</v>
+      </c>
+      <c r="N109" s="87">
+        <f t="shared" ref="N109" si="39">F109*(-1)</f>
+        <v>-600</v>
+      </c>
+      <c r="O109" s="87">
+        <f t="shared" ref="O109" si="40">G109*(-1)</f>
+        <v>-200</v>
+      </c>
+      <c r="P109" s="2">
         <v>-100</v>
       </c>
-      <c r="N109" s="2">
+      <c r="Q109" s="2">
         <v>-800</v>
       </c>
-      <c r="O109" s="2" t="s">
+      <c r="R109" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P109" s="40" t="s">
+      <c r="S109" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="Q109" s="2" t="s">
+      <c r="T109" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:20">
       <c r="B110" s="80" t="s">
         <v>243</v>
       </c>
@@ -6905,14 +7055,14 @@
       <c r="D110" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E110" s="2">
-        <v>250</v>
-      </c>
-      <c r="F110" s="2">
-        <v>350</v>
-      </c>
-      <c r="G110" s="2">
-        <v>450</v>
+      <c r="E110" s="87">
+        <v>-250</v>
+      </c>
+      <c r="F110" s="87">
+        <v>-350</v>
+      </c>
+      <c r="G110" s="87">
+        <v>-450</v>
       </c>
       <c r="H110" s="26">
         <v>-1200</v>
@@ -6923,31 +7073,43 @@
       <c r="J110" s="26">
         <v>-1200</v>
       </c>
-      <c r="K110" s="27">
-        <f t="shared" si="23"/>
+      <c r="K110" s="16">
+        <f t="shared" si="31"/>
         <v>350</v>
       </c>
       <c r="L110" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1200</v>
       </c>
-      <c r="M110" s="2">
+      <c r="M110" s="87">
+        <f t="shared" ref="M110:M112" si="41">E110*(-1)</f>
+        <v>250</v>
+      </c>
+      <c r="N110" s="87">
+        <f t="shared" ref="N110:N112" si="42">F110*(-1)</f>
         <v>350</v>
       </c>
-      <c r="N110" s="37">
+      <c r="O110" s="87">
+        <f t="shared" ref="O110:O112" si="43">G110*(-1)</f>
+        <v>450</v>
+      </c>
+      <c r="P110" s="2">
+        <v>350</v>
+      </c>
+      <c r="Q110" s="37">
         <v>-1200</v>
       </c>
-      <c r="O110" s="2" t="s">
+      <c r="R110" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P110" s="40" t="s">
+      <c r="S110" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Q110" s="2" t="s">
+      <c r="T110" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:20">
       <c r="B111" s="80" t="s">
         <v>244</v>
       </c>
@@ -6957,13 +7119,13 @@
       <c r="D111" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E111" s="16">
-        <v>0</v>
-      </c>
-      <c r="F111" s="16">
-        <v>0</v>
-      </c>
-      <c r="G111" s="16">
+      <c r="E111" s="87">
+        <v>0</v>
+      </c>
+      <c r="F111" s="87">
+        <v>0</v>
+      </c>
+      <c r="G111" s="87">
         <v>0</v>
       </c>
       <c r="H111" s="26">
@@ -6975,31 +7137,43 @@
       <c r="J111" s="26">
         <v>-1000</v>
       </c>
-      <c r="K111" s="27">
-        <f t="shared" si="23"/>
+      <c r="K111" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L111" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1000</v>
       </c>
-      <c r="M111" s="2">
-        <v>0</v>
-      </c>
-      <c r="N111" s="37">
+      <c r="M111" s="87">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N111" s="87">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="87">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="37">
         <v>-1000</v>
       </c>
-      <c r="O111" s="2" t="s">
+      <c r="R111" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P111" s="40" t="s">
+      <c r="S111" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Q111" s="2" t="s">
+      <c r="T111" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:20">
       <c r="B112" s="80" t="s">
         <v>245</v>
       </c>
@@ -7009,14 +7183,14 @@
       <c r="D112" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E112" s="2">
-        <v>-200</v>
-      </c>
-      <c r="F112" s="2">
-        <v>-200</v>
-      </c>
-      <c r="G112" s="2">
-        <v>-200</v>
+      <c r="E112" s="87">
+        <v>200</v>
+      </c>
+      <c r="F112" s="87">
+        <v>200</v>
+      </c>
+      <c r="G112" s="87">
+        <v>200</v>
       </c>
       <c r="H112" s="2">
         <v>-700</v>
@@ -7027,34 +7201,46 @@
       <c r="J112" s="2">
         <v>-700</v>
       </c>
-      <c r="K112" s="2">
-        <f t="shared" si="23"/>
+      <c r="K112" s="16">
+        <f t="shared" si="31"/>
         <v>-200</v>
       </c>
       <c r="L112" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-700</v>
       </c>
-      <c r="M112" s="2">
+      <c r="M112" s="87">
+        <f t="shared" si="41"/>
         <v>-200</v>
       </c>
-      <c r="N112" s="2">
+      <c r="N112" s="87">
+        <f t="shared" si="42"/>
+        <v>-200</v>
+      </c>
+      <c r="O112" s="87">
+        <f t="shared" si="43"/>
+        <v>-200</v>
+      </c>
+      <c r="P112" s="2">
+        <v>-200</v>
+      </c>
+      <c r="Q112" s="2">
         <v>-700</v>
       </c>
-      <c r="O112" s="2" t="s">
+      <c r="R112" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P112" s="40" t="s">
+      <c r="S112" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="Q112" s="2" t="s">
+      <c r="T112" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:20">
       <c r="B114" s="39"/>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:20">
       <c r="A115" s="3" t="s">
         <v>144</v>
       </c>
@@ -7091,23 +7277,32 @@
       <c r="L115" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M115" s="36" t="s">
+      <c r="M115" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P115" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="N115" s="36" t="s">
+      <c r="Q115" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="O115" s="36" t="s">
+      <c r="R115" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="P115" s="43" t="s">
+      <c r="S115" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="Q115" s="36" t="s">
+      <c r="T115" s="36" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:20">
       <c r="A116" s="55"/>
       <c r="B116" s="80" t="s">
         <v>261</v>
@@ -7117,14 +7312,14 @@
         <v>0.39473684210526311</v>
       </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="2">
-        <v>250</v>
-      </c>
-      <c r="F116" s="2">
-        <v>250</v>
-      </c>
-      <c r="G116" s="2">
-        <v>250</v>
+      <c r="E116" s="87">
+        <v>-250</v>
+      </c>
+      <c r="F116" s="87">
+        <v>-250</v>
+      </c>
+      <c r="G116" s="87">
+        <v>-250</v>
       </c>
       <c r="H116" s="2">
         <v>700</v>
@@ -7136,28 +7331,40 @@
         <v>700</v>
       </c>
       <c r="K116" s="16">
-        <f>AVERAGE(E116,F116,G116)</f>
+        <f>AVERAGE(M116,N116,O116)</f>
         <v>250</v>
       </c>
       <c r="L116" s="16">
         <f>AVERAGE(H116,I116,J116)</f>
         <v>633.33333333333337</v>
       </c>
-      <c r="M116" s="2">
+      <c r="M116" s="87">
+        <f>E116*(-1)</f>
         <v>250</v>
       </c>
-      <c r="N116" s="2">
+      <c r="N116" s="87">
+        <f t="shared" ref="N116:O116" si="44">F116*(-1)</f>
+        <v>250</v>
+      </c>
+      <c r="O116" s="87">
+        <f t="shared" si="44"/>
+        <v>250</v>
+      </c>
+      <c r="P116" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q116" s="2">
         <v>633.33000000000004</v>
       </c>
-      <c r="O116" s="2">
+      <c r="R116" s="2">
         <v>0.3947</v>
       </c>
-      <c r="P116" s="40"/>
-      <c r="Q116" s="2" t="s">
+      <c r="S116" s="40"/>
+      <c r="T116" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:20">
       <c r="B117" s="80" t="s">
         <v>262</v>
       </c>
@@ -7166,13 +7373,13 @@
         <v>0.2</v>
       </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="2">
-        <v>100</v>
-      </c>
-      <c r="F117" s="2">
-        <v>100</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="E117" s="87">
+        <v>-100</v>
+      </c>
+      <c r="F117" s="87">
+        <v>-100</v>
+      </c>
+      <c r="G117" s="87" t="s">
         <v>48</v>
       </c>
       <c r="H117" s="2">
@@ -7185,28 +7392,39 @@
         <v>48</v>
       </c>
       <c r="K117" s="16">
-        <f>AVERAGE(E117,F117,G117)</f>
+        <f>AVERAGE(M117,N117,O117)</f>
         <v>100</v>
       </c>
       <c r="L117" s="16">
         <f>AVERAGE(H117,I117,J117)</f>
         <v>500</v>
       </c>
-      <c r="M117" s="2">
+      <c r="M117" s="87">
+        <f>E117*(-1)</f>
         <v>100</v>
       </c>
-      <c r="N117" s="2">
+      <c r="N117" s="87">
+        <f t="shared" ref="N117" si="45">F117*(-1)</f>
+        <v>100</v>
+      </c>
+      <c r="O117" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="P117" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q117" s="2">
         <v>500</v>
       </c>
-      <c r="O117" s="2">
+      <c r="R117" s="2">
         <v>0.2</v>
       </c>
-      <c r="P117" s="40"/>
-      <c r="Q117" s="2" t="s">
+      <c r="S117" s="40"/>
+      <c r="T117" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:20">
       <c r="B118" s="80" t="s">
         <v>263</v>
       </c>
@@ -7240,23 +7458,32 @@
       <c r="L118" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N118" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O118" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P118" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N118" s="2" t="s">
+      <c r="Q118" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O118" s="2" t="s">
+      <c r="R118" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P118" s="40" t="s">
+      <c r="S118" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="Q118" s="2" t="s">
+      <c r="T118" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:20">
       <c r="B119" s="80" t="s">
         <v>264</v>
       </c>
@@ -7266,14 +7493,14 @@
       <c r="D119" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E119" s="2">
-        <v>-500</v>
-      </c>
-      <c r="F119" s="2">
-        <v>300</v>
-      </c>
-      <c r="G119" s="2">
-        <v>200</v>
+      <c r="E119" s="87">
+        <v>500</v>
+      </c>
+      <c r="F119" s="87">
+        <v>-300</v>
+      </c>
+      <c r="G119" s="87">
+        <v>-200</v>
       </c>
       <c r="H119" s="2">
         <v>-1000</v>
@@ -7285,30 +7512,42 @@
         <v>600</v>
       </c>
       <c r="K119" s="16">
-        <f t="shared" ref="K119:K128" si="25">AVERAGE(E119,F119,G119)</f>
+        <f>AVERAGE(M119,N119,O119)</f>
         <v>0</v>
       </c>
       <c r="L119" s="16">
-        <f t="shared" ref="L119:L120" si="26">AVERAGE(H119,I119,J119)</f>
-        <v>0</v>
-      </c>
-      <c r="M119" s="2">
-        <v>0</v>
-      </c>
-      <c r="N119" s="2">
-        <v>0</v>
-      </c>
-      <c r="O119" s="37">
+        <f t="shared" ref="L119:L120" si="46">AVERAGE(H119,I119,J119)</f>
+        <v>0</v>
+      </c>
+      <c r="M119" s="87">
+        <f>E119*(-1)</f>
+        <v>-500</v>
+      </c>
+      <c r="N119" s="87">
+        <f t="shared" ref="N119:O119" si="47">F119*(-1)</f>
+        <v>300</v>
+      </c>
+      <c r="O119" s="87">
+        <f t="shared" si="47"/>
+        <v>200</v>
+      </c>
+      <c r="P119" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>0</v>
+      </c>
+      <c r="R119" s="37">
         <v>999999</v>
       </c>
-      <c r="P119" s="40" t="s">
+      <c r="S119" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="Q119" s="2" t="s">
+      <c r="T119" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="120" spans="1:17" s="15" customFormat="1">
+    <row r="120" spans="1:20" s="15" customFormat="1">
       <c r="B120" s="80" t="s">
         <v>265</v>
       </c>
@@ -7318,14 +7557,14 @@
       <c r="D120" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E120" s="16">
-        <v>200</v>
-      </c>
-      <c r="F120" s="16">
-        <v>200</v>
-      </c>
-      <c r="G120" s="16">
-        <v>200</v>
+      <c r="E120" s="87">
+        <v>-200</v>
+      </c>
+      <c r="F120" s="87">
+        <v>-200</v>
+      </c>
+      <c r="G120" s="87">
+        <v>-200</v>
       </c>
       <c r="H120" s="2">
         <v>-1000</v>
@@ -7337,30 +7576,42 @@
         <v>600</v>
       </c>
       <c r="K120" s="16">
-        <f t="shared" si="25"/>
+        <f>AVERAGE(M120,N120,O120)</f>
         <v>200</v>
       </c>
       <c r="L120" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="87">
+        <f>E120*(-1)</f>
         <v>200</v>
       </c>
-      <c r="N120" s="16">
-        <v>0</v>
-      </c>
-      <c r="O120" s="37">
+      <c r="N120" s="87">
+        <f t="shared" ref="N120" si="48">F120*(-1)</f>
+        <v>200</v>
+      </c>
+      <c r="O120" s="87">
+        <f t="shared" ref="O120" si="49">G120*(-1)</f>
+        <v>200</v>
+      </c>
+      <c r="P120" s="16">
+        <v>200</v>
+      </c>
+      <c r="Q120" s="16">
+        <v>0</v>
+      </c>
+      <c r="R120" s="37">
         <v>1000000</v>
       </c>
-      <c r="P120" s="42" t="s">
+      <c r="S120" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="Q120" s="2" t="s">
+      <c r="T120" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:20">
       <c r="B121" s="80" t="s">
         <v>266</v>
       </c>
@@ -7370,48 +7621,60 @@
       <c r="D121" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="87">
+        <v>-350</v>
+      </c>
+      <c r="F121" s="87">
+        <v>-300</v>
+      </c>
+      <c r="G121" s="87">
+        <v>-250</v>
+      </c>
+      <c r="H121" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I121" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J121" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K121" s="16">
+        <f>AVERAGE(M121,N121,O121)</f>
+        <v>300</v>
+      </c>
+      <c r="L121" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M121" s="87">
+        <f>E121*(-1)</f>
         <v>350</v>
       </c>
-      <c r="F121" s="2">
+      <c r="N121" s="87">
+        <f t="shared" ref="N121" si="50">F121*(-1)</f>
         <v>300</v>
       </c>
-      <c r="G121" s="2">
+      <c r="O121" s="87">
+        <f t="shared" ref="O121" si="51">G121*(-1)</f>
         <v>250</v>
       </c>
-      <c r="H121" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I121" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J121" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K121" s="16">
-        <f t="shared" si="25"/>
+      <c r="P121" s="2">
         <v>300</v>
       </c>
-      <c r="L121" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M121" s="2">
-        <v>300</v>
-      </c>
-      <c r="N121" s="2" t="s">
+      <c r="Q121" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O121" s="37" t="s">
+      <c r="R121" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P121" s="40" t="s">
+      <c r="S121" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="Q121" s="2" t="s">
+      <c r="T121" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:20">
       <c r="B122" s="80" t="s">
         <v>267</v>
       </c>
@@ -7446,23 +7709,32 @@
         <f>AVERAGE(H122,I122,J122)</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N122" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O122" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P122" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N122" s="2">
+      <c r="Q122" s="2">
         <v>416.67</v>
       </c>
-      <c r="O122" s="37" t="s">
+      <c r="R122" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P122" s="40" t="s">
+      <c r="S122" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="Q122" s="2" t="s">
+      <c r="T122" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:20">
       <c r="B123" s="80" t="s">
         <v>268</v>
       </c>
@@ -7472,14 +7744,14 @@
       <c r="D123" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E123" s="2">
-        <v>250</v>
-      </c>
-      <c r="F123" s="2">
-        <v>-500</v>
-      </c>
-      <c r="G123" s="2">
-        <v>-100</v>
+      <c r="E123" s="87">
+        <v>-250</v>
+      </c>
+      <c r="F123" s="87">
+        <v>500</v>
+      </c>
+      <c r="G123" s="87">
+        <v>100</v>
       </c>
       <c r="H123" s="26">
         <v>250</v>
@@ -7491,30 +7763,42 @@
         <v>700</v>
       </c>
       <c r="K123" s="16">
-        <f t="shared" si="25"/>
+        <f>AVERAGE(M123,N123,O123)</f>
         <v>-116.66666666666667</v>
       </c>
       <c r="L123" s="16">
         <f>AVERAGE(H123,I123,J123)</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="M123" s="2">
+      <c r="M123" s="87">
+        <f>E123*(-1)</f>
+        <v>250</v>
+      </c>
+      <c r="N123" s="87">
+        <f t="shared" ref="N123" si="52">F123*(-1)</f>
+        <v>-500</v>
+      </c>
+      <c r="O123" s="87">
+        <f t="shared" ref="O123" si="53">G123*(-1)</f>
+        <v>-100</v>
+      </c>
+      <c r="P123" s="2">
         <v>-116.67</v>
       </c>
-      <c r="N123" s="2">
+      <c r="Q123" s="2">
         <v>416.67</v>
       </c>
-      <c r="O123" s="2" t="s">
+      <c r="R123" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P123" s="40" t="s">
+      <c r="S123" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="Q123" s="2" t="s">
+      <c r="T123" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:20">
       <c r="B124" s="80" t="s">
         <v>269</v>
       </c>
@@ -7524,14 +7808,14 @@
       <c r="D124" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E124" s="2">
-        <v>250</v>
-      </c>
-      <c r="F124" s="2">
-        <v>-500</v>
-      </c>
-      <c r="G124" s="2">
-        <v>-100</v>
+      <c r="E124" s="87">
+        <v>-250</v>
+      </c>
+      <c r="F124" s="87">
+        <v>500</v>
+      </c>
+      <c r="G124" s="87">
+        <v>100</v>
       </c>
       <c r="H124" s="26">
         <v>-350</v>
@@ -7543,30 +7827,42 @@
         <v>50</v>
       </c>
       <c r="K124" s="16">
-        <f t="shared" si="25"/>
+        <f>AVERAGE(M124,N124,O124)</f>
         <v>-116.66666666666667</v>
       </c>
       <c r="L124" s="16">
         <f>AVERAGE(H124,I124,J124)</f>
         <v>0</v>
       </c>
-      <c r="M124" s="2">
+      <c r="M124" s="87">
+        <f>E124*(-1)</f>
+        <v>250</v>
+      </c>
+      <c r="N124" s="87">
+        <f t="shared" ref="N124" si="54">F124*(-1)</f>
+        <v>-500</v>
+      </c>
+      <c r="O124" s="87">
+        <f t="shared" ref="O124" si="55">G124*(-1)</f>
+        <v>-100</v>
+      </c>
+      <c r="P124" s="2">
         <v>-116.67</v>
       </c>
-      <c r="N124" s="2">
-        <v>0</v>
-      </c>
-      <c r="O124" s="37" t="s">
+      <c r="Q124" s="2">
+        <v>0</v>
+      </c>
+      <c r="R124" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P124" s="40" t="s">
+      <c r="S124" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="Q124" s="2" t="s">
+      <c r="T124" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:20">
       <c r="B125" s="80" t="s">
         <v>270</v>
       </c>
@@ -7576,14 +7872,14 @@
       <c r="D125" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E125" s="2">
-        <v>250</v>
-      </c>
-      <c r="F125" s="2">
-        <v>-500</v>
-      </c>
-      <c r="G125" s="2">
-        <v>-100</v>
+      <c r="E125" s="87">
+        <v>-250</v>
+      </c>
+      <c r="F125" s="87">
+        <v>500</v>
+      </c>
+      <c r="G125" s="87">
+        <v>100</v>
       </c>
       <c r="H125" s="26">
         <v>-100</v>
@@ -7595,30 +7891,42 @@
         <v>200</v>
       </c>
       <c r="K125" s="16">
-        <f t="shared" si="25"/>
+        <f>AVERAGE(M125,N125,O125)</f>
         <v>-116.66666666666667</v>
       </c>
       <c r="L125" s="16">
         <f>AVERAGE(H125,I125,J125)</f>
         <v>-16.666666666666668</v>
       </c>
-      <c r="M125" s="2">
+      <c r="M125" s="87">
+        <f>E125*(-1)</f>
+        <v>250</v>
+      </c>
+      <c r="N125" s="87">
+        <f t="shared" ref="N125" si="56">F125*(-1)</f>
+        <v>-500</v>
+      </c>
+      <c r="O125" s="87">
+        <f t="shared" ref="O125" si="57">G125*(-1)</f>
+        <v>-100</v>
+      </c>
+      <c r="P125" s="2">
         <v>-116.67</v>
       </c>
-      <c r="N125" s="2">
+      <c r="Q125" s="2">
         <v>-16.670000000000002</v>
       </c>
-      <c r="O125" s="2" t="s">
+      <c r="R125" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P125" s="40" t="s">
+      <c r="S125" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="Q125" s="2" t="s">
+      <c r="T125" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:20">
       <c r="B126" s="80" t="s">
         <v>271</v>
       </c>
@@ -7628,14 +7936,14 @@
       <c r="D126" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E126" s="2">
-        <v>150</v>
-      </c>
-      <c r="F126" s="2">
-        <v>150</v>
-      </c>
-      <c r="G126" s="2">
-        <v>150</v>
+      <c r="E126" s="87">
+        <v>-150</v>
+      </c>
+      <c r="F126" s="87">
+        <v>-150</v>
+      </c>
+      <c r="G126" s="87">
+        <v>-150</v>
       </c>
       <c r="H126" s="26">
         <v>-200</v>
@@ -7646,31 +7954,43 @@
       <c r="J126" s="26">
         <v>-700</v>
       </c>
-      <c r="K126" s="27">
-        <f t="shared" si="25"/>
+      <c r="K126" s="16">
+        <f>AVERAGE(M126,N126,O126)</f>
         <v>150</v>
       </c>
       <c r="L126" s="16">
         <f>AVERAGE(H126,I126,J126)</f>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M126" s="2">
+      <c r="M126" s="87">
+        <f>E126*(-1)</f>
         <v>150</v>
       </c>
-      <c r="N126" s="2">
+      <c r="N126" s="87">
+        <f t="shared" ref="N126" si="58">F126*(-1)</f>
+        <v>150</v>
+      </c>
+      <c r="O126" s="87">
+        <f t="shared" ref="O126" si="59">G126*(-1)</f>
+        <v>150</v>
+      </c>
+      <c r="P126" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q126" s="2">
         <v>-133.33000000000001</v>
       </c>
-      <c r="O126" s="2" t="s">
+      <c r="R126" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P126" s="40" t="s">
+      <c r="S126" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Q126" s="2" t="s">
+      <c r="T126" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:20">
       <c r="B127" s="80" t="s">
         <v>272</v>
       </c>
@@ -7680,14 +8000,14 @@
       <c r="D127" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E127" s="2">
-        <v>-200</v>
-      </c>
-      <c r="F127" s="2">
-        <v>100</v>
-      </c>
-      <c r="G127" s="2">
-        <v>100</v>
+      <c r="E127" s="87">
+        <v>200</v>
+      </c>
+      <c r="F127" s="87">
+        <v>-100</v>
+      </c>
+      <c r="G127" s="87">
+        <v>-100</v>
       </c>
       <c r="H127" s="26">
         <v>-200</v>
@@ -7698,31 +8018,43 @@
       <c r="J127" s="26">
         <v>-700</v>
       </c>
-      <c r="K127" s="27">
-        <f t="shared" si="25"/>
+      <c r="K127" s="16">
+        <f t="shared" ref="K127:K128" si="60">AVERAGE(M127,N127,O127)</f>
         <v>0</v>
       </c>
       <c r="L127" s="16">
-        <f t="shared" ref="L127:L128" si="27">AVERAGE(H127,I127,J127)</f>
+        <f t="shared" ref="L127:L128" si="61">AVERAGE(H127,I127,J127)</f>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M127" s="2">
-        <v>0</v>
-      </c>
-      <c r="N127" s="2">
+      <c r="M127" s="87">
+        <f t="shared" ref="M127:M128" si="62">E127*(-1)</f>
+        <v>-200</v>
+      </c>
+      <c r="N127" s="87">
+        <f t="shared" ref="N127:N128" si="63">F127*(-1)</f>
+        <v>100</v>
+      </c>
+      <c r="O127" s="87">
+        <f t="shared" ref="O127:O128" si="64">G127*(-1)</f>
+        <v>100</v>
+      </c>
+      <c r="P127" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="2">
         <v>-133.33000000000001</v>
       </c>
-      <c r="O127" s="2" t="s">
+      <c r="R127" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P127" s="40" t="s">
+      <c r="S127" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Q127" s="2" t="s">
+      <c r="T127" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:20">
       <c r="B128" s="80" t="s">
         <v>327</v>
       </c>
@@ -7732,14 +8064,14 @@
       <c r="D128" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="E128" s="16">
-        <v>450</v>
-      </c>
-      <c r="F128" s="16">
-        <v>-150</v>
-      </c>
-      <c r="G128" s="16">
-        <v>-550</v>
+      <c r="E128" s="87">
+        <v>-450</v>
+      </c>
+      <c r="F128" s="87">
+        <v>150</v>
+      </c>
+      <c r="G128" s="87">
+        <v>550</v>
       </c>
       <c r="H128" s="27">
         <v>-200</v>
@@ -7750,36 +8082,48 @@
       <c r="J128" s="27">
         <v>-700</v>
       </c>
-      <c r="K128" s="27">
-        <f t="shared" si="25"/>
+      <c r="K128" s="16">
+        <f t="shared" si="60"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="L128" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="61"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M128" s="27">
-        <f t="shared" ref="M128" si="28">AVERAGE(G128,H128,I128)</f>
-        <v>-83.333333333333329</v>
-      </c>
-      <c r="N128" s="16">
-        <f t="shared" ref="N128" si="29">AVERAGE(J128,K128,L128)</f>
+      <c r="M128" s="87">
+        <f t="shared" si="62"/>
+        <v>450</v>
+      </c>
+      <c r="N128" s="87">
+        <f t="shared" si="63"/>
+        <v>-150</v>
+      </c>
+      <c r="O128" s="87">
+        <f t="shared" si="64"/>
+        <v>-550</v>
+      </c>
+      <c r="P128" s="27">
+        <f>AVERAGE(G128,H128,I128)</f>
+        <v>283.33333333333331</v>
+      </c>
+      <c r="Q128" s="16">
+        <f>AVERAGE(J128,K128,L128)</f>
         <v>-305.5555555555556</v>
       </c>
-      <c r="O128" s="2" t="s">
+      <c r="R128" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P128" s="42" t="s">
+      <c r="S128" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="Q128" s="2" t="s">
+      <c r="T128" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:20">
       <c r="B130" s="39"/>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:20">
       <c r="A131" s="3" t="s">
         <v>159</v>
       </c>
@@ -7816,23 +8160,32 @@
       <c r="L131" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M131" s="36" t="s">
+      <c r="M131" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P131" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="N131" s="36" t="s">
+      <c r="Q131" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="O131" s="36" t="s">
+      <c r="R131" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="P131" s="43" t="s">
+      <c r="S131" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="Q131" s="36" t="s">
+      <c r="T131" s="36" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:20">
       <c r="A132" s="55"/>
       <c r="B132" s="80" t="s">
         <v>248</v>
@@ -7842,14 +8195,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D132" s="9"/>
-      <c r="E132" s="2">
-        <v>340</v>
-      </c>
-      <c r="F132" s="2">
-        <v>570</v>
-      </c>
-      <c r="G132" s="2">
-        <v>340</v>
+      <c r="E132" s="87">
+        <v>-340</v>
+      </c>
+      <c r="F132" s="87">
+        <v>-570</v>
+      </c>
+      <c r="G132" s="87">
+        <v>-340</v>
       </c>
       <c r="H132" s="2">
         <v>1000</v>
@@ -7861,28 +8214,40 @@
         <v>1000</v>
       </c>
       <c r="K132" s="2">
-        <f>AVERAGE(E132,F132,G132)</f>
+        <f>AVERAGE(M132,N132,O132)</f>
         <v>416.66666666666669</v>
       </c>
       <c r="L132" s="2">
         <f>AVERAGE(H132,I132,J132)</f>
         <v>1000</v>
       </c>
-      <c r="M132" s="2">
+      <c r="M132" s="87">
+        <f>E132*(-1)</f>
+        <v>340</v>
+      </c>
+      <c r="N132" s="87">
+        <f t="shared" ref="N132" si="65">F132*(-1)</f>
+        <v>570</v>
+      </c>
+      <c r="O132" s="87">
+        <f t="shared" ref="O132" si="66">G132*(-1)</f>
+        <v>340</v>
+      </c>
+      <c r="P132" s="2">
         <v>416.67</v>
       </c>
-      <c r="N132" s="37">
+      <c r="Q132" s="37">
         <v>1000</v>
       </c>
-      <c r="O132" s="2">
+      <c r="R132" s="2">
         <v>0.41670000000000001</v>
       </c>
-      <c r="P132" s="40"/>
-      <c r="Q132" s="2" t="s">
+      <c r="S132" s="40"/>
+      <c r="T132" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:20">
       <c r="B133" s="80" t="s">
         <v>249</v>
       </c>
@@ -7891,14 +8256,14 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F133" s="2">
-        <v>300</v>
-      </c>
-      <c r="G133" s="2">
-        <v>300</v>
+      <c r="E133" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F133" s="87">
+        <v>-300</v>
+      </c>
+      <c r="G133" s="87">
+        <v>-300</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>48</v>
@@ -7910,28 +8275,39 @@
         <v>1300</v>
       </c>
       <c r="K133" s="2">
-        <f>AVERAGE(E133,F133,G133)</f>
+        <f>AVERAGE(M133,N133,O133)</f>
         <v>300</v>
       </c>
       <c r="L133" s="2">
         <f>AVERAGE(H133,I133,J133)</f>
         <v>1300</v>
       </c>
-      <c r="M133" s="2">
+      <c r="M133" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="N133" s="87">
+        <f t="shared" ref="N133" si="67">F133*(-1)</f>
         <v>300</v>
       </c>
-      <c r="N133" s="37">
+      <c r="O133" s="87">
+        <f t="shared" ref="O133" si="68">G133*(-1)</f>
+        <v>300</v>
+      </c>
+      <c r="P133" s="2">
+        <v>300</v>
+      </c>
+      <c r="Q133" s="37">
         <v>1300</v>
       </c>
-      <c r="O133" s="2">
+      <c r="R133" s="2">
         <v>0.23080000000000001</v>
       </c>
-      <c r="P133" s="40"/>
-      <c r="Q133" s="2" t="s">
+      <c r="S133" s="40"/>
+      <c r="T133" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:20">
       <c r="B134" s="80" t="s">
         <v>250</v>
       </c>
@@ -7965,23 +8341,32 @@
       <c r="L134" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N134" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O134" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P134" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N134" s="29" t="s">
+      <c r="Q134" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="O134" s="2" t="s">
+      <c r="R134" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P134" s="40" t="s">
+      <c r="S134" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="Q134" s="2" t="s">
+      <c r="T134" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:20">
       <c r="B135" s="80" t="s">
         <v>251</v>
       </c>
@@ -7991,14 +8376,14 @@
       <c r="D135" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E135" s="2">
-        <v>-200</v>
-      </c>
-      <c r="F135" s="2">
-        <v>350</v>
-      </c>
-      <c r="G135" s="2">
-        <v>-150</v>
+      <c r="E135" s="87">
+        <v>200</v>
+      </c>
+      <c r="F135" s="87">
+        <v>-350</v>
+      </c>
+      <c r="G135" s="87">
+        <v>150</v>
       </c>
       <c r="H135" s="2">
         <v>-1300</v>
@@ -8010,30 +8395,42 @@
         <v>0</v>
       </c>
       <c r="K135" s="2">
-        <f t="shared" ref="K135:K144" si="30">AVERAGE(E135,F135,G135)</f>
+        <f>AVERAGE(M135,N135,O135)</f>
         <v>0</v>
       </c>
       <c r="L135" s="2">
-        <f t="shared" ref="L135:L144" si="31">AVERAGE(H135,I135,J135)</f>
-        <v>0</v>
-      </c>
-      <c r="M135" s="2">
-        <v>0</v>
-      </c>
-      <c r="N135" s="2">
-        <v>0</v>
-      </c>
-      <c r="O135" s="37">
+        <f t="shared" ref="L135:L144" si="69">AVERAGE(H135,I135,J135)</f>
+        <v>0</v>
+      </c>
+      <c r="M135" s="87">
+        <f>E135*(-1)</f>
+        <v>-200</v>
+      </c>
+      <c r="N135" s="87">
+        <f t="shared" ref="N135:N137" si="70">F135*(-1)</f>
+        <v>350</v>
+      </c>
+      <c r="O135" s="87">
+        <f t="shared" ref="O135:O137" si="71">G135*(-1)</f>
+        <v>-150</v>
+      </c>
+      <c r="P135" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>0</v>
+      </c>
+      <c r="R135" s="37">
         <v>999999</v>
       </c>
-      <c r="P135" s="40" t="s">
+      <c r="S135" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="Q135" s="2" t="s">
+      <c r="T135" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:20">
       <c r="B136" s="80" t="s">
         <v>252</v>
       </c>
@@ -8043,14 +8440,14 @@
       <c r="D136" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E136" s="2">
-        <v>200</v>
-      </c>
-      <c r="F136" s="2">
-        <v>200</v>
-      </c>
-      <c r="G136" s="2">
-        <v>200</v>
+      <c r="E136" s="87">
+        <v>-200</v>
+      </c>
+      <c r="F136" s="87">
+        <v>-200</v>
+      </c>
+      <c r="G136" s="87">
+        <v>-200</v>
       </c>
       <c r="H136" s="2">
         <v>-1300</v>
@@ -8062,30 +8459,42 @@
         <v>0</v>
       </c>
       <c r="K136" s="2">
-        <f t="shared" si="30"/>
+        <f>AVERAGE(M136,N136,O136)</f>
         <v>200</v>
       </c>
       <c r="L136" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M136" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="M136" s="87">
+        <f>E136*(-1)</f>
         <v>200</v>
       </c>
-      <c r="N136" s="2">
-        <v>0</v>
-      </c>
-      <c r="O136" s="37">
+      <c r="N136" s="87">
+        <f t="shared" si="70"/>
+        <v>200</v>
+      </c>
+      <c r="O136" s="87">
+        <f t="shared" si="71"/>
+        <v>200</v>
+      </c>
+      <c r="P136" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>0</v>
+      </c>
+      <c r="R136" s="37">
         <v>1000000</v>
       </c>
-      <c r="P136" s="40" t="s">
+      <c r="S136" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="Q136" s="2" t="s">
+      <c r="T136" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:20">
       <c r="B137" s="80" t="s">
         <v>253</v>
       </c>
@@ -8095,48 +8504,60 @@
       <c r="D137" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="87">
+        <v>-300</v>
+      </c>
+      <c r="F137" s="87">
+        <v>-300</v>
+      </c>
+      <c r="G137" s="87">
+        <v>-300</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K137" s="2">
+        <f>AVERAGE(M137,N137,O137)</f>
         <v>300</v>
       </c>
-      <c r="F137" s="2">
+      <c r="L137" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M137" s="87">
+        <f>E137*(-1)</f>
         <v>300</v>
       </c>
-      <c r="G137" s="2">
+      <c r="N137" s="87">
+        <f t="shared" si="70"/>
         <v>300</v>
       </c>
-      <c r="H137" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K137" s="2">
-        <f t="shared" si="30"/>
+      <c r="O137" s="87">
+        <f t="shared" si="71"/>
         <v>300</v>
       </c>
-      <c r="L137" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M137" s="2">
+      <c r="P137" s="2">
         <v>300</v>
       </c>
-      <c r="N137" s="2" t="s">
+      <c r="Q137" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O137" s="37" t="s">
+      <c r="R137" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P137" s="40" t="s">
+      <c r="S137" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="Q137" s="2" t="s">
+      <c r="T137" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:20">
       <c r="B138" s="80" t="s">
         <v>254</v>
       </c>
@@ -8168,26 +8589,35 @@
         <v>48</v>
       </c>
       <c r="L138" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="69"/>
         <v>1500</v>
       </c>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N138" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O138" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P138" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N138" s="37">
+      <c r="Q138" s="37">
         <v>1500</v>
       </c>
-      <c r="O138" s="37" t="s">
+      <c r="R138" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P138" s="40" t="s">
+      <c r="S138" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="Q138" s="2" t="s">
+      <c r="T138" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:20">
       <c r="B139" s="80" t="s">
         <v>255</v>
       </c>
@@ -8197,14 +8627,14 @@
       <c r="D139" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E139" s="2">
-        <v>200</v>
-      </c>
-      <c r="F139" s="2">
-        <v>200</v>
-      </c>
-      <c r="G139" s="2">
-        <v>-500</v>
+      <c r="E139" s="87">
+        <v>-200</v>
+      </c>
+      <c r="F139" s="87">
+        <v>-200</v>
+      </c>
+      <c r="G139" s="87">
+        <v>500</v>
       </c>
       <c r="H139" s="2">
         <v>700</v>
@@ -8216,30 +8646,42 @@
         <v>700</v>
       </c>
       <c r="K139" s="2">
-        <f t="shared" si="30"/>
+        <f>AVERAGE(M139,N139,O139)</f>
         <v>-33.333333333333336</v>
       </c>
       <c r="L139" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="69"/>
         <v>700</v>
       </c>
-      <c r="M139" s="2">
+      <c r="M139" s="87">
+        <f>E139*(-1)</f>
+        <v>200</v>
+      </c>
+      <c r="N139" s="87">
+        <f t="shared" ref="N139:N144" si="72">F139*(-1)</f>
+        <v>200</v>
+      </c>
+      <c r="O139" s="87">
+        <f t="shared" ref="O139:O144" si="73">G139*(-1)</f>
+        <v>-500</v>
+      </c>
+      <c r="P139" s="2">
         <v>-33.33</v>
       </c>
-      <c r="N139" s="2">
+      <c r="Q139" s="2">
         <v>700</v>
       </c>
-      <c r="O139" s="2" t="s">
+      <c r="R139" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P139" s="40" t="s">
+      <c r="S139" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="Q139" s="2" t="s">
+      <c r="T139" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:20">
       <c r="B140" s="80" t="s">
         <v>256</v>
       </c>
@@ -8249,14 +8691,14 @@
       <c r="D140" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E140" s="2">
-        <v>200</v>
-      </c>
-      <c r="F140" s="2">
-        <v>200</v>
-      </c>
-      <c r="G140" s="2">
-        <v>-500</v>
+      <c r="E140" s="87">
+        <v>-200</v>
+      </c>
+      <c r="F140" s="87">
+        <v>-200</v>
+      </c>
+      <c r="G140" s="87">
+        <v>500</v>
       </c>
       <c r="H140" s="2">
         <v>-700</v>
@@ -8268,30 +8710,42 @@
         <v>0</v>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="30"/>
+        <f>AVERAGE(M140,N140,O140)</f>
         <v>-33.333333333333336</v>
       </c>
       <c r="L140" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M140" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="M140" s="87">
+        <f>E140*(-1)</f>
+        <v>200</v>
+      </c>
+      <c r="N140" s="87">
+        <f t="shared" si="72"/>
+        <v>200</v>
+      </c>
+      <c r="O140" s="87">
+        <f t="shared" si="73"/>
+        <v>-500</v>
+      </c>
+      <c r="P140" s="2">
         <v>-33.33</v>
       </c>
-      <c r="N140" s="2">
-        <v>0</v>
-      </c>
-      <c r="O140" s="37" t="s">
+      <c r="Q140" s="2">
+        <v>0</v>
+      </c>
+      <c r="R140" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P140" s="40" t="s">
+      <c r="S140" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="Q140" s="2" t="s">
+      <c r="T140" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:20">
       <c r="B141" s="80" t="s">
         <v>257</v>
       </c>
@@ -8301,14 +8755,14 @@
       <c r="D141" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E141" s="2">
-        <v>200</v>
-      </c>
-      <c r="F141" s="2">
-        <v>100</v>
-      </c>
-      <c r="G141" s="2">
-        <v>-500</v>
+      <c r="E141" s="87">
+        <v>-200</v>
+      </c>
+      <c r="F141" s="87">
+        <v>-100</v>
+      </c>
+      <c r="G141" s="87">
+        <v>500</v>
       </c>
       <c r="H141" s="2">
         <v>-800</v>
@@ -8320,30 +8774,42 @@
         <v>-800</v>
       </c>
       <c r="K141" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="K141:K144" si="74">AVERAGE(M141,N141,O141)</f>
         <v>-66.666666666666671</v>
       </c>
       <c r="L141" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="69"/>
         <v>-800</v>
       </c>
-      <c r="M141" s="2">
+      <c r="M141" s="87">
+        <f>E141*(-1)</f>
+        <v>200</v>
+      </c>
+      <c r="N141" s="87">
+        <f t="shared" si="72"/>
+        <v>100</v>
+      </c>
+      <c r="O141" s="87">
+        <f t="shared" si="73"/>
+        <v>-500</v>
+      </c>
+      <c r="P141" s="2">
         <v>-66.67</v>
       </c>
-      <c r="N141" s="2">
+      <c r="Q141" s="2">
         <v>-800</v>
       </c>
-      <c r="O141" s="2" t="s">
+      <c r="R141" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P141" s="40" t="s">
+      <c r="S141" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="Q141" s="2" t="s">
+      <c r="T141" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:20">
       <c r="B142" s="80" t="s">
         <v>258</v>
       </c>
@@ -8353,14 +8819,14 @@
       <c r="D142" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E142" s="2">
-        <v>100</v>
-      </c>
-      <c r="F142" s="2">
-        <v>100</v>
-      </c>
-      <c r="G142" s="2">
-        <v>100</v>
+      <c r="E142" s="87">
+        <v>-100</v>
+      </c>
+      <c r="F142" s="87">
+        <v>-100</v>
+      </c>
+      <c r="G142" s="87">
+        <v>-100</v>
       </c>
       <c r="H142" s="2">
         <v>-500</v>
@@ -8372,30 +8838,42 @@
         <v>-500</v>
       </c>
       <c r="K142" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="74"/>
         <v>100</v>
       </c>
       <c r="L142" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="69"/>
         <v>-500</v>
       </c>
-      <c r="M142" s="2">
+      <c r="M142" s="87">
+        <f>E142*(-1)</f>
         <v>100</v>
       </c>
-      <c r="N142" s="2">
+      <c r="N142" s="87">
+        <f t="shared" si="72"/>
+        <v>100</v>
+      </c>
+      <c r="O142" s="87">
+        <f t="shared" si="73"/>
+        <v>100</v>
+      </c>
+      <c r="P142" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q142" s="2">
         <v>-500</v>
       </c>
-      <c r="O142" s="2" t="s">
+      <c r="R142" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P142" s="40" t="s">
+      <c r="S142" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Q142" s="2" t="s">
+      <c r="T142" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:20">
       <c r="B143" s="80" t="s">
         <v>328</v>
       </c>
@@ -8405,13 +8883,13 @@
       <c r="D143" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="87">
+        <v>300</v>
+      </c>
+      <c r="F143" s="87">
         <v>-300</v>
       </c>
-      <c r="F143" s="2">
-        <v>300</v>
-      </c>
-      <c r="G143" s="2">
+      <c r="G143" s="87">
         <v>0</v>
       </c>
       <c r="H143" s="2">
@@ -8424,30 +8902,42 @@
         <v>700</v>
       </c>
       <c r="K143" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="L143" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="69"/>
         <v>-200</v>
       </c>
-      <c r="M143" s="2">
-        <v>0</v>
-      </c>
-      <c r="N143" s="2">
+      <c r="M143" s="87">
+        <f t="shared" ref="M143:M144" si="75">E143*(-1)</f>
+        <v>-300</v>
+      </c>
+      <c r="N143" s="87">
+        <f t="shared" si="72"/>
+        <v>300</v>
+      </c>
+      <c r="O143" s="87">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P143" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="2">
         <v>-200</v>
       </c>
-      <c r="O143" s="2" t="s">
+      <c r="R143" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P143" s="40" t="s">
+      <c r="S143" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Q143" s="2" t="s">
+      <c r="T143" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:20">
       <c r="B144" s="80" t="s">
         <v>329</v>
       </c>
@@ -8457,14 +8947,14 @@
       <c r="D144" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="E144" s="16">
-        <v>200</v>
-      </c>
-      <c r="F144" s="16">
-        <v>-300</v>
-      </c>
-      <c r="G144" s="16">
-        <v>-300</v>
+      <c r="E144" s="87">
+        <v>-200</v>
+      </c>
+      <c r="F144" s="87">
+        <v>300</v>
+      </c>
+      <c r="G144" s="87">
+        <v>300</v>
       </c>
       <c r="H144" s="16">
         <v>-500</v>
@@ -8475,31 +8965,43 @@
       <c r="J144" s="16">
         <v>-500</v>
       </c>
-      <c r="K144" s="16">
-        <f t="shared" si="30"/>
+      <c r="K144" s="2">
+        <f t="shared" si="74"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="L144" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="69"/>
         <v>-166.66666666666666</v>
       </c>
-      <c r="M144" s="16">
+      <c r="M144" s="87">
+        <f t="shared" si="75"/>
+        <v>200</v>
+      </c>
+      <c r="N144" s="87">
+        <f t="shared" si="72"/>
+        <v>-300</v>
+      </c>
+      <c r="O144" s="87">
+        <f t="shared" si="73"/>
+        <v>-300</v>
+      </c>
+      <c r="P144" s="16">
         <v>-133.33000000000001</v>
       </c>
-      <c r="N144" s="16">
+      <c r="Q144" s="16">
         <v>-166.67</v>
       </c>
-      <c r="O144" s="16" t="s">
+      <c r="R144" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="P144" s="42" t="s">
+      <c r="S144" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="Q144" s="2" t="s">
+      <c r="T144" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:20">
       <c r="A147" s="3" t="s">
         <v>165</v>
       </c>
@@ -8536,23 +9038,32 @@
       <c r="L147" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M147" s="36" t="s">
+      <c r="M147" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P147" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="N147" s="36" t="s">
+      <c r="Q147" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O147" s="36" t="s">
+      <c r="R147" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="P147" s="43" t="s">
+      <c r="S147" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="Q147" s="36" t="s">
+      <c r="T147" s="36" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:20">
       <c r="A148" s="15"/>
       <c r="B148" s="80" t="s">
         <v>275</v>
@@ -8562,14 +9073,14 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D148" s="9"/>
-      <c r="E148" s="2">
-        <v>300</v>
-      </c>
-      <c r="F148" s="2">
-        <v>200</v>
-      </c>
-      <c r="G148" s="2">
-        <v>500</v>
+      <c r="E148" s="87">
+        <v>-300</v>
+      </c>
+      <c r="F148" s="87">
+        <v>-200</v>
+      </c>
+      <c r="G148" s="87">
+        <v>-500</v>
       </c>
       <c r="H148" s="2">
         <v>700</v>
@@ -8581,28 +9092,40 @@
         <v>1200</v>
       </c>
       <c r="K148" s="2">
-        <f>AVERAGE(E148,F148,G148)</f>
+        <f>AVERAGE(M148,N148,O148)</f>
         <v>333.33333333333331</v>
       </c>
       <c r="L148" s="2">
         <f>AVERAGE(H148,I148,J148)</f>
         <v>833.33333333333337</v>
       </c>
-      <c r="M148" s="2">
+      <c r="M148" s="87">
+        <f>E148*(-1)</f>
+        <v>300</v>
+      </c>
+      <c r="N148" s="87">
+        <f t="shared" ref="N148:N149" si="76">F148*(-1)</f>
+        <v>200</v>
+      </c>
+      <c r="O148" s="87">
+        <f t="shared" ref="O148:O149" si="77">G148*(-1)</f>
+        <v>500</v>
+      </c>
+      <c r="P148" s="2">
         <v>333.33</v>
       </c>
-      <c r="N148" s="2">
+      <c r="Q148" s="2">
         <v>833.33</v>
       </c>
-      <c r="O148" s="2">
+      <c r="R148" s="2">
         <v>0.4</v>
       </c>
-      <c r="P148" s="40"/>
-      <c r="Q148" s="2" t="s">
+      <c r="S148" s="40"/>
+      <c r="T148" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:20">
       <c r="B149" s="80" t="s">
         <v>276</v>
       </c>
@@ -8611,14 +9134,14 @@
         <v>0.42307692307692307</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F149" s="2">
-        <v>300</v>
-      </c>
-      <c r="G149" s="2">
-        <v>250</v>
+      <c r="E149" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F149" s="87">
+        <v>-300</v>
+      </c>
+      <c r="G149" s="87">
+        <v>-250</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>48</v>
@@ -8630,28 +9153,39 @@
         <v>900</v>
       </c>
       <c r="K149" s="2">
-        <f>AVERAGE(E149,F149,G149)</f>
+        <f t="shared" ref="K149:K160" si="78">AVERAGE(M149,N149,O149)</f>
         <v>275</v>
       </c>
       <c r="L149" s="2">
         <f>AVERAGE(H149,I149,J149)</f>
         <v>650</v>
       </c>
-      <c r="M149" s="2">
+      <c r="M149" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="N149" s="87">
+        <f t="shared" si="76"/>
+        <v>300</v>
+      </c>
+      <c r="O149" s="87">
+        <f t="shared" si="77"/>
+        <v>250</v>
+      </c>
+      <c r="P149" s="2">
         <v>275</v>
       </c>
-      <c r="N149" s="2">
+      <c r="Q149" s="2">
         <v>650</v>
       </c>
-      <c r="O149" s="2">
+      <c r="R149" s="2">
         <v>0.42309999999999998</v>
       </c>
-      <c r="P149" s="40"/>
-      <c r="Q149" s="2" t="s">
+      <c r="S149" s="40"/>
+      <c r="T149" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:20">
       <c r="B150" s="80" t="s">
         <v>277</v>
       </c>
@@ -8661,13 +9195,13 @@
       <c r="D150" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="E150" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G150" s="16" t="s">
         <v>48</v>
       </c>
       <c r="H150" s="2" t="s">
@@ -8685,23 +9219,32 @@
       <c r="L150" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N150" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O150" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P150" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N150" s="29" t="s">
+      <c r="Q150" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="O150" s="2" t="s">
+      <c r="R150" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P150" s="40" t="s">
+      <c r="S150" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="Q150" s="2" t="s">
+      <c r="T150" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:20">
       <c r="B151" s="80" t="s">
         <v>278</v>
       </c>
@@ -8711,14 +9254,14 @@
       <c r="D151" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E151" s="2">
-        <v>700</v>
-      </c>
-      <c r="F151" s="2">
-        <v>-500</v>
-      </c>
-      <c r="G151" s="2">
-        <v>-200</v>
+      <c r="E151" s="87">
+        <v>-700</v>
+      </c>
+      <c r="F151" s="87">
+        <v>500</v>
+      </c>
+      <c r="G151" s="87">
+        <v>200</v>
       </c>
       <c r="H151" s="2">
         <v>1000</v>
@@ -8730,30 +9273,42 @@
         <v>-400</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" ref="K151:K160" si="32">AVERAGE(E151,F151,G151)</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L151" s="2">
-        <f t="shared" ref="L151:L160" si="33">AVERAGE(H151,I151,J151)</f>
-        <v>0</v>
-      </c>
-      <c r="M151" s="2">
-        <v>0</v>
-      </c>
-      <c r="N151" s="2">
-        <v>0</v>
-      </c>
-      <c r="O151" s="37">
+        <f t="shared" ref="L151:L160" si="79">AVERAGE(H151,I151,J151)</f>
+        <v>0</v>
+      </c>
+      <c r="M151" s="87">
+        <f>E151*(-1)</f>
+        <v>700</v>
+      </c>
+      <c r="N151" s="87">
+        <f t="shared" ref="N151:N153" si="80">F151*(-1)</f>
+        <v>-500</v>
+      </c>
+      <c r="O151" s="87">
+        <f t="shared" ref="O151:O153" si="81">G151*(-1)</f>
+        <v>-200</v>
+      </c>
+      <c r="P151" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>0</v>
+      </c>
+      <c r="R151" s="37">
         <v>999999</v>
       </c>
-      <c r="P151" s="40" t="s">
+      <c r="S151" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="Q151" s="2" t="s">
+      <c r="T151" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:20">
       <c r="B152" s="80" t="s">
         <v>279</v>
       </c>
@@ -8763,14 +9318,14 @@
       <c r="D152" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E152" s="2">
-        <v>500</v>
-      </c>
-      <c r="F152" s="2">
-        <v>300</v>
-      </c>
-      <c r="G152" s="2">
-        <v>400</v>
+      <c r="E152" s="87">
+        <v>-500</v>
+      </c>
+      <c r="F152" s="87">
+        <v>-300</v>
+      </c>
+      <c r="G152" s="87">
+        <v>-400</v>
       </c>
       <c r="H152" s="2">
         <v>-1300</v>
@@ -8782,30 +9337,42 @@
         <v>600</v>
       </c>
       <c r="K152" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="78"/>
         <v>400</v>
       </c>
       <c r="L152" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M152" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="M152" s="87">
+        <f>E152*(-1)</f>
+        <v>500</v>
+      </c>
+      <c r="N152" s="87">
+        <f t="shared" si="80"/>
+        <v>300</v>
+      </c>
+      <c r="O152" s="87">
+        <f t="shared" si="81"/>
         <v>400</v>
       </c>
-      <c r="N152" s="2">
-        <v>0</v>
-      </c>
-      <c r="O152" s="37">
+      <c r="P152" s="2">
+        <v>400</v>
+      </c>
+      <c r="Q152" s="2">
+        <v>0</v>
+      </c>
+      <c r="R152" s="37">
         <v>1000000</v>
       </c>
-      <c r="P152" s="40" t="s">
+      <c r="S152" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="Q152" s="2" t="s">
+      <c r="T152" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:20">
       <c r="B153" s="80" t="s">
         <v>280</v>
       </c>
@@ -8815,48 +9382,60 @@
       <c r="D153" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="87">
+        <v>-100</v>
+      </c>
+      <c r="F153" s="87">
+        <v>-700</v>
+      </c>
+      <c r="G153" s="87">
+        <v>-300</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K153" s="2">
+        <f t="shared" si="78"/>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M153" s="87">
+        <f>E153*(-1)</f>
         <v>100</v>
       </c>
-      <c r="F153" s="2">
+      <c r="N153" s="87">
+        <f t="shared" si="80"/>
         <v>700</v>
       </c>
-      <c r="G153" s="2">
+      <c r="O153" s="87">
+        <f t="shared" si="81"/>
         <v>300</v>
       </c>
-      <c r="H153" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K153" s="2">
-        <f t="shared" si="32"/>
-        <v>366.66666666666669</v>
-      </c>
-      <c r="L153" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M153" s="2">
+      <c r="P153" s="2">
         <v>366.67</v>
       </c>
-      <c r="N153" s="2" t="s">
+      <c r="Q153" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O153" s="37" t="s">
+      <c r="R153" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P153" s="40" t="s">
+      <c r="S153" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="Q153" s="2" t="s">
+      <c r="T153" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:20">
       <c r="B154" s="80" t="s">
         <v>281</v>
       </c>
@@ -8888,26 +9467,35 @@
         <v>48</v>
       </c>
       <c r="L154" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="79"/>
         <v>766.66666666666663</v>
       </c>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N154" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O154" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P154" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N154" s="2">
+      <c r="Q154" s="2">
         <v>766.67</v>
       </c>
-      <c r="O154" s="37" t="s">
+      <c r="R154" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P154" s="40" t="s">
+      <c r="S154" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="Q154" s="2" t="s">
+      <c r="T154" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:20">
       <c r="B155" s="80" t="s">
         <v>282</v>
       </c>
@@ -8917,14 +9505,14 @@
       <c r="D155" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E155" s="2">
-        <v>300</v>
-      </c>
-      <c r="F155" s="2">
-        <v>-700</v>
-      </c>
-      <c r="G155" s="2">
-        <v>-200</v>
+      <c r="E155" s="87">
+        <v>-300</v>
+      </c>
+      <c r="F155" s="87">
+        <v>700</v>
+      </c>
+      <c r="G155" s="87">
+        <v>200</v>
       </c>
       <c r="H155" s="2">
         <v>400</v>
@@ -8936,30 +9524,42 @@
         <v>400</v>
       </c>
       <c r="K155" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="78"/>
         <v>-200</v>
       </c>
       <c r="L155" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="79"/>
         <v>500</v>
       </c>
-      <c r="M155" s="2">
+      <c r="M155" s="87">
+        <f>E155*(-1)</f>
+        <v>300</v>
+      </c>
+      <c r="N155" s="87">
+        <f t="shared" ref="N155:N160" si="82">F155*(-1)</f>
+        <v>-700</v>
+      </c>
+      <c r="O155" s="87">
+        <f t="shared" ref="O155:O160" si="83">G155*(-1)</f>
         <v>-200</v>
       </c>
-      <c r="N155" s="2">
+      <c r="P155" s="2">
+        <v>-200</v>
+      </c>
+      <c r="Q155" s="2">
         <v>500</v>
       </c>
-      <c r="O155" s="2" t="s">
+      <c r="R155" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P155" s="40" t="s">
+      <c r="S155" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="Q155" s="2" t="s">
+      <c r="T155" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:20">
       <c r="B156" s="80" t="s">
         <v>283</v>
       </c>
@@ -8969,14 +9569,14 @@
       <c r="D156" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E156" s="2">
-        <v>-200</v>
-      </c>
-      <c r="F156" s="2">
-        <v>500</v>
-      </c>
-      <c r="G156" s="2">
-        <v>-800</v>
+      <c r="E156" s="87">
+        <v>200</v>
+      </c>
+      <c r="F156" s="87">
+        <v>-500</v>
+      </c>
+      <c r="G156" s="87">
+        <v>800</v>
       </c>
       <c r="H156" s="2">
         <v>300</v>
@@ -8988,30 +9588,42 @@
         <v>-800</v>
       </c>
       <c r="K156" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="78"/>
         <v>-166.66666666666666</v>
       </c>
       <c r="L156" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M156" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="M156" s="87">
+        <f>E156*(-1)</f>
+        <v>-200</v>
+      </c>
+      <c r="N156" s="87">
+        <f t="shared" si="82"/>
+        <v>500</v>
+      </c>
+      <c r="O156" s="87">
+        <f t="shared" si="83"/>
+        <v>-800</v>
+      </c>
+      <c r="P156" s="2">
         <v>-166.67</v>
       </c>
-      <c r="N156" s="2">
-        <v>0</v>
-      </c>
-      <c r="O156" s="37" t="s">
+      <c r="Q156" s="2">
+        <v>0</v>
+      </c>
+      <c r="R156" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="P156" s="40" t="s">
+      <c r="S156" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="Q156" s="2" t="s">
+      <c r="T156" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:20">
       <c r="B157" s="80" t="s">
         <v>284</v>
       </c>
@@ -9021,14 +9633,14 @@
       <c r="D157" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E157" s="2">
-        <v>800</v>
-      </c>
-      <c r="F157" s="2">
-        <v>-400</v>
-      </c>
-      <c r="G157" s="2">
-        <v>-1000</v>
+      <c r="E157" s="87">
+        <v>-800</v>
+      </c>
+      <c r="F157" s="87">
+        <v>400</v>
+      </c>
+      <c r="G157" s="87">
+        <v>1000</v>
       </c>
       <c r="H157" s="2">
         <v>700</v>
@@ -9040,30 +9652,42 @@
         <v>-600</v>
       </c>
       <c r="K157" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="78"/>
         <v>-200</v>
       </c>
       <c r="L157" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="79"/>
         <v>-300</v>
       </c>
-      <c r="M157" s="2">
+      <c r="M157" s="87">
+        <f>E157*(-1)</f>
+        <v>800</v>
+      </c>
+      <c r="N157" s="87">
+        <f t="shared" si="82"/>
+        <v>-400</v>
+      </c>
+      <c r="O157" s="87">
+        <f t="shared" si="83"/>
+        <v>-1000</v>
+      </c>
+      <c r="P157" s="2">
         <v>-200</v>
       </c>
-      <c r="N157" s="2">
+      <c r="Q157" s="2">
         <v>-300</v>
       </c>
-      <c r="O157" s="2" t="s">
+      <c r="R157" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P157" s="40" t="s">
+      <c r="S157" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="Q157" s="2" t="s">
+      <c r="T157" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:20">
       <c r="B158" s="80" t="s">
         <v>285</v>
       </c>
@@ -9073,14 +9697,14 @@
       <c r="D158" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E158" s="2">
-        <v>200</v>
-      </c>
-      <c r="F158" s="2">
-        <v>200</v>
-      </c>
-      <c r="G158" s="2">
-        <v>200</v>
+      <c r="E158" s="87">
+        <v>-200</v>
+      </c>
+      <c r="F158" s="87">
+        <v>-200</v>
+      </c>
+      <c r="G158" s="87">
+        <v>-200</v>
       </c>
       <c r="H158" s="2">
         <v>1000</v>
@@ -9092,30 +9716,42 @@
         <v>-300</v>
       </c>
       <c r="K158" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="78"/>
         <v>200</v>
       </c>
       <c r="L158" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="79"/>
         <v>-66.666666666666671</v>
       </c>
-      <c r="M158" s="2">
+      <c r="M158" s="87">
+        <f>E158*(-1)</f>
         <v>200</v>
       </c>
-      <c r="N158" s="2">
+      <c r="N158" s="87">
+        <f t="shared" si="82"/>
+        <v>200</v>
+      </c>
+      <c r="O158" s="87">
+        <f t="shared" si="83"/>
+        <v>200</v>
+      </c>
+      <c r="P158" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q158" s="2">
         <v>-66.67</v>
       </c>
-      <c r="O158" s="2" t="s">
+      <c r="R158" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P158" s="40" t="s">
+      <c r="S158" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Q158" s="2" t="s">
+      <c r="T158" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:20">
       <c r="B159" s="80" t="s">
         <v>330</v>
       </c>
@@ -9125,14 +9761,14 @@
       <c r="D159" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E159" s="2">
-        <v>400</v>
-      </c>
-      <c r="F159" s="2">
-        <v>-300</v>
-      </c>
-      <c r="G159" s="2">
-        <v>-100</v>
+      <c r="E159" s="87">
+        <v>-400</v>
+      </c>
+      <c r="F159" s="87">
+        <v>300</v>
+      </c>
+      <c r="G159" s="87">
+        <v>100</v>
       </c>
       <c r="H159" s="2">
         <v>900</v>
@@ -9144,30 +9780,42 @@
         <v>-600</v>
       </c>
       <c r="K159" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L159" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="79"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M159" s="2">
-        <v>0</v>
-      </c>
-      <c r="N159" s="2">
+      <c r="M159" s="87">
+        <f t="shared" ref="M159:M160" si="84">E159*(-1)</f>
+        <v>400</v>
+      </c>
+      <c r="N159" s="87">
+        <f t="shared" si="82"/>
+        <v>-300</v>
+      </c>
+      <c r="O159" s="87">
+        <f t="shared" si="83"/>
+        <v>-100</v>
+      </c>
+      <c r="P159" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="2">
         <v>-133.33000000000001</v>
       </c>
-      <c r="O159" s="2" t="s">
+      <c r="R159" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P159" s="40" t="s">
+      <c r="S159" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Q159" s="2" t="s">
+      <c r="T159" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:20">
       <c r="B160" s="80" t="s">
         <v>331</v>
       </c>
@@ -9177,14 +9825,14 @@
       <c r="D160" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E160" s="2">
-        <v>200</v>
-      </c>
-      <c r="F160" s="2">
-        <v>-300</v>
-      </c>
-      <c r="G160" s="2">
-        <v>-100</v>
+      <c r="E160" s="87">
+        <v>-200</v>
+      </c>
+      <c r="F160" s="87">
+        <v>300</v>
+      </c>
+      <c r="G160" s="87">
+        <v>100</v>
       </c>
       <c r="H160" s="2">
         <v>-700</v>
@@ -9196,26 +9844,38 @@
         <v>-950</v>
       </c>
       <c r="K160" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="78"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="L160" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="79"/>
         <v>-50</v>
       </c>
-      <c r="M160" s="2">
+      <c r="M160" s="87">
+        <f t="shared" si="84"/>
+        <v>200</v>
+      </c>
+      <c r="N160" s="87">
+        <f t="shared" si="82"/>
+        <v>-300</v>
+      </c>
+      <c r="O160" s="87">
+        <f t="shared" si="83"/>
+        <v>-100</v>
+      </c>
+      <c r="P160" s="2">
         <v>-66.67</v>
       </c>
-      <c r="N160" s="2">
+      <c r="Q160" s="2">
         <v>-50</v>
       </c>
-      <c r="O160" s="2" t="s">
+      <c r="R160" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P160" s="40" t="s">
+      <c r="S160" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="Q160" s="2" t="s">
+      <c r="T160" s="2" t="s">
         <v>195</v>
       </c>
     </row>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
@@ -367,15 +367,6 @@
     <t>IND_71</t>
   </si>
   <si>
-    <t>IMP_SALDO_CC_M0</t>
-  </si>
-  <si>
-    <t>IMP_SALDO_CC_M1</t>
-  </si>
-  <si>
-    <t>IMP_SALDO_CC_M2</t>
-  </si>
-  <si>
     <t>IMP_VAL_MERC_CD_M0</t>
   </si>
   <si>
@@ -1037,6 +1028,15 @@
   </si>
   <si>
     <t>0000000000000214</t>
+  </si>
+  <si>
+    <t>IMP_SALDO_CC_GT_0_M0</t>
+  </si>
+  <si>
+    <t>IMP_SALDO_CC_GT_0_M1</t>
+  </si>
+  <si>
+    <t>IMP_SALDO_CC_GT_0_M2</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1484,6 +1484,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2018,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AN208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O119" sqref="O119"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2081,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2100,7 +2103,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2123,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2144,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2173,7 +2176,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2192,7 +2195,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2215,7 +2218,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2236,7 +2239,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2271,7 +2274,7 @@
         <v>25</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2298,7 +2301,7 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -2325,7 +2328,7 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -2351,7 +2354,7 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -2378,7 +2381,7 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -2409,7 +2412,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -2464,7 +2467,7 @@
         <v>37</v>
       </c>
       <c r="O23" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
@@ -2511,7 +2514,7 @@
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
@@ -2557,7 +2560,7 @@
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2595,13 +2598,13 @@
         <v>48</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N26" s="16" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2612,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="71" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E27" s="66">
         <v>-36</v>
@@ -2645,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="58" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2668,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>61</v>
@@ -2698,22 +2701,22 @@
         <v>45</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R30" s="36" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T30" s="36" t="s">
         <v>63</v>
@@ -2722,7 +2725,7 @@
         <v>62</v>
       </c>
       <c r="V30" s="43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2783,7 +2786,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="40"/>
       <c r="V31" s="40" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2844,7 +2847,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="40"/>
       <c r="V32" s="40" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="2:24">
@@ -2905,7 +2908,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="40"/>
       <c r="V33" s="40" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="2:24">
@@ -2960,7 +2963,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="40"/>
       <c r="V34" s="40" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="2:24">
@@ -3020,7 +3023,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="40"/>
       <c r="V35" s="40" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="2:24">
@@ -3075,7 +3078,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="40"/>
       <c r="V36" s="40" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="2:24">
@@ -3131,7 +3134,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="40"/>
       <c r="V37" s="40" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="2:24">
@@ -3195,7 +3198,7 @@
       </c>
       <c r="U38" s="54"/>
       <c r="V38" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="2:24">
@@ -3263,7 +3266,7 @@
         <v>66</v>
       </c>
       <c r="V39" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="2:24">
@@ -3325,13 +3328,13 @@
         <v>-33</v>
       </c>
       <c r="T40" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U40" s="54" t="s">
         <v>72</v>
       </c>
       <c r="V40" s="42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:24">
@@ -3391,7 +3394,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="40"/>
       <c r="V41" s="42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="2:24">
@@ -3453,30 +3456,30 @@
         <v>0</v>
       </c>
       <c r="T42" s="60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U42" s="42" t="s">
         <v>77</v>
       </c>
       <c r="V42" s="42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W42" s="63"/>
       <c r="X42" s="63"/>
     </row>
     <row r="43" spans="2:24" s="15" customFormat="1">
       <c r="B43" s="82" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C43" s="17">
         <f>N43</f>
         <v>999999</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F43" s="24">
         <v>500</v>
@@ -3525,18 +3528,18 @@
       <c r="T43" s="59"/>
       <c r="U43" s="42"/>
       <c r="V43" s="42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="2:24" s="15" customFormat="1">
       <c r="B44" s="80" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>48</v>
@@ -3588,18 +3591,18 @@
       <c r="T44" s="2"/>
       <c r="U44" s="42"/>
       <c r="V44" s="42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="2:24" s="15" customFormat="1">
       <c r="B45" s="80" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C45" s="17">
         <v>0.34639999999999999</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>48</v>
@@ -3651,7 +3654,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="42"/>
       <c r="V45" s="42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="2:24" s="15" customFormat="1">
@@ -3662,7 +3665,7 @@
         <v>0.34639999999999999</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>48</v>
@@ -3714,7 +3717,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="42"/>
       <c r="V46" s="42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="2:24">
@@ -3761,19 +3764,19 @@
         <v>45</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q49" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="R49" s="36" t="s">
         <v>85</v>
@@ -3782,13 +3785,13 @@
         <v>86</v>
       </c>
       <c r="T49" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="15"/>
       <c r="B50" s="82" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C50" s="2">
         <f>K50/L50</f>
@@ -3844,14 +3847,14 @@
       </c>
       <c r="S50" s="40"/>
       <c r="T50" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="U50" s="63"/>
       <c r="V50" s="63"/>
     </row>
     <row r="51" spans="1:22">
       <c r="B51" s="80" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C51" s="2">
         <f>K51/L51</f>
@@ -3907,12 +3910,12 @@
       </c>
       <c r="S51" s="40"/>
       <c r="T51" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="B52" s="82" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
@@ -3952,24 +3955,24 @@
         <v>48</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S52" s="40" t="s">
         <v>64</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="B53" s="80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
@@ -4028,12 +4031,12 @@
         <v>66</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="B54" s="80" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C54" s="19">
         <v>1000000</v>
@@ -4092,12 +4095,12 @@
         <v>88</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="80" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>4</v>
@@ -4139,24 +4142,24 @@
         <v>48</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S55" s="40" t="s">
         <v>64</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:22" s="20" customFormat="1">
       <c r="B56" s="80" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -4199,24 +4202,24 @@
         <v>48</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q56" s="2">
         <v>466.67</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S56" s="40" t="s">
         <v>69</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:22" s="21" customFormat="1">
       <c r="B57" s="80" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>4</v>
@@ -4269,19 +4272,19 @@
         <v>-33.33</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S57" s="40" t="s">
         <v>72</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:22" s="20" customFormat="1">
       <c r="A58" s="21"/>
       <c r="B58" s="80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -4334,13 +4337,13 @@
         <v>-33.33</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S58" s="40" t="s">
         <v>72</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4387,19 +4390,19 @@
         <v>45</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P61" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q61" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R61" s="36" t="s">
         <v>95</v>
@@ -4408,13 +4411,13 @@
         <v>97</v>
       </c>
       <c r="T61" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="15"/>
       <c r="B62" s="82" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C62" s="2">
         <f>K62/L62</f>
@@ -4470,14 +4473,14 @@
       </c>
       <c r="S62" s="40"/>
       <c r="T62" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="U62" s="63"/>
       <c r="V62" s="63"/>
     </row>
     <row r="63" spans="1:22">
       <c r="B63" s="80" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C63" s="2">
         <f>K63/L63</f>
@@ -4533,12 +4536,12 @@
       </c>
       <c r="S63" s="40"/>
       <c r="T63" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="B64" s="82" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -4580,24 +4583,24 @@
         <v>48</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S64" s="40" t="s">
         <v>64</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="B65" s="80" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C65" s="16">
         <v>0</v>
@@ -4656,12 +4659,12 @@
         <v>66</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="B66" s="80" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C66" s="19">
         <v>1000000</v>
@@ -4720,12 +4723,12 @@
         <v>88</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="B67" s="80" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>4</v>
@@ -4767,24 +4770,24 @@
         <v>48</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q67" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S67" s="40" t="s">
         <v>64</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="B68" s="80" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>4</v>
@@ -4827,24 +4830,24 @@
         <v>48</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q68" s="2">
         <v>466.67</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S68" s="40" t="s">
         <v>69</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:20" s="20" customFormat="1">
       <c r="B69" s="80" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>4</v>
@@ -4897,18 +4900,18 @@
         <v>-33.33</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S69" s="40" t="s">
         <v>72</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:20" s="20" customFormat="1">
       <c r="B70" s="80" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
@@ -4961,13 +4964,13 @@
         <v>-33.33</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S70" s="40" t="s">
         <v>72</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5011,10 +5014,10 @@
         <v>45</v>
       </c>
       <c r="M73" s="36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N73" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O73" s="36" t="s">
         <v>98</v>
@@ -5023,13 +5026,13 @@
         <v>107</v>
       </c>
       <c r="Q73" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:20" s="20" customFormat="1">
       <c r="A74" s="21"/>
       <c r="B74" s="80" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C74" s="2">
         <f>K74/L74</f>
@@ -5073,13 +5076,13 @@
       </c>
       <c r="P74" s="40"/>
       <c r="Q74" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:20" s="20" customFormat="1">
       <c r="A75" s="21"/>
       <c r="B75" s="80" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C75" s="2">
         <f>K75/L75</f>
@@ -5123,12 +5126,12 @@
       </c>
       <c r="P75" s="40"/>
       <c r="Q75" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="B76" s="80" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>4</v>
@@ -5161,24 +5164,24 @@
         <v>48</v>
       </c>
       <c r="M76" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P76" s="40" t="s">
         <v>64</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="B77" s="80" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C77" s="19">
         <v>0</v>
@@ -5225,12 +5228,12 @@
         <v>66</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="B78" s="80" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -5264,24 +5267,24 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N78" s="2">
         <v>0.444444444444</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P78" s="40" t="s">
         <v>67</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="B79" s="80" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>4</v>
@@ -5315,24 +5318,24 @@
         <v>0</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N79" s="2">
         <v>0</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P79" s="40" t="s">
         <v>67</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="B80" s="80" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C80" s="7">
         <f>K80/L80</f>
@@ -5376,12 +5379,12 @@
       </c>
       <c r="P80" s="40"/>
       <c r="Q80" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:40">
       <c r="B81" s="80" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -5428,7 +5431,7 @@
         <v>77</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="19.2" customHeight="1">
@@ -5442,120 +5445,120 @@
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" s="88" t="s">
+        <v>336</v>
+      </c>
+      <c r="F84" s="88" t="s">
+        <v>337</v>
+      </c>
+      <c r="G84" s="88" t="s">
+        <v>338</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="P84" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="Q84" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O84" s="1" t="s">
+      <c r="R84" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P84" s="1" t="s">
+      <c r="S84" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="T84" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="W84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z84" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="X84" s="1" t="s">
+      <c r="AA84" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Y84" s="1" t="s">
+      <c r="AB84" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Z84" s="1" t="s">
+      <c r="AC84" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AA84" s="1" t="s">
+      <c r="AD84" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AB84" s="1" t="s">
+      <c r="AE84" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AC84" s="1" t="s">
+      <c r="AF84" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AD84" s="1" t="s">
+      <c r="AG84" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AE84" s="1" t="s">
+      <c r="AH84" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AF84" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AG84" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH84" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="AI84" s="36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AJ84" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AK84" s="36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL84" s="36" t="s">
         <v>114</v>
       </c>
       <c r="AM84" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AN84" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:40">
       <c r="B85" s="80" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C85" s="2">
         <f>AVERAGE(SUM(T85,W85,Z85,AC85,AF85),SUM(U85,X85,AA85,AD85,AG85),SUM(V85,Y85,AB85,AE85,AH85))</f>
@@ -5681,18 +5684,18 @@
       </c>
       <c r="AM85" s="2"/>
       <c r="AN85" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:40">
       <c r="B86" s="80" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>48</v>
@@ -5809,18 +5812,18 @@
         <v>0</v>
       </c>
       <c r="AL86" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AM86" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AN86" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:40" s="45" customFormat="1">
       <c r="B87" s="81" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C87" s="75">
         <v>3050</v>
@@ -5932,7 +5935,7 @@
         <v>300</v>
       </c>
       <c r="AI87" s="74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AJ87" s="74">
         <v>3200</v>
@@ -5948,7 +5951,7 @@
     </row>
     <row r="88" spans="1:40" s="45" customFormat="1">
       <c r="B88" s="81" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C88" s="75">
         <v>2400</v>
@@ -6063,10 +6066,10 @@
         <v>2400</v>
       </c>
       <c r="AJ88" s="76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AK88" s="77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AL88" s="75">
         <v>2400</v>
@@ -6076,7 +6079,7 @@
     </row>
     <row r="89" spans="1:40" s="45" customFormat="1">
       <c r="B89" s="81" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C89" s="67">
         <f>AVERAGE(SUM(T89,W89,Z89,AC89,AF89),SUM(U89,X89,AA89,AD89,AG89),SUM(V89,Y89,AB89,AE89,AH89))</f>
@@ -6202,7 +6205,7 @@
       </c>
       <c r="AM89" s="67"/>
       <c r="AN89" s="57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:40">
@@ -6213,7 +6216,7 @@
     </row>
     <row r="92" spans="1:40">
       <c r="A92" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1</v>
@@ -6222,25 +6225,25 @@
         <v>2</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H92" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:40">
@@ -6267,18 +6270,18 @@
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:40">
       <c r="B94" s="83" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>48</v>
@@ -6293,21 +6296,21 @@
         <v>4</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:40">
       <c r="B95" s="83" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E95" s="16">
         <v>-1000</v>
@@ -6322,16 +6325,16 @@
         <v>-366</v>
       </c>
       <c r="I95" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K95" s="11"/>
     </row>
     <row r="96" spans="1:40">
       <c r="B96" s="81" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C96" s="46">
         <f>AVERAGE(E96,F96,G96)</f>
@@ -6352,7 +6355,7 @@
       </c>
       <c r="I96" s="16"/>
       <c r="J96" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K96" s="11"/>
     </row>
@@ -6361,7 +6364,7 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1</v>
@@ -6370,25 +6373,25 @@
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="E99" s="86" t="s">
+      <c r="G99" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F99" s="86" t="s">
+      <c r="I99" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G99" s="86" t="s">
+      <c r="J99" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>44</v>
@@ -6397,33 +6400,33 @@
         <v>45</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P99" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q99" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R99" s="36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S99" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T99" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:20">
       <c r="B100" s="80" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C100" s="2">
         <f>K100/L100</f>
@@ -6479,12 +6482,12 @@
       </c>
       <c r="S100" s="40"/>
       <c r="T100" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:20">
       <c r="B101" s="80" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C101" s="2">
         <f>K101/L101</f>
@@ -6539,19 +6542,19 @@
       </c>
       <c r="S101" s="40"/>
       <c r="T101" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="85"/>
       <c r="B102" s="80" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>48</v>
@@ -6587,30 +6590,30 @@
         <v>48</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R102" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S102" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:20" s="15" customFormat="1">
       <c r="B103" s="80" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C103" s="54">
         <v>999999</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E103" s="87">
         <v>-500</v>
@@ -6660,21 +6663,21 @@
         <v>999999</v>
       </c>
       <c r="S103" s="42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:20">
       <c r="B104" s="80" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C104" s="22">
         <v>1000000</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E104" s="87">
         <v>-250</v>
@@ -6724,21 +6727,21 @@
         <v>1000000</v>
       </c>
       <c r="S104" s="40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="B105" s="80" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E105" s="87">
         <v>-100</v>
@@ -6781,27 +6784,27 @@
         <v>200</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S105" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="B106" s="80" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>48</v>
@@ -6838,30 +6841,30 @@
         <v>48</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q106" s="37">
         <v>2500</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S106" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="B107" s="80" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E107" s="87">
         <v>-500</v>
@@ -6908,24 +6911,24 @@
         <v>1300</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S107" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="B108" s="80" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E108" s="87">
         <v>-500</v>
@@ -6972,24 +6975,24 @@
         <v>0</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S108" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="B109" s="80" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E109" s="87">
         <v>-500</v>
@@ -7036,24 +7039,24 @@
         <v>-800</v>
       </c>
       <c r="R109" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S109" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:20">
       <c r="B110" s="80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E110" s="87">
         <v>-250</v>
@@ -7100,24 +7103,24 @@
         <v>-1200</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S110" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:20">
       <c r="B111" s="80" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E111" s="87">
         <v>0</v>
@@ -7164,24 +7167,24 @@
         <v>-1000</v>
       </c>
       <c r="R111" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S111" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="B112" s="80" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E112" s="87">
         <v>200</v>
@@ -7228,13 +7231,13 @@
         <v>-700</v>
       </c>
       <c r="R112" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S112" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -7242,7 +7245,7 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
@@ -7251,25 +7254,25 @@
         <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>44</v>
@@ -7278,34 +7281,34 @@
         <v>45</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N115" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P115" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q115" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="R115" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="S115" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="O115" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="P115" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q115" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="R115" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="S115" s="43" t="s">
-        <v>189</v>
-      </c>
       <c r="T115" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="55"/>
       <c r="B116" s="80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C116" s="2">
         <f>K116/L116</f>
@@ -7361,12 +7364,12 @@
       </c>
       <c r="S116" s="40"/>
       <c r="T116" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:20">
       <c r="B117" s="80" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C117" s="2">
         <f>K117/L117</f>
@@ -7421,18 +7424,18 @@
       </c>
       <c r="S117" s="40"/>
       <c r="T117" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:20">
       <c r="B118" s="80" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>48</v>
@@ -7468,30 +7471,30 @@
         <v>48</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R118" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S118" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:20">
       <c r="B119" s="80" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C119" s="22">
         <v>999999</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E119" s="87">
         <v>500</v>
@@ -7541,21 +7544,21 @@
         <v>999999</v>
       </c>
       <c r="S119" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:20" s="15" customFormat="1">
       <c r="B120" s="80" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C120" s="22">
         <v>1000000</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E120" s="87">
         <v>-200</v>
@@ -7605,21 +7608,21 @@
         <v>1000000</v>
       </c>
       <c r="S120" s="42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:20">
       <c r="B121" s="80" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C121" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E121" s="87">
         <v>-350</v>
@@ -7662,27 +7665,27 @@
         <v>300</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R121" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S121" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="1:20">
       <c r="B122" s="80" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>48</v>
@@ -7719,30 +7722,30 @@
         <v>48</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q122" s="2">
         <v>416.67</v>
       </c>
       <c r="R122" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S122" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:20">
       <c r="B123" s="80" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E123" s="87">
         <v>-250</v>
@@ -7789,24 +7792,24 @@
         <v>416.67</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S123" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:20">
       <c r="B124" s="80" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E124" s="87">
         <v>-250</v>
@@ -7853,24 +7856,24 @@
         <v>0</v>
       </c>
       <c r="R124" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S124" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:20">
       <c r="B125" s="80" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E125" s="87">
         <v>-250</v>
@@ -7917,24 +7920,24 @@
         <v>-16.670000000000002</v>
       </c>
       <c r="R125" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S125" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:20">
       <c r="B126" s="80" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E126" s="87">
         <v>-150</v>
@@ -7981,24 +7984,24 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="R126" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S126" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:20">
       <c r="B127" s="80" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E127" s="87">
         <v>200</v>
@@ -8045,24 +8048,24 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S127" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:20">
       <c r="B128" s="80" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E128" s="87">
         <v>-450</v>
@@ -8111,13 +8114,13 @@
         <v>-305.5555555555556</v>
       </c>
       <c r="R128" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S128" s="42" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -8125,7 +8128,7 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>1</v>
@@ -8134,25 +8137,25 @@
         <v>2</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="G131" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>44</v>
@@ -8161,34 +8164,34 @@
         <v>45</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P131" s="36" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q131" s="36" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="R131" s="36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S131" s="43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="T131" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:20">
       <c r="A132" s="55"/>
       <c r="B132" s="80" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C132" s="2">
         <f>K132/L132</f>
@@ -8244,12 +8247,12 @@
       </c>
       <c r="S132" s="40"/>
       <c r="T132" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:20">
       <c r="B133" s="80" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C133" s="2">
         <f>K133/L133</f>
@@ -8304,18 +8307,18 @@
       </c>
       <c r="S133" s="40"/>
       <c r="T133" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:20">
       <c r="B134" s="80" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>48</v>
@@ -8351,30 +8354,30 @@
         <v>48</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q134" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S134" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:20">
       <c r="B135" s="80" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C135" s="22">
         <v>999999</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E135" s="87">
         <v>200</v>
@@ -8424,21 +8427,21 @@
         <v>999999</v>
       </c>
       <c r="S135" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:20">
       <c r="B136" s="80" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C136" s="22">
         <v>1000000</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E136" s="87">
         <v>-200</v>
@@ -8488,21 +8491,21 @@
         <v>1000000</v>
       </c>
       <c r="S136" s="40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:20">
       <c r="B137" s="80" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E137" s="87">
         <v>-300</v>
@@ -8545,27 +8548,27 @@
         <v>300</v>
       </c>
       <c r="Q137" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R137" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S137" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:20">
       <c r="B138" s="80" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>48</v>
@@ -8602,30 +8605,30 @@
         <v>48</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q138" s="37">
         <v>1500</v>
       </c>
       <c r="R138" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S138" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:20">
       <c r="B139" s="80" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E139" s="87">
         <v>-200</v>
@@ -8672,24 +8675,24 @@
         <v>700</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S139" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:20">
       <c r="B140" s="80" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E140" s="87">
         <v>-200</v>
@@ -8736,24 +8739,24 @@
         <v>0</v>
       </c>
       <c r="R140" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S140" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:20">
       <c r="B141" s="80" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E141" s="87">
         <v>-200</v>
@@ -8800,24 +8803,24 @@
         <v>-800</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S141" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T141" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:20">
       <c r="B142" s="80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E142" s="87">
         <v>-100</v>
@@ -8864,24 +8867,24 @@
         <v>-500</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S142" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:20">
       <c r="B143" s="80" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E143" s="87">
         <v>300</v>
@@ -8928,24 +8931,24 @@
         <v>-200</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S143" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T143" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:20">
       <c r="B144" s="80" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E144" s="87">
         <v>-200</v>
@@ -8992,18 +8995,18 @@
         <v>-166.67</v>
       </c>
       <c r="R144" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S144" s="42" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T144" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:20">
       <c r="A147" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>1</v>
@@ -9012,25 +9015,25 @@
         <v>2</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>44</v>
@@ -9039,34 +9042,34 @@
         <v>45</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P147" s="36" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q147" s="36" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="R147" s="36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S147" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T147" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:20">
       <c r="A148" s="15"/>
       <c r="B148" s="80" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C148" s="2">
         <f>K148/L148</f>
@@ -9122,12 +9125,12 @@
       </c>
       <c r="S148" s="40"/>
       <c r="T148" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:20">
       <c r="B149" s="80" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C149" s="2">
         <f>K149/L149</f>
@@ -9182,18 +9185,18 @@
       </c>
       <c r="S149" s="40"/>
       <c r="T149" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150" spans="1:20">
       <c r="B150" s="80" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E150" s="16" t="s">
         <v>48</v>
@@ -9229,30 +9232,30 @@
         <v>48</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q150" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S150" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T150" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:20">
       <c r="B151" s="80" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C151" s="22">
         <v>999999</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E151" s="87">
         <v>-700</v>
@@ -9302,21 +9305,21 @@
         <v>999999</v>
       </c>
       <c r="S151" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T151" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:20">
       <c r="B152" s="80" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C152" s="23">
         <v>1000000</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E152" s="87">
         <v>-500</v>
@@ -9366,21 +9369,21 @@
         <v>1000000</v>
       </c>
       <c r="S152" s="40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" spans="1:20">
       <c r="B153" s="80" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E153" s="87">
         <v>-100</v>
@@ -9423,27 +9426,27 @@
         <v>366.67</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R153" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S153" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T153" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:20">
       <c r="B154" s="80" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>48</v>
@@ -9480,30 +9483,30 @@
         <v>48</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q154" s="2">
         <v>766.67</v>
       </c>
       <c r="R154" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S154" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="155" spans="1:20">
       <c r="B155" s="80" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E155" s="87">
         <v>-300</v>
@@ -9550,24 +9553,24 @@
         <v>500</v>
       </c>
       <c r="R155" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S155" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T155" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:20">
       <c r="B156" s="80" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E156" s="87">
         <v>200</v>
@@ -9614,24 +9617,24 @@
         <v>0</v>
       </c>
       <c r="R156" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S156" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="157" spans="1:20">
       <c r="B157" s="80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E157" s="87">
         <v>-800</v>
@@ -9678,24 +9681,24 @@
         <v>-300</v>
       </c>
       <c r="R157" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S157" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T157" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="1:20">
       <c r="B158" s="80" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E158" s="87">
         <v>-200</v>
@@ -9742,24 +9745,24 @@
         <v>-66.67</v>
       </c>
       <c r="R158" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S158" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T158" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="159" spans="1:20">
       <c r="B159" s="80" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E159" s="87">
         <v>-400</v>
@@ -9806,24 +9809,24 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="R159" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S159" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T159" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="160" spans="1:20">
       <c r="B160" s="80" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E160" s="87">
         <v>-200</v>
@@ -9870,13 +9873,13 @@
         <v>-50</v>
       </c>
       <c r="R160" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S160" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T160" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:15">
@@ -9884,7 +9887,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1</v>
@@ -9893,31 +9896,31 @@
         <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H163" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I163" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J163" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="31"/>
       <c r="B164" s="84" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C164" s="2">
         <f>COUNT(E164,F164,G164)</f>
@@ -9938,13 +9941,13 @@
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="32"/>
       <c r="B165" s="84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C165" s="2">
         <f>COUNT(E165,F165,G165)</f>
@@ -9965,13 +9968,13 @@
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="32"/>
       <c r="B166" s="84" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C166" s="2">
         <f>COUNT(E166,F166,G166)</f>
@@ -9992,19 +9995,19 @@
       </c>
       <c r="I166" s="29"/>
       <c r="J166" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="32"/>
       <c r="B167" s="84" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C167" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>48</v>
@@ -10016,13 +10019,13 @@
         <v>48</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -10033,7 +10036,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1</v>
@@ -10042,32 +10045,32 @@
         <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H170" s="36" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I170" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J170" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O170"/>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="31"/>
       <c r="B171" s="83" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -10086,17 +10089,17 @@
         <v>0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O171"/>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="20"/>
       <c r="B172" s="80" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C172" s="2">
         <v>1</v>
@@ -10116,14 +10119,14 @@
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O172"/>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="20"/>
       <c r="B173" s="80" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C173" s="2">
         <v>1</v>
@@ -10143,20 +10146,20 @@
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O173"/>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="20"/>
       <c r="B174" s="80" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C174" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>48</v>
@@ -10171,22 +10174,22 @@
         <v>4</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O174"/>
     </row>
     <row r="175" spans="1:15" s="45" customFormat="1">
       <c r="B175" s="81" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C175" s="47">
         <v>0</v>
       </c>
       <c r="D175" s="48" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E175" s="46">
         <v>-1000</v>
@@ -10201,10 +10204,10 @@
         <v>0</v>
       </c>
       <c r="I175" s="57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K175" s="64"/>
       <c r="L175" s="49"/>
@@ -10216,7 +10219,7 @@
     </row>
     <row r="178" spans="1:15" ht="18.600000000000001">
       <c r="A178" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
@@ -10225,35 +10228,35 @@
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E178" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I178" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="J178" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I178" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="J178" s="36" t="s">
-        <v>179</v>
-      </c>
       <c r="K178" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L178" s="79"/>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="31"/>
       <c r="B179" s="83" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C179" s="2">
         <f>H179</f>
@@ -10279,13 +10282,13 @@
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="32"/>
       <c r="B180" s="80" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C180" s="2">
         <f>H180</f>
@@ -10311,13 +10314,13 @@
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="32"/>
       <c r="B181" s="80" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>4</v>
@@ -10329,11 +10332,11 @@
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J181" s="2"/>
       <c r="K181" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -10342,7 +10345,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1</v>
@@ -10351,36 +10354,36 @@
         <v>2</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J184" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="K184" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="L184" s="36" t="s">
         <v>181</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J184" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="K184" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="L184" s="36" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:15">
       <c r="B185" s="80" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C185" s="2">
         <f>E185</f>
@@ -10407,15 +10410,15 @@
         <v>1</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="1:15">
       <c r="B186" s="80" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C186" s="2">
         <f>E186</f>
@@ -10442,15 +10445,15 @@
         <v>1</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="187" spans="1:15">
       <c r="B187" s="80" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C187" s="2">
         <f>E187</f>
@@ -10477,15 +10480,15 @@
         <v>0</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="1:15" s="51" customFormat="1">
       <c r="B188" s="80" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C188" s="52" t="s">
         <v>4</v>
@@ -10508,10 +10511,10 @@
         <v>4</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M188" s="50"/>
       <c r="N188" s="50"/>
@@ -10550,7 +10553,7 @@
     </row>
     <row r="208" spans="4:10">
       <c r="J208" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -10677,7 +10680,7 @@
         <v>54</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O5" s="5"/>
     </row>
@@ -10710,7 +10713,7 @@
         <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O6" s="5"/>
     </row>
@@ -10743,7 +10746,7 @@
         <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O7" s="5"/>
     </row>
@@ -10776,7 +10779,7 @@
         <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O8" s="5"/>
     </row>
@@ -10803,7 +10806,7 @@
         <v>110</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -10828,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -10837,7 +10840,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -10853,7 +10856,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -10862,7 +10865,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -10871,43 +10874,43 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="K16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="N16" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -10943,7 +10946,7 @@
         <v>48</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O17" s="5"/>
     </row>
@@ -10985,7 +10988,7 @@
         <v>48</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O18" s="5"/>
     </row>
@@ -11027,7 +11030,7 @@
         <v>48</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O19" s="5"/>
     </row>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="339">
   <si>
     <t>IND_50</t>
   </si>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AN208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9923,26 +9923,21 @@
         <v>283</v>
       </c>
       <c r="C164" s="2">
-        <f>COUNT(E164,F164,G164)</f>
         <v>3</v>
       </c>
       <c r="D164" s="9"/>
-      <c r="E164" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F164" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G164" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H164" s="2">
-        <v>1</v>
-      </c>
+      <c r="E164" s="87">
+        <v>0</v>
+      </c>
+      <c r="F164" s="87">
+        <v>0</v>
+      </c>
+      <c r="G164" s="87">
+        <v>0</v>
+      </c>
+      <c r="H164" s="2"/>
       <c r="I164" s="2"/>
-      <c r="J164" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="32"/>
@@ -9950,26 +9945,21 @@
         <v>284</v>
       </c>
       <c r="C165" s="2">
-        <f>COUNT(E165,F165,G165)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="E165" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F165" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H165" s="2">
-        <v>2</v>
-      </c>
+      <c r="E165" s="87">
+        <v>0</v>
+      </c>
+      <c r="F165" s="87">
+        <v>0</v>
+      </c>
+      <c r="G165" s="87">
+        <v>1000</v>
+      </c>
+      <c r="H165" s="2"/>
       <c r="I165" s="2"/>
-      <c r="J165" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="32"/>
@@ -9977,26 +9967,21 @@
         <v>329</v>
       </c>
       <c r="C166" s="2">
-        <f>COUNT(E166,F166,G166)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" s="9"/>
-      <c r="E166" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G166" s="2">
+      <c r="E166" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F166" s="87">
+        <v>2000</v>
+      </c>
+      <c r="G166" s="87">
         <v>1000</v>
       </c>
-      <c r="H166" s="2">
-        <v>3</v>
-      </c>
+      <c r="H166" s="2"/>
       <c r="I166" s="29"/>
-      <c r="J166" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="32"/>
@@ -10009,13 +9994,13 @@
       <c r="D167" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G167" s="2" t="s">
+      <c r="E167" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F167" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="G167" s="87" t="s">
         <v>48</v>
       </c>
       <c r="H167" s="2" t="s">

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Table" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis Unit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="341">
   <si>
     <t>IND_50</t>
   </si>
@@ -697,12 +697,6 @@
     <t>DEN_IND_64</t>
   </si>
   <si>
-    <t>'0000000000000138</t>
-  </si>
-  <si>
-    <t>'0000000000000139</t>
-  </si>
-  <si>
     <t>SUM_IND_71_M0</t>
   </si>
   <si>
@@ -964,15 +958,6 @@
     <t>CAMPO_TEC_15</t>
   </si>
   <si>
-    <t>'0000000000000214</t>
-  </si>
-  <si>
-    <t>'0000000000000215</t>
-  </si>
-  <si>
-    <t>'0000000000000216</t>
-  </si>
-  <si>
     <t>'0000000000000217</t>
   </si>
   <si>
@@ -1037,12 +1022,33 @@
   </si>
   <si>
     <t>IMP_SALDO_CC_GT_0_M2</t>
+  </si>
+  <si>
+    <t>'0000000000000138'</t>
+  </si>
+  <si>
+    <t>'0000000000000139'</t>
+  </si>
+  <si>
+    <t>'0000000000000214'</t>
+  </si>
+  <si>
+    <t>'0000000000000215'</t>
+  </si>
+  <si>
+    <t>'0000000000000216'</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>dovrebbe dare 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1110,7 +1116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,6 +1162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1489,9 +1501,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2019,46 +2044,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AN208"/>
+  <dimension ref="A3:BH208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="27" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
     <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="29" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" customWidth="1"/>
+    <col min="25" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" customWidth="1"/>
     <col min="31" max="31" width="17" customWidth="1"/>
     <col min="32" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.44140625" customWidth="1"/>
-    <col min="35" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.109375" customWidth="1"/>
-    <col min="39" max="39" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" customWidth="1"/>
+    <col min="35" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" customWidth="1"/>
+    <col min="39" max="39" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.85546875" customWidth="1"/>
+    <col min="43" max="43" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="18" customHeight="1">
@@ -2615,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="71" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E27" s="66">
         <v>-36</v>
@@ -2648,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="58" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>192</v>
@@ -2710,13 +2737,13 @@
         <v>184</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R30" s="36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="T30" s="36" t="s">
         <v>63</v>
@@ -2786,7 +2813,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="40"/>
       <c r="V31" s="40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2847,7 +2874,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="40"/>
       <c r="V32" s="40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="2:24">
@@ -2908,7 +2935,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="40"/>
       <c r="V33" s="40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="2:24">
@@ -2963,7 +2990,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="40"/>
       <c r="V34" s="40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="2:24">
@@ -3023,7 +3050,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="40"/>
       <c r="V35" s="40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="2:24">
@@ -3078,7 +3105,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="40"/>
       <c r="V36" s="40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="2:24">
@@ -3134,7 +3161,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="40"/>
       <c r="V37" s="40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="2:24">
@@ -3469,7 +3496,7 @@
     </row>
     <row r="43" spans="2:24" s="15" customFormat="1">
       <c r="B43" s="82" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C43" s="17">
         <f>N43</f>
@@ -3533,7 +3560,7 @@
     </row>
     <row r="44" spans="2:24" s="15" customFormat="1">
       <c r="B44" s="80" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
@@ -3596,7 +3623,7 @@
     </row>
     <row r="45" spans="2:24" s="15" customFormat="1">
       <c r="B45" s="80" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C45" s="17">
         <v>0.34639999999999999</v>
@@ -5382,9 +5409,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" spans="1:60">
       <c r="B81" s="80" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -5434,7 +5461,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="19.2" customHeight="1">
+    <row r="84" spans="1:60" ht="19.149999999999999" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -5448,13 +5475,13 @@
         <v>129</v>
       </c>
       <c r="E84" s="88" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F84" s="88" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G84" s="88" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>115</v>
@@ -5502,49 +5529,49 @@
         <v>184</v>
       </c>
       <c r="W84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y84" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="X84" s="1" t="s">
+      <c r="Z84" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Y84" s="1" t="s">
+      <c r="AA84" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Z84" s="1" t="s">
+      <c r="AB84" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AA84" s="1" t="s">
+      <c r="AC84" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AB84" s="1" t="s">
+      <c r="AD84" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AC84" s="1" t="s">
+      <c r="AE84" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AD84" s="1" t="s">
+      <c r="AF84" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AE84" s="1" t="s">
+      <c r="AG84" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AF84" s="1" t="s">
+      <c r="AH84" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AG84" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AH84" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="AI84" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ84" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK84" s="36" t="s">
         <v>227</v>
-      </c>
-      <c r="AJ84" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK84" s="36" t="s">
-        <v>229</v>
       </c>
       <c r="AL84" s="36" t="s">
         <v>114</v>
@@ -5555,10 +5582,70 @@
       <c r="AN84" s="36" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="85" spans="1:40">
+      <c r="AO84" t="str">
+        <f>B84&amp;","&amp;E84</f>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0</v>
+      </c>
+      <c r="AP84" t="str">
+        <f>AO84&amp;","&amp;F84</f>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1</v>
+      </c>
+      <c r="AQ84" t="str">
+        <f t="shared" ref="AQ84:BA84" si="22">AP84&amp;","&amp;G84</f>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2</v>
+      </c>
+      <c r="AR84" t="str">
+        <f t="shared" si="22"/>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0</v>
+      </c>
+      <c r="AS84" t="str">
+        <f t="shared" si="22"/>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1</v>
+      </c>
+      <c r="AT84" t="str">
+        <f t="shared" si="22"/>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2</v>
+      </c>
+      <c r="AU84" t="str">
+        <f t="shared" si="22"/>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0</v>
+      </c>
+      <c r="AV84" t="str">
+        <f t="shared" si="22"/>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1</v>
+      </c>
+      <c r="AW84" t="str">
+        <f t="shared" si="22"/>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2</v>
+      </c>
+      <c r="AX84" t="str">
+        <f t="shared" si="22"/>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0</v>
+      </c>
+      <c r="AY84" t="str">
+        <f t="shared" si="22"/>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1</v>
+      </c>
+      <c r="AZ84" t="str">
+        <f t="shared" si="22"/>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2</v>
+      </c>
+      <c r="BA84" t="str">
+        <f>AZ84&amp;","&amp;Q84</f>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0</v>
+      </c>
+      <c r="BB84" t="str">
+        <f t="shared" ref="BB84:BC84" si="23">BA84&amp;","&amp;R84</f>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1</v>
+      </c>
+      <c r="BC84" s="3" t="str">
+        <f>BB84&amp;","&amp;S84</f>
+        <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:60">
       <c r="B85" s="80" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="C85" s="2">
         <f>AVERAGE(SUM(T85,W85,Z85,AC85,AF85),SUM(U85,X85,AA85,AD85,AG85),SUM(V85,Y85,AB85,AE85,AH85))</f>
@@ -5611,63 +5698,63 @@
         <v>300</v>
       </c>
       <c r="T85" s="65">
-        <f t="shared" ref="T85:AH89" si="22">IF(E85&lt;0,0,E85)</f>
+        <f t="shared" ref="T85:AH89" si="24">IF(E85&lt;0,0,E85)</f>
         <v>1000</v>
       </c>
       <c r="U85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1500</v>
       </c>
       <c r="V85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>800</v>
       </c>
       <c r="W85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>600</v>
       </c>
       <c r="X85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="Y85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="Z85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>400</v>
       </c>
       <c r="AA85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="AB85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>200</v>
       </c>
       <c r="AC85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>800</v>
       </c>
       <c r="AD85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>700</v>
       </c>
       <c r="AE85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>600</v>
       </c>
       <c r="AF85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="AG85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>400</v>
       </c>
       <c r="AH85" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="AI85" s="38">
@@ -5686,10 +5773,78 @@
       <c r="AN85" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="86" spans="1:40">
+      <c r="AO85" t="str">
+        <f>"INSERT INTO TEWSA0W.CT_RETAIL_TMP (" &amp;BC$84&amp; ") VALUES ("</f>
+        <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES (</v>
+      </c>
+      <c r="AP85" t="str">
+        <f>B85&amp;","&amp;(IF(OR(LEN(E85)=0,E85="-"),"NULL",E85))</f>
+        <v>'0000000000000138',1000</v>
+      </c>
+      <c r="AQ85" t="str">
+        <f>AP85&amp;","&amp;(IF(OR(LEN(F85)=0,F85="-"),"NULL",F85))</f>
+        <v>'0000000000000138',1000,1500</v>
+      </c>
+      <c r="AR85" t="str">
+        <f t="shared" ref="AR85:BD89" si="25">AQ85&amp;","&amp;(IF(OR(LEN(G85)=0,G85="-"),"NULL",G85))</f>
+        <v>'0000000000000138',1000,1500,800</v>
+      </c>
+      <c r="AS85" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000138',1000,1500,800,600</v>
+      </c>
+      <c r="AT85" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000138',1000,1500,800,600,300</v>
+      </c>
+      <c r="AU85" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000138',1000,1500,800,600,300,1000</v>
+      </c>
+      <c r="AV85" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000138',1000,1500,800,600,300,1000,400</v>
+      </c>
+      <c r="AW85" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000138',1000,1500,800,600,300,1000,400,300</v>
+      </c>
+      <c r="AX85" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000138',1000,1500,800,600,300,1000,400,300,200</v>
+      </c>
+      <c r="AY85" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000138',1000,1500,800,600,300,1000,400,300,200,800</v>
+      </c>
+      <c r="AZ85" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000138',1000,1500,800,600,300,1000,400,300,200,800,700</v>
+      </c>
+      <c r="BA85" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000138',1000,1500,800,600,300,1000,400,300,200,800,700,600</v>
+      </c>
+      <c r="BB85" t="str">
+        <f>BA85&amp;","&amp;(IF(OR(LEN(Q85)=0,Q85="-"),"NULL",Q85))</f>
+        <v>'0000000000000138',1000,1500,800,600,300,1000,400,300,200,800,700,600,500</v>
+      </c>
+      <c r="BC85" t="str">
+        <f>BB85&amp;","&amp;(IF(OR(LEN(R85)=0,R85="-"),"NULL",R85))</f>
+        <v>'0000000000000138',1000,1500,800,600,300,1000,400,300,200,800,700,600,500,400</v>
+      </c>
+      <c r="BD85" t="str">
+        <f>BC85&amp;","&amp;(IF(OR(LEN(S85)=0,S85="-"),"NULL",S85))</f>
+        <v>'0000000000000138',1000,1500,800,600,300,1000,400,300,200,800,700,600,500,400,300</v>
+      </c>
+      <c r="BE85" s="89" t="str">
+        <f>AO85&amp;BD85&amp;")"</f>
+        <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000138',1000,1500,800,600,300,1000,400,300,200,800,700,600,500,400,300)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:60">
       <c r="B86" s="80" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>4</v>
@@ -5743,63 +5898,63 @@
         <v>48</v>
       </c>
       <c r="T86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="U86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="V86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="W86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="X86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="Y86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="Z86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AA86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AB86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AC86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AD86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AE86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AF86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AG86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AH86" s="65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AI86" s="22">
@@ -5820,10 +5975,78 @@
       <c r="AN86" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="87" spans="1:40" s="45" customFormat="1">
+      <c r="AO86" t="str">
+        <f t="shared" ref="AO86:AO89" si="26">"INSERT INTO TEWSA0W.CT_RETAIL_TMP (" &amp;BC$84&amp; ") VALUES ("</f>
+        <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES (</v>
+      </c>
+      <c r="AP86" t="str">
+        <f t="shared" ref="AP86:AP89" si="27">B86&amp;","&amp;(IF(OR(LEN(E86)=0,E86="-"),"NULL",E86))</f>
+        <v>'0000000000000139',NULL</v>
+      </c>
+      <c r="AQ86" t="str">
+        <f t="shared" ref="AQ86:AQ89" si="28">AP86&amp;","&amp;(IF(OR(LEN(F86)=0,F86="-"),"NULL",F86))</f>
+        <v>'0000000000000139',NULL,NULL</v>
+      </c>
+      <c r="AR86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL</v>
+      </c>
+      <c r="AS86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AT86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AU86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AV86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AW86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AX86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AY86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AZ86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BA86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BB86" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BC86" t="str">
+        <f t="shared" ref="BC86:BC89" si="29">BB86&amp;","&amp;(IF(OR(LEN(R86)=0,R86="-"),"NULL",R86))</f>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BD86" t="str">
+        <f t="shared" ref="BD86:BD89" si="30">BC86&amp;","&amp;(IF(OR(LEN(S86)=0,S86="-"),"NULL",S86))</f>
+        <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BE86" s="89" t="str">
+        <f>AO86&amp;BD86&amp;")"</f>
+        <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:60" s="45" customFormat="1">
       <c r="B87" s="81" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="C87" s="75">
         <v>3050</v>
@@ -5875,63 +6098,63 @@
         <v>300</v>
       </c>
       <c r="T87" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="U87" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1500</v>
       </c>
       <c r="V87" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>800</v>
       </c>
       <c r="W87" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="X87" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="Y87" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="Z87" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AA87" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="AB87" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>200</v>
       </c>
       <c r="AC87" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AD87" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>700</v>
       </c>
       <c r="AE87" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>600</v>
       </c>
       <c r="AF87" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AG87" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>400</v>
       </c>
       <c r="AH87" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="AI87" s="74" t="s">
@@ -5947,11 +6170,81 @@
         <v>3050</v>
       </c>
       <c r="AM87" s="67"/>
-      <c r="AN87" s="67"/>
-    </row>
-    <row r="88" spans="1:40" s="45" customFormat="1">
+      <c r="AN87" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO87" t="str">
+        <f t="shared" si="26"/>
+        <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES (</v>
+      </c>
+      <c r="AP87" t="str">
+        <f t="shared" si="27"/>
+        <v>'0000000000000215',NULL</v>
+      </c>
+      <c r="AQ87" t="str">
+        <f t="shared" si="28"/>
+        <v>'0000000000000215',NULL,1500</v>
+      </c>
+      <c r="AR87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800</v>
+      </c>
+      <c r="AS87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800,NULL</v>
+      </c>
+      <c r="AT87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300</v>
+      </c>
+      <c r="AU87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300,1000</v>
+      </c>
+      <c r="AV87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL</v>
+      </c>
+      <c r="AW87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300</v>
+      </c>
+      <c r="AX87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200</v>
+      </c>
+      <c r="AY87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL</v>
+      </c>
+      <c r="AZ87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL,700</v>
+      </c>
+      <c r="BA87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL,700,600</v>
+      </c>
+      <c r="BB87" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL,700,600,NULL</v>
+      </c>
+      <c r="BC87" t="str">
+        <f t="shared" si="29"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL,700,600,NULL,400</v>
+      </c>
+      <c r="BD87" t="str">
+        <f t="shared" si="30"/>
+        <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL,700,600,NULL,400,300</v>
+      </c>
+      <c r="BE87" s="89" t="str">
+        <f t="shared" ref="BE86:BE89" si="31">AO87&amp;BD87&amp;")"</f>
+        <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL,700,600,NULL,400,300)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:60" s="45" customFormat="1">
       <c r="B88" s="81" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="C88" s="75">
         <v>2400</v>
@@ -6003,63 +6296,63 @@
         <v>48</v>
       </c>
       <c r="T88" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="U88" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="V88" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="W88" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>600</v>
       </c>
       <c r="X88" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="Y88" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="Z88" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>400</v>
       </c>
       <c r="AA88" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AB88" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AC88" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>800</v>
       </c>
       <c r="AD88" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AE88" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AF88" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="AG88" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AH88" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-</v>
       </c>
       <c r="AI88" s="74">
@@ -6075,11 +6368,81 @@
         <v>2400</v>
       </c>
       <c r="AM88" s="67"/>
-      <c r="AN88" s="67"/>
-    </row>
-    <row r="89" spans="1:40" s="45" customFormat="1">
+      <c r="AN88" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO88" t="str">
+        <f t="shared" si="26"/>
+        <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES (</v>
+      </c>
+      <c r="AP88" t="str">
+        <f t="shared" si="27"/>
+        <v>'0000000000000216',100</v>
+      </c>
+      <c r="AQ88" t="str">
+        <f t="shared" si="28"/>
+        <v>'0000000000000216',100,NULL</v>
+      </c>
+      <c r="AR88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL</v>
+      </c>
+      <c r="AS88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL,600</v>
+      </c>
+      <c r="AT88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL</v>
+      </c>
+      <c r="AU88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL</v>
+      </c>
+      <c r="AV88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL,400</v>
+      </c>
+      <c r="AW88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL</v>
+      </c>
+      <c r="AX88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL,NULL</v>
+      </c>
+      <c r="AY88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL,NULL,800</v>
+      </c>
+      <c r="AZ88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL,NULL,800,NULL</v>
+      </c>
+      <c r="BA88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL,NULL,800,NULL,NULL</v>
+      </c>
+      <c r="BB88" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL,NULL,800,NULL,NULL,500</v>
+      </c>
+      <c r="BC88" t="str">
+        <f t="shared" si="29"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL,NULL,800,NULL,NULL,500,NULL</v>
+      </c>
+      <c r="BD88" t="str">
+        <f t="shared" si="30"/>
+        <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL,NULL,800,NULL,NULL,500,NULL,NULL</v>
+      </c>
+      <c r="BE88" s="89" t="str">
+        <f t="shared" si="31"/>
+        <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL,NULL,800,NULL,NULL,500,NULL,NULL)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:60" s="45" customFormat="1">
       <c r="B89" s="81" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="C89" s="67">
         <f>AVERAGE(SUM(T89,W89,Z89,AC89,AF89),SUM(U89,X89,AA89,AD89,AG89),SUM(V89,Y89,AB89,AE89,AH89))</f>
@@ -6132,63 +6495,63 @@
         <v>300</v>
       </c>
       <c r="T89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="U89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>800</v>
       </c>
       <c r="W89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="Y89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="Z89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>400</v>
       </c>
       <c r="AA89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>200</v>
       </c>
       <c r="AC89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>800</v>
       </c>
       <c r="AD89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>600</v>
       </c>
       <c r="AF89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="AG89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>400</v>
       </c>
       <c r="AH89" s="69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="AI89" s="73">
@@ -6207,14 +6570,85 @@
       <c r="AN89" s="57" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="90" spans="1:40">
+      <c r="AO89" t="str">
+        <f t="shared" si="26"/>
+        <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES (</v>
+      </c>
+      <c r="AP89" t="str">
+        <f t="shared" si="27"/>
+        <v>'0000000000000214',1000</v>
+      </c>
+      <c r="AQ89" t="str">
+        <f t="shared" si="28"/>
+        <v>'0000000000000214',1000,-1500</v>
+      </c>
+      <c r="AR89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800</v>
+      </c>
+      <c r="AS89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800,-600</v>
+      </c>
+      <c r="AT89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300</v>
+      </c>
+      <c r="AU89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300,1000</v>
+      </c>
+      <c r="AV89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300,1000,400</v>
+      </c>
+      <c r="AW89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300,1000,400,-300</v>
+      </c>
+      <c r="AX89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300,1000,400,-300,200</v>
+      </c>
+      <c r="AY89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300,1000,400,-300,200,800</v>
+      </c>
+      <c r="AZ89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300,1000,400,-300,200,800,-700</v>
+      </c>
+      <c r="BA89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300,1000,400,-300,200,800,-700,600</v>
+      </c>
+      <c r="BB89" t="str">
+        <f t="shared" si="25"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300,1000,400,-300,200,800,-700,600,500</v>
+      </c>
+      <c r="BC89" t="str">
+        <f t="shared" si="29"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300,1000,400,-300,200,800,-700,600,500,400</v>
+      </c>
+      <c r="BD89" t="str">
+        <f t="shared" si="30"/>
+        <v>'0000000000000214',1000,-1500,800,-600,300,1000,400,-300,200,800,-700,600,500,400,300</v>
+      </c>
+      <c r="BE89" s="89" t="str">
+        <f t="shared" si="31"/>
+        <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000214',1000,-1500,800,-600,300,1000,400,-300,200,800,-700,600,500,400,300)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:60">
       <c r="V90" s="11"/>
-    </row>
-    <row r="91" spans="1:40">
+      <c r="BH90" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="91" spans="1:60">
       <c r="B91" s="39"/>
     </row>
-    <row r="92" spans="1:40">
+    <row r="92" spans="1:60">
       <c r="A92" s="3" t="s">
         <v>133</v>
       </c>
@@ -6246,7 +6680,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:40">
+    <row r="93" spans="1:60">
       <c r="A93" s="15"/>
       <c r="B93" s="83" t="s">
         <v>113</v>
@@ -6273,9 +6707,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:40">
+    <row r="94" spans="1:60">
       <c r="B94" s="83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>4</v>
@@ -6302,9 +6736,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:40">
+    <row r="95" spans="1:60">
       <c r="B95" s="83" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>4</v>
@@ -6332,9 +6766,9 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:40">
+    <row r="96" spans="1:60">
       <c r="B96" s="81" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C96" s="46">
         <f>AVERAGE(E96,F96,G96)</f>
@@ -6409,10 +6843,10 @@
         <v>184</v>
       </c>
       <c r="P99" s="36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q99" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R99" s="36" t="s">
         <v>142</v>
@@ -6426,7 +6860,7 @@
     </row>
     <row r="100" spans="1:20">
       <c r="B100" s="80" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C100" s="2">
         <f>K100/L100</f>
@@ -6487,7 +6921,7 @@
     </row>
     <row r="101" spans="1:20">
       <c r="B101" s="80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C101" s="2">
         <f>K101/L101</f>
@@ -6521,14 +6955,14 @@
         <v>1000</v>
       </c>
       <c r="M101" s="87">
-        <f t="shared" ref="M101" si="23">E101*(-1)</f>
+        <f t="shared" ref="M101" si="32">E101*(-1)</f>
         <v>300</v>
       </c>
       <c r="N101" s="77" t="s">
         <v>48</v>
       </c>
       <c r="O101" s="87">
-        <f t="shared" ref="O101:O103" si="24">G101*(-1)</f>
+        <f t="shared" ref="O101:O103" si="33">G101*(-1)</f>
         <v>450</v>
       </c>
       <c r="P101" s="2">
@@ -6548,7 +6982,7 @@
     <row r="102" spans="1:20">
       <c r="A102" s="85"/>
       <c r="B102" s="80" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
@@ -6607,15 +7041,15 @@
     </row>
     <row r="103" spans="1:20" s="15" customFormat="1">
       <c r="B103" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="C103" s="54">
+        <v>231</v>
+      </c>
+      <c r="C103" s="90">
         <v>999999</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="E103" s="87">
+      <c r="E103" s="92">
         <v>-500</v>
       </c>
       <c r="F103" s="87">
@@ -6638,7 +7072,7 @@
         <v>133.33333333333334</v>
       </c>
       <c r="L103" s="16">
-        <f t="shared" ref="L103:L112" si="25">AVERAGE(H103,I103,J103)</f>
+        <f t="shared" ref="L103:L112" si="34">AVERAGE(H103,I103,J103)</f>
         <v>0</v>
       </c>
       <c r="M103" s="87">
@@ -6646,11 +7080,11 @@
         <v>500</v>
       </c>
       <c r="N103" s="87">
-        <f t="shared" ref="N103" si="26">F103*(-1)</f>
+        <f t="shared" ref="N103" si="35">F103*(-1)</f>
         <v>200</v>
       </c>
       <c r="O103" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>-300</v>
       </c>
       <c r="P103" s="16">
@@ -6665,13 +7099,11 @@
       <c r="S103" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="T103" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="T103" s="2"/>
     </row>
     <row r="104" spans="1:20">
       <c r="B104" s="80" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C104" s="22">
         <v>1000000</v>
@@ -6702,7 +7134,7 @@
         <v>250</v>
       </c>
       <c r="L104" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M104" s="87">
@@ -6710,11 +7142,11 @@
         <v>250</v>
       </c>
       <c r="N104" s="87">
-        <f t="shared" ref="N104" si="27">F104*(-1)</f>
+        <f t="shared" ref="N104" si="36">F104*(-1)</f>
         <v>250</v>
       </c>
       <c r="O104" s="87">
-        <f t="shared" ref="O104" si="28">G104*(-1)</f>
+        <f t="shared" ref="O104" si="37">G104*(-1)</f>
         <v>250</v>
       </c>
       <c r="P104" s="2">
@@ -6735,7 +7167,7 @@
     </row>
     <row r="105" spans="1:20">
       <c r="B105" s="80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
@@ -6773,11 +7205,11 @@
         <v>100</v>
       </c>
       <c r="N105" s="87">
-        <f t="shared" ref="N105" si="29">F105*(-1)</f>
+        <f t="shared" ref="N105" si="38">F105*(-1)</f>
         <v>200</v>
       </c>
       <c r="O105" s="87">
-        <f t="shared" ref="O105" si="30">G105*(-1)</f>
+        <f t="shared" ref="O105" si="39">G105*(-1)</f>
         <v>300</v>
       </c>
       <c r="P105" s="2">
@@ -6798,7 +7230,7 @@
     </row>
     <row r="106" spans="1:20">
       <c r="B106" s="80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
@@ -6828,7 +7260,7 @@
         <v>48</v>
       </c>
       <c r="L106" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>2500</v>
       </c>
       <c r="M106" s="16" t="s">
@@ -6858,7 +7290,7 @@
     </row>
     <row r="107" spans="1:20">
       <c r="B107" s="80" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
@@ -6885,23 +7317,23 @@
         <v>1300</v>
       </c>
       <c r="K107" s="16">
-        <f t="shared" ref="K107:K112" si="31">AVERAGE(M107,N107,O107)</f>
+        <f t="shared" ref="K107:K112" si="40">AVERAGE(M107,N107,O107)</f>
         <v>-100</v>
       </c>
       <c r="L107" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1300</v>
       </c>
       <c r="M107" s="87">
-        <f t="shared" ref="M107" si="32">E107*(-1)</f>
+        <f t="shared" ref="M107" si="41">E107*(-1)</f>
         <v>500</v>
       </c>
       <c r="N107" s="87">
-        <f t="shared" ref="N107" si="33">F107*(-1)</f>
+        <f t="shared" ref="N107" si="42">F107*(-1)</f>
         <v>-600</v>
       </c>
       <c r="O107" s="87">
-        <f t="shared" ref="O107" si="34">G107*(-1)</f>
+        <f t="shared" ref="O107" si="43">G107*(-1)</f>
         <v>-200</v>
       </c>
       <c r="P107" s="2">
@@ -6922,7 +7354,7 @@
     </row>
     <row r="108" spans="1:20">
       <c r="B108" s="80" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
@@ -6949,23 +7381,23 @@
         <v>0</v>
       </c>
       <c r="K108" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-100</v>
       </c>
       <c r="L108" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M108" s="87">
-        <f t="shared" ref="M108" si="35">E108*(-1)</f>
+        <f t="shared" ref="M108" si="44">E108*(-1)</f>
         <v>500</v>
       </c>
       <c r="N108" s="87">
-        <f t="shared" ref="N108" si="36">F108*(-1)</f>
+        <f t="shared" ref="N108" si="45">F108*(-1)</f>
         <v>-600</v>
       </c>
       <c r="O108" s="87">
-        <f t="shared" ref="O108" si="37">G108*(-1)</f>
+        <f t="shared" ref="O108" si="46">G108*(-1)</f>
         <v>-200</v>
       </c>
       <c r="P108" s="2">
@@ -6986,13 +7418,13 @@
     </row>
     <row r="109" spans="1:20">
       <c r="B109" s="80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E109" s="87">
         <v>-500</v>
@@ -7013,23 +7445,23 @@
         <v>-800</v>
       </c>
       <c r="K109" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-100</v>
       </c>
       <c r="L109" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>-800</v>
       </c>
       <c r="M109" s="87">
-        <f t="shared" ref="M109" si="38">E109*(-1)</f>
+        <f t="shared" ref="M109" si="47">E109*(-1)</f>
         <v>500</v>
       </c>
       <c r="N109" s="87">
-        <f t="shared" ref="N109" si="39">F109*(-1)</f>
+        <f t="shared" ref="N109" si="48">F109*(-1)</f>
         <v>-600</v>
       </c>
       <c r="O109" s="87">
-        <f t="shared" ref="O109" si="40">G109*(-1)</f>
+        <f t="shared" ref="O109" si="49">G109*(-1)</f>
         <v>-200</v>
       </c>
       <c r="P109" s="2">
@@ -7042,7 +7474,7 @@
         <v>193</v>
       </c>
       <c r="S109" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T109" s="2" t="s">
         <v>192</v>
@@ -7050,7 +7482,7 @@
     </row>
     <row r="110" spans="1:20">
       <c r="B110" s="80" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
@@ -7077,23 +7509,23 @@
         <v>-1200</v>
       </c>
       <c r="K110" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>350</v>
       </c>
       <c r="L110" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>-1200</v>
       </c>
       <c r="M110" s="87">
-        <f t="shared" ref="M110:M112" si="41">E110*(-1)</f>
+        <f t="shared" ref="M110:M112" si="50">E110*(-1)</f>
         <v>250</v>
       </c>
       <c r="N110" s="87">
-        <f t="shared" ref="N110:N112" si="42">F110*(-1)</f>
+        <f t="shared" ref="N110:N112" si="51">F110*(-1)</f>
         <v>350</v>
       </c>
       <c r="O110" s="87">
-        <f t="shared" ref="O110:O112" si="43">G110*(-1)</f>
+        <f t="shared" ref="O110:O112" si="52">G110*(-1)</f>
         <v>450</v>
       </c>
       <c r="P110" s="2">
@@ -7114,7 +7546,7 @@
     </row>
     <row r="111" spans="1:20">
       <c r="B111" s="80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
@@ -7141,23 +7573,23 @@
         <v>-1000</v>
       </c>
       <c r="K111" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L111" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>-1000</v>
       </c>
       <c r="M111" s="87">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N111" s="87">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O111" s="87">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P111" s="2">
@@ -7178,13 +7610,13 @@
     </row>
     <row r="112" spans="1:20">
       <c r="B112" s="80" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E112" s="87">
         <v>200</v>
@@ -7205,23 +7637,23 @@
         <v>-700</v>
       </c>
       <c r="K112" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-200</v>
       </c>
       <c r="L112" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>-700</v>
       </c>
       <c r="M112" s="87">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>-200</v>
       </c>
       <c r="N112" s="87">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>-200</v>
       </c>
       <c r="O112" s="87">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>-200</v>
       </c>
       <c r="P112" s="2">
@@ -7234,7 +7666,7 @@
         <v>193</v>
       </c>
       <c r="S112" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>192</v>
@@ -7290,10 +7722,10 @@
         <v>184</v>
       </c>
       <c r="P115" s="36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q115" s="36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R115" s="36" t="s">
         <v>141</v>
@@ -7308,7 +7740,7 @@
     <row r="116" spans="1:20">
       <c r="A116" s="55"/>
       <c r="B116" s="80" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C116" s="2">
         <f>K116/L116</f>
@@ -7346,11 +7778,11 @@
         <v>250</v>
       </c>
       <c r="N116" s="87">
-        <f t="shared" ref="N116:O116" si="44">F116*(-1)</f>
+        <f t="shared" ref="N116:O116" si="53">F116*(-1)</f>
         <v>250</v>
       </c>
       <c r="O116" s="87">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>250</v>
       </c>
       <c r="P116" s="2">
@@ -7369,7 +7801,7 @@
     </row>
     <row r="117" spans="1:20">
       <c r="B117" s="80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C117" s="2">
         <f>K117/L117</f>
@@ -7407,7 +7839,7 @@
         <v>100</v>
       </c>
       <c r="N117" s="87">
-        <f t="shared" ref="N117" si="45">F117*(-1)</f>
+        <f t="shared" ref="N117" si="54">F117*(-1)</f>
         <v>100</v>
       </c>
       <c r="O117" s="87" t="s">
@@ -7429,7 +7861,7 @@
     </row>
     <row r="118" spans="1:20">
       <c r="B118" s="80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
@@ -7488,7 +7920,7 @@
     </row>
     <row r="119" spans="1:20">
       <c r="B119" s="80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C119" s="22">
         <v>999999</v>
@@ -7519,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="16">
-        <f t="shared" ref="L119:L120" si="46">AVERAGE(H119,I119,J119)</f>
+        <f t="shared" ref="L119:L120" si="55">AVERAGE(H119,I119,J119)</f>
         <v>0</v>
       </c>
       <c r="M119" s="87">
@@ -7527,11 +7959,11 @@
         <v>-500</v>
       </c>
       <c r="N119" s="87">
-        <f t="shared" ref="N119:O119" si="47">F119*(-1)</f>
+        <f t="shared" ref="N119:O119" si="56">F119*(-1)</f>
         <v>300</v>
       </c>
       <c r="O119" s="87">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>200</v>
       </c>
       <c r="P119" s="2">
@@ -7552,7 +7984,7 @@
     </row>
     <row r="120" spans="1:20" s="15" customFormat="1">
       <c r="B120" s="80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C120" s="22">
         <v>1000000</v>
@@ -7583,7 +8015,7 @@
         <v>200</v>
       </c>
       <c r="L120" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M120" s="87">
@@ -7591,11 +8023,11 @@
         <v>200</v>
       </c>
       <c r="N120" s="87">
-        <f t="shared" ref="N120" si="48">F120*(-1)</f>
+        <f t="shared" ref="N120" si="57">F120*(-1)</f>
         <v>200</v>
       </c>
       <c r="O120" s="87">
-        <f t="shared" ref="O120" si="49">G120*(-1)</f>
+        <f t="shared" ref="O120" si="58">G120*(-1)</f>
         <v>200</v>
       </c>
       <c r="P120" s="16">
@@ -7616,7 +8048,7 @@
     </row>
     <row r="121" spans="1:20">
       <c r="B121" s="80" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C121" s="22" t="s">
         <v>4</v>
@@ -7654,11 +8086,11 @@
         <v>350</v>
       </c>
       <c r="N121" s="87">
-        <f t="shared" ref="N121" si="50">F121*(-1)</f>
+        <f t="shared" ref="N121" si="59">F121*(-1)</f>
         <v>300</v>
       </c>
       <c r="O121" s="87">
-        <f t="shared" ref="O121" si="51">G121*(-1)</f>
+        <f t="shared" ref="O121" si="60">G121*(-1)</f>
         <v>250</v>
       </c>
       <c r="P121" s="2">
@@ -7679,7 +8111,7 @@
     </row>
     <row r="122" spans="1:20">
       <c r="B122" s="80" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>4</v>
@@ -7739,7 +8171,7 @@
     </row>
     <row r="123" spans="1:20">
       <c r="B123" s="80" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>4</v>
@@ -7778,11 +8210,11 @@
         <v>250</v>
       </c>
       <c r="N123" s="87">
-        <f t="shared" ref="N123" si="52">F123*(-1)</f>
+        <f t="shared" ref="N123" si="61">F123*(-1)</f>
         <v>-500</v>
       </c>
       <c r="O123" s="87">
-        <f t="shared" ref="O123" si="53">G123*(-1)</f>
+        <f t="shared" ref="O123" si="62">G123*(-1)</f>
         <v>-100</v>
       </c>
       <c r="P123" s="2">
@@ -7803,7 +8235,7 @@
     </row>
     <row r="124" spans="1:20">
       <c r="B124" s="80" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
@@ -7842,11 +8274,11 @@
         <v>250</v>
       </c>
       <c r="N124" s="87">
-        <f t="shared" ref="N124" si="54">F124*(-1)</f>
+        <f t="shared" ref="N124" si="63">F124*(-1)</f>
         <v>-500</v>
       </c>
       <c r="O124" s="87">
-        <f t="shared" ref="O124" si="55">G124*(-1)</f>
+        <f t="shared" ref="O124" si="64">G124*(-1)</f>
         <v>-100</v>
       </c>
       <c r="P124" s="2">
@@ -7867,13 +8299,13 @@
     </row>
     <row r="125" spans="1:20">
       <c r="B125" s="80" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E125" s="87">
         <v>-250</v>
@@ -7906,11 +8338,11 @@
         <v>250</v>
       </c>
       <c r="N125" s="87">
-        <f t="shared" ref="N125" si="56">F125*(-1)</f>
+        <f t="shared" ref="N125" si="65">F125*(-1)</f>
         <v>-500</v>
       </c>
       <c r="O125" s="87">
-        <f t="shared" ref="O125" si="57">G125*(-1)</f>
+        <f t="shared" ref="O125" si="66">G125*(-1)</f>
         <v>-100</v>
       </c>
       <c r="P125" s="2">
@@ -7923,7 +8355,7 @@
         <v>193</v>
       </c>
       <c r="S125" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T125" s="2" t="s">
         <v>192</v>
@@ -7931,7 +8363,7 @@
     </row>
     <row r="126" spans="1:20">
       <c r="B126" s="80" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>4</v>
@@ -7970,11 +8402,11 @@
         <v>150</v>
       </c>
       <c r="N126" s="87">
-        <f t="shared" ref="N126" si="58">F126*(-1)</f>
+        <f t="shared" ref="N126" si="67">F126*(-1)</f>
         <v>150</v>
       </c>
       <c r="O126" s="87">
-        <f t="shared" ref="O126" si="59">G126*(-1)</f>
+        <f t="shared" ref="O126" si="68">G126*(-1)</f>
         <v>150</v>
       </c>
       <c r="P126" s="2">
@@ -7995,7 +8427,7 @@
     </row>
     <row r="127" spans="1:20">
       <c r="B127" s="80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>4</v>
@@ -8022,23 +8454,23 @@
         <v>-700</v>
       </c>
       <c r="K127" s="16">
-        <f t="shared" ref="K127:K128" si="60">AVERAGE(M127,N127,O127)</f>
+        <f t="shared" ref="K127:K128" si="69">AVERAGE(M127,N127,O127)</f>
         <v>0</v>
       </c>
       <c r="L127" s="16">
-        <f t="shared" ref="L127:L128" si="61">AVERAGE(H127,I127,J127)</f>
+        <f t="shared" ref="L127:L128" si="70">AVERAGE(H127,I127,J127)</f>
         <v>-133.33333333333334</v>
       </c>
       <c r="M127" s="87">
-        <f t="shared" ref="M127:M128" si="62">E127*(-1)</f>
+        <f t="shared" ref="M127:M128" si="71">E127*(-1)</f>
         <v>-200</v>
       </c>
       <c r="N127" s="87">
-        <f t="shared" ref="N127:N128" si="63">F127*(-1)</f>
+        <f t="shared" ref="N127:N128" si="72">F127*(-1)</f>
         <v>100</v>
       </c>
       <c r="O127" s="87">
-        <f t="shared" ref="O127:O128" si="64">G127*(-1)</f>
+        <f t="shared" ref="O127:O128" si="73">G127*(-1)</f>
         <v>100</v>
       </c>
       <c r="P127" s="2">
@@ -8059,13 +8491,13 @@
     </row>
     <row r="128" spans="1:20">
       <c r="B128" s="80" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E128" s="87">
         <v>-450</v>
@@ -8086,23 +8518,23 @@
         <v>-700</v>
       </c>
       <c r="K128" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="L128" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="70"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="M128" s="87">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>450</v>
       </c>
       <c r="N128" s="87">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>-150</v>
       </c>
       <c r="O128" s="87">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>-550</v>
       </c>
       <c r="P128" s="27">
@@ -8117,7 +8549,7 @@
         <v>193</v>
       </c>
       <c r="S128" s="42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T128" s="2" t="s">
         <v>192</v>
@@ -8173,10 +8605,10 @@
         <v>184</v>
       </c>
       <c r="P131" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q131" s="36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="R131" s="36" t="s">
         <v>156</v>
@@ -8191,7 +8623,7 @@
     <row r="132" spans="1:20">
       <c r="A132" s="55"/>
       <c r="B132" s="80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C132" s="2">
         <f>K132/L132</f>
@@ -8229,11 +8661,11 @@
         <v>340</v>
       </c>
       <c r="N132" s="87">
-        <f t="shared" ref="N132" si="65">F132*(-1)</f>
+        <f t="shared" ref="N132" si="74">F132*(-1)</f>
         <v>570</v>
       </c>
       <c r="O132" s="87">
-        <f t="shared" ref="O132" si="66">G132*(-1)</f>
+        <f t="shared" ref="O132" si="75">G132*(-1)</f>
         <v>340</v>
       </c>
       <c r="P132" s="2">
@@ -8252,7 +8684,7 @@
     </row>
     <row r="133" spans="1:20">
       <c r="B133" s="80" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C133" s="2">
         <f>K133/L133</f>
@@ -8289,11 +8721,11 @@
         <v>48</v>
       </c>
       <c r="N133" s="87">
-        <f t="shared" ref="N133" si="67">F133*(-1)</f>
+        <f t="shared" ref="N133" si="76">F133*(-1)</f>
         <v>300</v>
       </c>
       <c r="O133" s="87">
-        <f t="shared" ref="O133" si="68">G133*(-1)</f>
+        <f t="shared" ref="O133" si="77">G133*(-1)</f>
         <v>300</v>
       </c>
       <c r="P133" s="2">
@@ -8312,7 +8744,7 @@
     </row>
     <row r="134" spans="1:20">
       <c r="B134" s="80" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>4</v>
@@ -8371,7 +8803,7 @@
     </row>
     <row r="135" spans="1:20">
       <c r="B135" s="80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C135" s="22">
         <v>999999</v>
@@ -8402,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="2">
-        <f t="shared" ref="L135:L144" si="69">AVERAGE(H135,I135,J135)</f>
+        <f t="shared" ref="L135:L144" si="78">AVERAGE(H135,I135,J135)</f>
         <v>0</v>
       </c>
       <c r="M135" s="87">
@@ -8410,11 +8842,11 @@
         <v>-200</v>
       </c>
       <c r="N135" s="87">
-        <f t="shared" ref="N135:N137" si="70">F135*(-1)</f>
+        <f t="shared" ref="N135:N137" si="79">F135*(-1)</f>
         <v>350</v>
       </c>
       <c r="O135" s="87">
-        <f t="shared" ref="O135:O137" si="71">G135*(-1)</f>
+        <f t="shared" ref="O135:O137" si="80">G135*(-1)</f>
         <v>-150</v>
       </c>
       <c r="P135" s="2">
@@ -8435,7 +8867,7 @@
     </row>
     <row r="136" spans="1:20">
       <c r="B136" s="80" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C136" s="22">
         <v>1000000</v>
@@ -8466,7 +8898,7 @@
         <v>200</v>
       </c>
       <c r="L136" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M136" s="87">
@@ -8474,11 +8906,11 @@
         <v>200</v>
       </c>
       <c r="N136" s="87">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>200</v>
       </c>
       <c r="O136" s="87">
-        <f t="shared" si="71"/>
+        <f t="shared" si="80"/>
         <v>200</v>
       </c>
       <c r="P136" s="2">
@@ -8499,7 +8931,7 @@
     </row>
     <row r="137" spans="1:20">
       <c r="B137" s="80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
@@ -8537,11 +8969,11 @@
         <v>300</v>
       </c>
       <c r="N137" s="87">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>300</v>
       </c>
       <c r="O137" s="87">
-        <f t="shared" si="71"/>
+        <f t="shared" si="80"/>
         <v>300</v>
       </c>
       <c r="P137" s="2">
@@ -8562,7 +8994,7 @@
     </row>
     <row r="138" spans="1:20">
       <c r="B138" s="80" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
@@ -8592,7 +9024,7 @@
         <v>48</v>
       </c>
       <c r="L138" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>1500</v>
       </c>
       <c r="M138" s="16" t="s">
@@ -8622,7 +9054,7 @@
     </row>
     <row r="139" spans="1:20">
       <c r="B139" s="80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
@@ -8653,7 +9085,7 @@
         <v>-33.333333333333336</v>
       </c>
       <c r="L139" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>700</v>
       </c>
       <c r="M139" s="87">
@@ -8661,11 +9093,11 @@
         <v>200</v>
       </c>
       <c r="N139" s="87">
-        <f t="shared" ref="N139:N144" si="72">F139*(-1)</f>
+        <f t="shared" ref="N139:N144" si="81">F139*(-1)</f>
         <v>200</v>
       </c>
       <c r="O139" s="87">
-        <f t="shared" ref="O139:O144" si="73">G139*(-1)</f>
+        <f t="shared" ref="O139:O144" si="82">G139*(-1)</f>
         <v>-500</v>
       </c>
       <c r="P139" s="2">
@@ -8686,7 +9118,7 @@
     </row>
     <row r="140" spans="1:20">
       <c r="B140" s="80" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
@@ -8717,7 +9149,7 @@
         <v>-33.333333333333336</v>
       </c>
       <c r="L140" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M140" s="87">
@@ -8725,11 +9157,11 @@
         <v>200</v>
       </c>
       <c r="N140" s="87">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>200</v>
       </c>
       <c r="O140" s="87">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>-500</v>
       </c>
       <c r="P140" s="2">
@@ -8750,13 +9182,13 @@
     </row>
     <row r="141" spans="1:20">
       <c r="B141" s="80" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E141" s="87">
         <v>-200</v>
@@ -8777,11 +9209,11 @@
         <v>-800</v>
       </c>
       <c r="K141" s="2">
-        <f t="shared" ref="K141:K144" si="74">AVERAGE(M141,N141,O141)</f>
+        <f t="shared" ref="K141:K144" si="83">AVERAGE(M141,N141,O141)</f>
         <v>-66.666666666666671</v>
       </c>
       <c r="L141" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>-800</v>
       </c>
       <c r="M141" s="87">
@@ -8789,11 +9221,11 @@
         <v>200</v>
       </c>
       <c r="N141" s="87">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>100</v>
       </c>
       <c r="O141" s="87">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>-500</v>
       </c>
       <c r="P141" s="2">
@@ -8806,7 +9238,7 @@
         <v>193</v>
       </c>
       <c r="S141" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T141" s="2" t="s">
         <v>192</v>
@@ -8814,7 +9246,7 @@
     </row>
     <row r="142" spans="1:20">
       <c r="B142" s="80" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
@@ -8841,11 +9273,11 @@
         <v>-500</v>
       </c>
       <c r="K142" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>100</v>
       </c>
       <c r="L142" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>-500</v>
       </c>
       <c r="M142" s="87">
@@ -8853,11 +9285,11 @@
         <v>100</v>
       </c>
       <c r="N142" s="87">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>100</v>
       </c>
       <c r="O142" s="87">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>100</v>
       </c>
       <c r="P142" s="2">
@@ -8878,7 +9310,7 @@
     </row>
     <row r="143" spans="1:20">
       <c r="B143" s="80" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
@@ -8905,23 +9337,23 @@
         <v>700</v>
       </c>
       <c r="K143" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="L143" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>-200</v>
       </c>
       <c r="M143" s="87">
-        <f t="shared" ref="M143:M144" si="75">E143*(-1)</f>
+        <f t="shared" ref="M143:M144" si="84">E143*(-1)</f>
         <v>-300</v>
       </c>
       <c r="N143" s="87">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>300</v>
       </c>
       <c r="O143" s="87">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P143" s="2">
@@ -8942,13 +9374,13 @@
     </row>
     <row r="144" spans="1:20">
       <c r="B144" s="80" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E144" s="87">
         <v>-200</v>
@@ -8969,23 +9401,23 @@
         <v>-500</v>
       </c>
       <c r="K144" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="L144" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>-166.66666666666666</v>
       </c>
       <c r="M144" s="87">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>200</v>
       </c>
       <c r="N144" s="87">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>-300</v>
       </c>
       <c r="O144" s="87">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>-300</v>
       </c>
       <c r="P144" s="16">
@@ -8998,7 +9430,7 @@
         <v>193</v>
       </c>
       <c r="S144" s="42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T144" s="2" t="s">
         <v>192</v>
@@ -9051,10 +9483,10 @@
         <v>184</v>
       </c>
       <c r="P147" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q147" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R147" s="36" t="s">
         <v>162</v>
@@ -9069,7 +9501,7 @@
     <row r="148" spans="1:20">
       <c r="A148" s="15"/>
       <c r="B148" s="80" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C148" s="2">
         <f>K148/L148</f>
@@ -9107,11 +9539,11 @@
         <v>300</v>
       </c>
       <c r="N148" s="87">
-        <f t="shared" ref="N148:N149" si="76">F148*(-1)</f>
+        <f t="shared" ref="N148:N149" si="85">F148*(-1)</f>
         <v>200</v>
       </c>
       <c r="O148" s="87">
-        <f t="shared" ref="O148:O149" si="77">G148*(-1)</f>
+        <f t="shared" ref="O148:O149" si="86">G148*(-1)</f>
         <v>500</v>
       </c>
       <c r="P148" s="2">
@@ -9130,7 +9562,7 @@
     </row>
     <row r="149" spans="1:20">
       <c r="B149" s="80" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C149" s="2">
         <f>K149/L149</f>
@@ -9156,7 +9588,7 @@
         <v>900</v>
       </c>
       <c r="K149" s="2">
-        <f t="shared" ref="K149:K160" si="78">AVERAGE(M149,N149,O149)</f>
+        <f t="shared" ref="K149:K160" si="87">AVERAGE(M149,N149,O149)</f>
         <v>275</v>
       </c>
       <c r="L149" s="2">
@@ -9167,11 +9599,11 @@
         <v>48</v>
       </c>
       <c r="N149" s="87">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>300</v>
       </c>
       <c r="O149" s="87">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>250</v>
       </c>
       <c r="P149" s="2">
@@ -9190,7 +9622,7 @@
     </row>
     <row r="150" spans="1:20">
       <c r="B150" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
@@ -9249,7 +9681,7 @@
     </row>
     <row r="151" spans="1:20">
       <c r="B151" s="80" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C151" s="22">
         <v>999999</v>
@@ -9276,11 +9708,11 @@
         <v>-400</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="L151" s="2">
-        <f t="shared" ref="L151:L160" si="79">AVERAGE(H151,I151,J151)</f>
+        <f t="shared" ref="L151:L160" si="88">AVERAGE(H151,I151,J151)</f>
         <v>0</v>
       </c>
       <c r="M151" s="87">
@@ -9288,11 +9720,11 @@
         <v>700</v>
       </c>
       <c r="N151" s="87">
-        <f t="shared" ref="N151:N153" si="80">F151*(-1)</f>
+        <f t="shared" ref="N151:N153" si="89">F151*(-1)</f>
         <v>-500</v>
       </c>
       <c r="O151" s="87">
-        <f t="shared" ref="O151:O153" si="81">G151*(-1)</f>
+        <f t="shared" ref="O151:O153" si="90">G151*(-1)</f>
         <v>-200</v>
       </c>
       <c r="P151" s="2">
@@ -9313,7 +9745,7 @@
     </row>
     <row r="152" spans="1:20">
       <c r="B152" s="80" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C152" s="23">
         <v>1000000</v>
@@ -9340,11 +9772,11 @@
         <v>600</v>
       </c>
       <c r="K152" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>400</v>
       </c>
       <c r="L152" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="M152" s="87">
@@ -9352,11 +9784,11 @@
         <v>500</v>
       </c>
       <c r="N152" s="87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>300</v>
       </c>
       <c r="O152" s="87">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v>400</v>
       </c>
       <c r="P152" s="2">
@@ -9377,7 +9809,7 @@
     </row>
     <row r="153" spans="1:20">
       <c r="B153" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
@@ -9404,7 +9836,7 @@
         <v>48</v>
       </c>
       <c r="K153" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>366.66666666666669</v>
       </c>
       <c r="L153" s="2" t="s">
@@ -9415,11 +9847,11 @@
         <v>100</v>
       </c>
       <c r="N153" s="87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>700</v>
       </c>
       <c r="O153" s="87">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v>300</v>
       </c>
       <c r="P153" s="2">
@@ -9440,7 +9872,7 @@
     </row>
     <row r="154" spans="1:20">
       <c r="B154" s="80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
@@ -9470,7 +9902,7 @@
         <v>48</v>
       </c>
       <c r="L154" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>766.66666666666663</v>
       </c>
       <c r="M154" s="16" t="s">
@@ -9500,7 +9932,7 @@
     </row>
     <row r="155" spans="1:20">
       <c r="B155" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
@@ -9527,11 +9959,11 @@
         <v>400</v>
       </c>
       <c r="K155" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>-200</v>
       </c>
       <c r="L155" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>500</v>
       </c>
       <c r="M155" s="87">
@@ -9539,11 +9971,11 @@
         <v>300</v>
       </c>
       <c r="N155" s="87">
-        <f t="shared" ref="N155:N160" si="82">F155*(-1)</f>
+        <f t="shared" ref="N155:N160" si="91">F155*(-1)</f>
         <v>-700</v>
       </c>
       <c r="O155" s="87">
-        <f t="shared" ref="O155:O160" si="83">G155*(-1)</f>
+        <f t="shared" ref="O155:O160" si="92">G155*(-1)</f>
         <v>-200</v>
       </c>
       <c r="P155" s="2">
@@ -9564,7 +9996,7 @@
     </row>
     <row r="156" spans="1:20">
       <c r="B156" s="80" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
@@ -9591,11 +10023,11 @@
         <v>-800</v>
       </c>
       <c r="K156" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>-166.66666666666666</v>
       </c>
       <c r="L156" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="M156" s="87">
@@ -9603,11 +10035,11 @@
         <v>-200</v>
       </c>
       <c r="N156" s="87">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>500</v>
       </c>
       <c r="O156" s="87">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>-800</v>
       </c>
       <c r="P156" s="2">
@@ -9628,13 +10060,13 @@
     </row>
     <row r="157" spans="1:20">
       <c r="B157" s="80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E157" s="87">
         <v>-800</v>
@@ -9655,11 +10087,11 @@
         <v>-600</v>
       </c>
       <c r="K157" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>-200</v>
       </c>
       <c r="L157" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>-300</v>
       </c>
       <c r="M157" s="87">
@@ -9667,11 +10099,11 @@
         <v>800</v>
       </c>
       <c r="N157" s="87">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>-400</v>
       </c>
       <c r="O157" s="87">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>-1000</v>
       </c>
       <c r="P157" s="2">
@@ -9684,7 +10116,7 @@
         <v>193</v>
       </c>
       <c r="S157" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T157" s="2" t="s">
         <v>192</v>
@@ -9692,7 +10124,7 @@
     </row>
     <row r="158" spans="1:20">
       <c r="B158" s="80" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
@@ -9719,11 +10151,11 @@
         <v>-300</v>
       </c>
       <c r="K158" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>200</v>
       </c>
       <c r="L158" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="M158" s="87">
@@ -9731,11 +10163,11 @@
         <v>200</v>
       </c>
       <c r="N158" s="87">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>200</v>
       </c>
       <c r="O158" s="87">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>200</v>
       </c>
       <c r="P158" s="2">
@@ -9756,7 +10188,7 @@
     </row>
     <row r="159" spans="1:20">
       <c r="B159" s="80" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
@@ -9783,23 +10215,23 @@
         <v>-600</v>
       </c>
       <c r="K159" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="L159" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="M159" s="87">
-        <f t="shared" ref="M159:M160" si="84">E159*(-1)</f>
+        <f t="shared" ref="M159:M160" si="93">E159*(-1)</f>
         <v>400</v>
       </c>
       <c r="N159" s="87">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>-300</v>
       </c>
       <c r="O159" s="87">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>-100</v>
       </c>
       <c r="P159" s="2">
@@ -9820,13 +10252,13 @@
     </row>
     <row r="160" spans="1:20">
       <c r="B160" s="80" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E160" s="87">
         <v>-200</v>
@@ -9847,23 +10279,23 @@
         <v>-950</v>
       </c>
       <c r="K160" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="L160" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>-50</v>
       </c>
       <c r="M160" s="87">
-        <f t="shared" si="84"/>
+        <f t="shared" si="93"/>
         <v>200</v>
       </c>
       <c r="N160" s="87">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>-300</v>
       </c>
       <c r="O160" s="87">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>-100</v>
       </c>
       <c r="P160" s="2">
@@ -9876,7 +10308,7 @@
         <v>193</v>
       </c>
       <c r="S160" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T160" s="2" t="s">
         <v>192</v>
@@ -9920,7 +10352,7 @@
     <row r="164" spans="1:15">
       <c r="A164" s="31"/>
       <c r="B164" s="84" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C164" s="2">
         <v>3</v>
@@ -9935,16 +10367,18 @@
       <c r="G164" s="87">
         <v>0</v>
       </c>
-      <c r="H164" s="2"/>
+      <c r="H164" s="2">
+        <v>3</v>
+      </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="32"/>
       <c r="B165" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="C165" s="2">
+        <v>282</v>
+      </c>
+      <c r="C165" s="93">
         <v>1</v>
       </c>
       <c r="D165" s="9"/>
@@ -9957,14 +10391,18 @@
       <c r="G165" s="87">
         <v>1000</v>
       </c>
-      <c r="H165" s="2"/>
+      <c r="H165" s="93">
+        <v>2</v>
+      </c>
       <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
+      <c r="J165" s="93" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="32"/>
       <c r="B166" s="84" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -9979,14 +10417,16 @@
       <c r="G166" s="87">
         <v>1000</v>
       </c>
-      <c r="H166" s="2"/>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
       <c r="I166" s="29"/>
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="32"/>
       <c r="B167" s="84" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C167" s="22" t="s">
         <v>4</v>
@@ -10010,7 +10450,7 @@
         <v>139</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -10055,7 +10495,7 @@
     <row r="171" spans="1:15">
       <c r="A171" s="31"/>
       <c r="B171" s="83" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -10077,14 +10517,14 @@
         <v>151</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O171"/>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="20"/>
       <c r="B172" s="80" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C172" s="2">
         <v>1</v>
@@ -10104,14 +10544,14 @@
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O172"/>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="20"/>
       <c r="B173" s="80" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C173" s="2">
         <v>1</v>
@@ -10131,14 +10571,14 @@
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O173"/>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="20"/>
       <c r="B174" s="80" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C174" s="22" t="s">
         <v>4</v>
@@ -10162,19 +10602,19 @@
         <v>139</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O174"/>
     </row>
     <row r="175" spans="1:15" s="45" customFormat="1">
       <c r="B175" s="81" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C175" s="47">
         <v>0</v>
       </c>
       <c r="D175" s="48" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E175" s="46">
         <v>-1000</v>
@@ -10189,10 +10629,10 @@
         <v>0</v>
       </c>
       <c r="I175" s="57" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K175" s="64"/>
       <c r="L175" s="49"/>
@@ -10202,7 +10642,7 @@
     <row r="177" spans="1:15">
       <c r="L177" s="78"/>
     </row>
-    <row r="178" spans="1:15" ht="18.600000000000001">
+    <row r="178" spans="1:15" ht="18.75">
       <c r="A178" s="30" t="s">
         <v>171</v>
       </c>
@@ -10241,7 +10681,7 @@
     <row r="179" spans="1:15">
       <c r="A179" s="31"/>
       <c r="B179" s="83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C179" s="2">
         <f>H179</f>
@@ -10267,13 +10707,13 @@
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="32"/>
       <c r="B180" s="80" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C180" s="2">
         <f>H180</f>
@@ -10299,13 +10739,13 @@
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="32"/>
       <c r="B181" s="80" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>4</v>
@@ -10321,7 +10761,7 @@
       </c>
       <c r="J181" s="2"/>
       <c r="K181" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -10368,7 +10808,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="B185" s="80" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C185" s="2">
         <f>E185</f>
@@ -10395,15 +10835,15 @@
         <v>1</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="186" spans="1:15">
       <c r="B186" s="80" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C186" s="2">
         <f>E186</f>
@@ -10430,15 +10870,15 @@
         <v>1</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="187" spans="1:15">
       <c r="B187" s="80" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C187" s="2">
         <f>E187</f>
@@ -10465,15 +10905,15 @@
         <v>0</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="188" spans="1:15" s="51" customFormat="1">
       <c r="B188" s="80" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C188" s="52" t="s">
         <v>4</v>
@@ -10496,10 +10936,10 @@
         <v>4</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M188" s="50"/>
       <c r="N188" s="50"/>
@@ -10618,19 +11058,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:15">
@@ -10698,7 +11138,7 @@
         <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O6" s="5"/>
     </row>
@@ -10731,7 +11171,7 @@
         <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O7" s="5"/>
     </row>
@@ -10764,7 +11204,7 @@
         <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O8" s="5"/>
     </row>
@@ -10816,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -10825,7 +11265,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -10841,7 +11281,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -10895,7 +11335,7 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -10931,7 +11371,7 @@
         <v>48</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O17" s="5"/>
     </row>
@@ -10973,7 +11413,7 @@
         <v>48</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O18" s="5"/>
     </row>
@@ -11015,7 +11455,7 @@
         <v>48</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O19" s="5"/>
     </row>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Table" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis Unit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="341">
   <si>
     <t>IND_50</t>
   </si>
@@ -1048,7 +1048,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1267,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1514,9 +1514,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2046,46 +2049,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BH208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="27" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
     <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" customWidth="1"/>
+    <col min="25" max="29" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" customWidth="1"/>
     <col min="31" max="31" width="17" customWidth="1"/>
     <col min="32" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.42578125" customWidth="1"/>
-    <col min="35" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.140625" customWidth="1"/>
-    <col min="39" max="39" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" customWidth="1"/>
-    <col min="43" max="43" width="27.42578125" customWidth="1"/>
+    <col min="33" max="33" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.44140625" customWidth="1"/>
+    <col min="35" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.109375" customWidth="1"/>
+    <col min="39" max="39" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.88671875" customWidth="1"/>
+    <col min="43" max="43" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="18" customHeight="1">
@@ -2759,15 +2762,15 @@
       <c r="B31" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="16">
-        <f>L31/M31</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>48</v>
+      <c r="C31" s="94">
+        <f>N31</f>
+        <v>999999</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="F31" s="16">
         <v>1000</v>
@@ -2795,7 +2798,9 @@
         <f>AVERAGE(F31,G31,H31)</f>
         <v>866.66666666666663</v>
       </c>
-      <c r="N31" s="2"/>
+      <c r="N31" s="88">
+        <v>999999</v>
+      </c>
       <c r="O31" s="2">
         <f>IF((F31-I31)&lt;0, 0,(F31-I31))</f>
         <v>0</v>
@@ -3168,13 +3173,16 @@
       <c r="B38" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="16">
-        <v>0</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="18"/>
+      <c r="C38" s="94">
+        <f>N38</f>
+        <v>999999</v>
+      </c>
+      <c r="D38" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>191</v>
+      </c>
       <c r="F38" s="16">
         <v>500</v>
       </c>
@@ -3201,7 +3209,9 @@
         <f t="shared" si="5"/>
         <v>466.66666666666669</v>
       </c>
-      <c r="N38" s="16"/>
+      <c r="N38" s="88">
+        <v>999999</v>
+      </c>
       <c r="O38" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5461,7 +5471,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="19.149999999999999" customHeight="1">
+    <row r="84" spans="1:60" ht="19.2" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -5591,7 +5601,7 @@
         <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1</v>
       </c>
       <c r="AQ84" t="str">
-        <f t="shared" ref="AQ84:BA84" si="22">AP84&amp;","&amp;G84</f>
+        <f t="shared" ref="AQ84:AZ84" si="22">AP84&amp;","&amp;G84</f>
         <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2</v>
       </c>
       <c r="AR84" t="str">
@@ -5635,7 +5645,7 @@
         <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0</v>
       </c>
       <c r="BB84" t="str">
-        <f t="shared" ref="BB84:BC84" si="23">BA84&amp;","&amp;R84</f>
+        <f t="shared" ref="BB84" si="23">BA84&amp;","&amp;R84</f>
         <v>SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1</v>
       </c>
       <c r="BC84" s="3" t="str">
@@ -5786,7 +5796,7 @@
         <v>'0000000000000138',1000,1500</v>
       </c>
       <c r="AR85" t="str">
-        <f t="shared" ref="AR85:BD89" si="25">AQ85&amp;","&amp;(IF(OR(LEN(G85)=0,G85="-"),"NULL",G85))</f>
+        <f t="shared" ref="AR85:BB89" si="25">AQ85&amp;","&amp;(IF(OR(LEN(G85)=0,G85="-"),"NULL",G85))</f>
         <v>'0000000000000138',1000,1500,800</v>
       </c>
       <c r="AS85" t="str">
@@ -6238,7 +6248,7 @@
         <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL,700,600,NULL,400,300</v>
       </c>
       <c r="BE87" s="89" t="str">
-        <f t="shared" ref="BE86:BE89" si="31">AO87&amp;BD87&amp;")"</f>
+        <f t="shared" ref="BE87:BE89" si="31">AO87&amp;BD87&amp;")"</f>
         <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL,700,600,NULL,400,300)</v>
       </c>
     </row>
@@ -10642,7 +10652,7 @@
     <row r="177" spans="1:15">
       <c r="L177" s="78"/>
     </row>
-    <row r="178" spans="1:15" ht="18.75">
+    <row r="178" spans="1:15" ht="18.600000000000001">
       <c r="A178" s="30" t="s">
         <v>171</v>
       </c>
@@ -11058,19 +11068,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:15">

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Statistici_RETAIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Table" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis Unit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="342">
   <si>
     <t>IND_50</t>
   </si>
@@ -136,9 +136,6 @@
     <t>ERROR_MSG_IND_53</t>
   </si>
   <si>
-    <t>0000000000000089</t>
-  </si>
-  <si>
     <t>0000000000000081</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>0000000000000086</t>
   </si>
   <si>
-    <t>0000000000000087</t>
-  </si>
-  <si>
     <t>ERROR_MSG_IND_60_atteso</t>
   </si>
   <si>
@@ -217,48 +211,21 @@
     <t>CRZER000_1</t>
   </si>
   <si>
-    <t>0000000000000088</t>
-  </si>
-  <si>
     <t>CRZER002_1</t>
   </si>
   <si>
     <t>CRZER003_1</t>
   </si>
   <si>
-    <t>0000000000000090</t>
-  </si>
-  <si>
     <t>CRZER003_2</t>
   </si>
   <si>
-    <t>0000000000000091</t>
-  </si>
-  <si>
-    <t>0000000000000092</t>
-  </si>
-  <si>
     <t>CRZER004_2</t>
   </si>
   <si>
-    <t>0000000000000093</t>
-  </si>
-  <si>
-    <t>0000000000000094</t>
-  </si>
-  <si>
-    <t>0000000000000095</t>
-  </si>
-  <si>
-    <t>0000000000000096</t>
-  </si>
-  <si>
     <t>CRZER004_3</t>
   </si>
   <si>
-    <t>0000000000000100</t>
-  </si>
-  <si>
     <t>IMP_ACC_REV_M0</t>
   </si>
   <si>
@@ -967,15 +934,6 @@
     <t>BILFAM004_3</t>
   </si>
   <si>
-    <t>000000000000097</t>
-  </si>
-  <si>
-    <t>000000000000098</t>
-  </si>
-  <si>
-    <t>000000000000099</t>
-  </si>
-  <si>
     <t>0000000000000134</t>
   </si>
   <si>
@@ -1043,12 +1001,57 @@
   </si>
   <si>
     <t>dovrebbe dare 2</t>
+  </si>
+  <si>
+    <t>'0000000000000086'</t>
+  </si>
+  <si>
+    <t>'0000000000000087'</t>
+  </si>
+  <si>
+    <t>'0000000000000088'</t>
+  </si>
+  <si>
+    <t>'0000000000000089'</t>
+  </si>
+  <si>
+    <t>'0000000000000090'</t>
+  </si>
+  <si>
+    <t>'0000000000000091'</t>
+  </si>
+  <si>
+    <t>'0000000000000092'</t>
+  </si>
+  <si>
+    <t>'0000000000000093'</t>
+  </si>
+  <si>
+    <t>'0000000000000094'</t>
+  </si>
+  <si>
+    <t>'0000000000000095'</t>
+  </si>
+  <si>
+    <t>'0000000000000096'</t>
+  </si>
+  <si>
+    <t>'0000000000000097'</t>
+  </si>
+  <si>
+    <t>'0000000000000098'</t>
+  </si>
+  <si>
+    <t>'0000000000000099'</t>
+  </si>
+  <si>
+    <t>'0000000000000100'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1116,7 +1119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,6 +1171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,9 +1373,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,25 +1435,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1489,9 +1480,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1503,23 +1491,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2049,46 +2058,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BH208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="27" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
     <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="29" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" customWidth="1"/>
+    <col min="25" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" customWidth="1"/>
     <col min="31" max="31" width="17" customWidth="1"/>
     <col min="32" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.44140625" customWidth="1"/>
-    <col min="35" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.109375" customWidth="1"/>
-    <col min="39" max="39" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.88671875" customWidth="1"/>
-    <col min="43" max="43" width="27.44140625" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" customWidth="1"/>
+    <col min="35" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" customWidth="1"/>
+    <col min="39" max="39" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.85546875" customWidth="1"/>
+    <col min="43" max="43" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="18" customHeight="1">
@@ -2114,11 +2123,11 @@
         <v>11</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2">
@@ -2133,11 +2142,11 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2147,7 +2156,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -2156,11 +2165,11 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="74" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
@@ -2177,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2206,11 +2215,11 @@
         <v>18</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="74" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2">
@@ -2225,11 +2234,11 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="74" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2239,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
@@ -2248,11 +2257,11 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="74" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2"/>
@@ -2269,11 +2278,11 @@
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="39"/>
+      <c r="B14" s="38"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
@@ -2300,17 +2309,17 @@
       <c r="H15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="43" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="74" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="5">
@@ -2331,13 +2340,13 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="74" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
@@ -2358,12 +2367,12 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="74" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
@@ -2384,13 +2393,13 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="74" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
@@ -2411,13 +2420,13 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="74" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2427,13 +2436,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>4</v>
@@ -2442,7 +2451,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -2451,7 +2460,7 @@
       <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="B22" s="39"/>
+      <c r="B22" s="38"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="3" t="s">
@@ -2482,13 +2491,13 @@
         <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="M23" s="36" t="s">
         <v>35</v>
@@ -2497,7 +2506,7 @@
         <v>37</v>
       </c>
       <c r="O23" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
@@ -2505,8 +2514,8 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="15"/>
-      <c r="B24" s="80" t="s">
-        <v>43</v>
+      <c r="B24" s="74" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -2544,15 +2553,15 @@
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="B25" s="80" t="s">
-        <v>39</v>
+      <c r="B25" s="74" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -2590,15 +2599,15 @@
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="B26" s="80" t="s">
-        <v>40</v>
+      <c r="B26" s="74" t="s">
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>5</v>
@@ -2607,92 +2616,92 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="2">
         <v>200</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="N26" s="16" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="B27" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="67">
-        <v>0</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="E27" s="66">
+      <c r="B27" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="85">
+        <v>0</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" s="94">
         <v>-36</v>
       </c>
-      <c r="F27" s="67">
+      <c r="F27" s="56">
         <v>-150</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="94">
         <v>-200</v>
       </c>
-      <c r="H27" s="67">
+      <c r="H27" s="56">
         <v>-400</v>
       </c>
-      <c r="I27" s="66">
+      <c r="I27" s="64">
         <v>-700</v>
       </c>
-      <c r="J27" s="67">
+      <c r="J27" s="65">
         <f xml:space="preserve"> F27/G27</f>
         <v>0.75</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K27" s="65">
         <f>H27/I27</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="L27" s="67">
+      <c r="L27" s="65">
         <f t="shared" ref="L27" si="0">MAX(J27,K27)</f>
         <v>0.75</v>
       </c>
       <c r="M27" s="16">
         <v>0</v>
       </c>
-      <c r="N27" s="58" t="s">
-        <v>313</v>
+      <c r="N27" s="57" t="s">
+        <v>302</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="B29" s="39"/>
+      <c r="B29" s="38"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -2701,76 +2710,76 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="T30" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="U30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="R30" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="S30" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="T30" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="U30" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="V30" s="43" t="s">
-        <v>181</v>
+      <c r="V30" s="42" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="B31" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="94">
+      <c r="B31" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" s="91">
         <f>N31</f>
         <v>999999</v>
       </c>
-      <c r="D31" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="88" t="s">
-        <v>191</v>
+      <c r="D31" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="86" t="s">
+        <v>180</v>
       </c>
       <c r="F31" s="16">
         <v>1000</v>
@@ -2798,7 +2807,7 @@
         <f>AVERAGE(F31,G31,H31)</f>
         <v>866.66666666666663</v>
       </c>
-      <c r="N31" s="88">
+      <c r="N31" s="81">
         <v>999999</v>
       </c>
       <c r="O31" s="2">
@@ -2816,24 +2825,24 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40" t="s">
-        <v>297</v>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="B32" s="80" t="s">
-        <v>52</v>
+      <c r="B32" s="74" t="s">
+        <v>328</v>
       </c>
       <c r="C32" s="16">
         <f>L32/M32</f>
         <v>0.34615384615384615</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2">
         <v>1000</v>
@@ -2874,27 +2883,27 @@
         <f t="shared" ref="Q32:Q46" si="4">IF((H32-K32)&lt;0,0,(H32-K32))</f>
         <v>300</v>
       </c>
-      <c r="R32" s="40"/>
+      <c r="R32" s="39"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40" t="s">
-        <v>297</v>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="2:24">
-      <c r="B33" s="80" t="s">
-        <v>65</v>
+      <c r="B33" s="74" t="s">
+        <v>329</v>
       </c>
       <c r="C33" s="16">
         <f>L33/M33</f>
         <v>0.80000000000000016</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="2">
         <v>1000</v>
@@ -2935,81 +2944,81 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R33" s="40"/>
+      <c r="R33" s="39"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40" t="s">
-        <v>297</v>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="2:24">
-      <c r="B34" s="80" t="s">
-        <v>38</v>
+      <c r="B34" s="74" t="s">
+        <v>330</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>62</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
+        <v>47</v>
+      </c>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40" t="s">
-        <v>297</v>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="2:24">
-      <c r="B35" s="80" t="s">
-        <v>68</v>
+      <c r="B35" s="74" t="s">
+        <v>331</v>
       </c>
       <c r="C35" s="14">
         <v>-1000000</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -3050,35 +3059,35 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R35" s="41"/>
-      <c r="S35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="39"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40" t="s">
-        <v>297</v>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="2:24">
-      <c r="B36" s="80" t="s">
-        <v>38</v>
+      <c r="B36" s="74" t="s">
+        <v>330</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" s="2">
         <v>-500</v>
@@ -3090,41 +3099,41 @@
         <v>-2500</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
+        <v>47</v>
+      </c>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40" t="s">
-        <v>297</v>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="2:24">
-      <c r="B37" s="80" t="s">
-        <v>70</v>
+      <c r="B37" s="74" t="s">
+        <v>332</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F37" s="16">
         <v>400</v>
@@ -3136,16 +3145,16 @@
         <v>700</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" ref="M37:M46" si="5">AVERAGE(F37,G37,H37)</f>
@@ -3153,35 +3162,35 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
+        <v>47</v>
+      </c>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40" t="s">
-        <v>297</v>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="2:24">
-      <c r="B38" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="94">
+      <c r="B38" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="C38" s="91">
         <f>N38</f>
         <v>999999</v>
       </c>
-      <c r="D38" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="88" t="s">
-        <v>191</v>
+      <c r="D38" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="86" t="s">
+        <v>180</v>
       </c>
       <c r="F38" s="16">
         <v>500</v>
@@ -3209,7 +3218,7 @@
         <f t="shared" si="5"/>
         <v>466.66666666666669</v>
       </c>
-      <c r="N38" s="88">
+      <c r="N38" s="81">
         <v>999999</v>
       </c>
       <c r="O38" s="16">
@@ -3224,32 +3233,32 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R38" s="54">
-        <v>0</v>
-      </c>
-      <c r="S38" s="54">
+      <c r="R38" s="53">
+        <v>0</v>
+      </c>
+      <c r="S38" s="53">
         <v>466</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
       </c>
-      <c r="U38" s="54"/>
-      <c r="V38" s="40" t="s">
-        <v>192</v>
+      <c r="U38" s="53"/>
+      <c r="V38" s="39" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="2:24">
-      <c r="B39" s="80" t="s">
-        <v>73</v>
+      <c r="B39" s="74" t="s">
+        <v>334</v>
       </c>
       <c r="C39" s="14">
         <v>-1000000</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F39" s="16">
         <v>-500</v>
@@ -3296,28 +3305,28 @@
       <c r="S39" s="16">
         <v>0</v>
       </c>
-      <c r="T39" s="60">
+      <c r="T39" s="59">
         <v>-1000000</v>
       </c>
-      <c r="U39" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="V39" s="40" t="s">
-        <v>192</v>
+      <c r="U39" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="V39" s="39" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="2:24">
-      <c r="B40" s="80" t="s">
-        <v>74</v>
+      <c r="B40" s="74" t="s">
+        <v>335</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F40" s="16">
         <v>-500</v>
@@ -3358,34 +3367,34 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R40" s="54">
-        <v>0</v>
-      </c>
-      <c r="S40" s="54">
+      <c r="R40" s="53">
+        <v>0</v>
+      </c>
+      <c r="S40" s="53">
         <v>-33</v>
       </c>
       <c r="T40" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="U40" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="V40" s="42" t="s">
-        <v>192</v>
+        <v>182</v>
+      </c>
+      <c r="U40" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="V40" s="41" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="2:24">
-      <c r="B41" s="80" t="s">
-        <v>75</v>
+      <c r="B41" s="74" t="s">
+        <v>336</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F41" s="16">
         <v>-500</v>
@@ -3429,23 +3438,23 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="42" t="s">
-        <v>192</v>
+      <c r="U41" s="39"/>
+      <c r="V41" s="41" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="2:24">
-      <c r="B42" s="80" t="s">
-        <v>76</v>
+      <c r="B42" s="74" t="s">
+        <v>337</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F42" s="16">
         <v>-500</v>
@@ -3492,31 +3501,31 @@
       <c r="S42" s="16">
         <v>0</v>
       </c>
-      <c r="T42" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="U42" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="V42" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="W42" s="63"/>
-      <c r="X42" s="63"/>
+      <c r="T42" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="U42" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="V42" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
     </row>
     <row r="43" spans="2:24" s="15" customFormat="1">
-      <c r="B43" s="82" t="s">
-        <v>315</v>
+      <c r="B43" s="76" t="s">
+        <v>338</v>
       </c>
       <c r="C43" s="17">
         <f>N43</f>
         <v>999999</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E43" s="62" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>180</v>
       </c>
       <c r="F43" s="24">
         <v>500</v>
@@ -3562,24 +3571,24 @@
       </c>
       <c r="R43" s="14"/>
       <c r="S43" s="16"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42" t="s">
-        <v>192</v>
+      <c r="T43" s="58"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="2:24" s="15" customFormat="1">
-      <c r="B44" s="80" t="s">
-        <v>316</v>
+      <c r="B44" s="74" t="s">
+        <v>339</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="16">
         <v>500</v>
@@ -3626,23 +3635,23 @@
       <c r="R44" s="14"/>
       <c r="S44" s="16"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42" t="s">
-        <v>192</v>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="2:24" s="15" customFormat="1">
-      <c r="B45" s="80" t="s">
-        <v>317</v>
+      <c r="B45" s="74" t="s">
+        <v>340</v>
       </c>
       <c r="C45" s="17">
         <v>0.34639999999999999</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="16">
         <v>1000</v>
@@ -3689,23 +3698,23 @@
       <c r="R45" s="14"/>
       <c r="S45" s="16"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42" t="s">
-        <v>192</v>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="2:24" s="15" customFormat="1">
-      <c r="B46" s="80" t="s">
-        <v>78</v>
+      <c r="B46" s="74" t="s">
+        <v>341</v>
       </c>
       <c r="C46" s="14">
         <v>0.34639999999999999</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46" s="16">
         <v>1000</v>
@@ -3752,20 +3761,20 @@
       <c r="R46" s="14"/>
       <c r="S46" s="16"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42" t="s">
-        <v>192</v>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="2:24">
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="2:24">
-      <c r="B48" s="39"/>
+      <c r="B48" s="38"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -3774,67 +3783,67 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M49" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="Q49" s="36" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="R49" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="S49" s="43" t="s">
-        <v>86</v>
+        <v>74</v>
+      </c>
+      <c r="S49" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="T49" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="15"/>
-      <c r="B50" s="82" t="s">
-        <v>207</v>
+      <c r="B50" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="C50" s="2">
         <f>K50/L50</f>
         <v>0</v>
       </c>
-      <c r="D50" s="40"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="2">
         <v>2500</v>
       </c>
@@ -3882,22 +3891,22 @@
       <c r="R50" s="2">
         <v>0</v>
       </c>
-      <c r="S50" s="40"/>
+      <c r="S50" s="39"/>
       <c r="T50" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="U50" s="63"/>
-      <c r="V50" s="63"/>
+        <v>181</v>
+      </c>
+      <c r="U50" s="62"/>
+      <c r="V50" s="62"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="B51" s="80" t="s">
-        <v>208</v>
+      <c r="B51" s="74" t="s">
+        <v>197</v>
       </c>
       <c r="C51" s="2">
         <f>K51/L51</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D51" s="40"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="2">
         <v>1000</v>
       </c>
@@ -3945,77 +3954,77 @@
       <c r="R51" s="2">
         <v>0.4</v>
       </c>
-      <c r="S51" s="40"/>
+      <c r="S51" s="39"/>
       <c r="T51" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="B52" s="82" t="s">
-        <v>209</v>
+      <c r="B52" s="76" t="s">
+        <v>198</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="40" t="s">
-        <v>64</v>
+      <c r="D52" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S52" s="40" t="s">
-        <v>64</v>
+        <v>182</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:22">
-      <c r="B53" s="80" t="s">
-        <v>210</v>
+      <c r="B53" s="74" t="s">
+        <v>199</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
       </c>
-      <c r="D53" s="40" t="s">
-        <v>66</v>
+      <c r="D53" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="E53" s="16">
         <v>1000</v>
@@ -4064,22 +4073,22 @@
       <c r="R53" s="7">
         <v>0</v>
       </c>
-      <c r="S53" s="40" t="s">
-        <v>66</v>
+      <c r="S53" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:22">
-      <c r="B54" s="80" t="s">
-        <v>211</v>
+      <c r="B54" s="74" t="s">
+        <v>200</v>
       </c>
       <c r="C54" s="19">
         <v>1000000</v>
       </c>
-      <c r="D54" s="40" t="s">
-        <v>88</v>
+      <c r="D54" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="E54" s="2">
         <v>-500</v>
@@ -4128,31 +4137,31 @@
       <c r="R54" s="37">
         <v>1000000</v>
       </c>
-      <c r="S54" s="40" t="s">
-        <v>88</v>
+      <c r="S54" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:22">
-      <c r="B55" s="80" t="s">
-        <v>212</v>
+      <c r="B55" s="74" t="s">
+        <v>201</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="40" t="s">
-        <v>64</v>
+      <c r="D55" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H55" s="7">
         <v>500</v>
@@ -4164,45 +4173,45 @@
         <v>2500</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S55" s="40" t="s">
-        <v>64</v>
+        <v>182</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:22" s="20" customFormat="1">
-      <c r="B56" s="80" t="s">
-        <v>213</v>
+      <c r="B56" s="74" t="s">
+        <v>202</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="40" t="s">
-        <v>69</v>
+      <c r="D56" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="E56" s="16">
         <v>400</v>
@@ -4214,55 +4223,55 @@
         <v>700</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L56" s="2">
         <f>AVERAGE(E56,F56,G56)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q56" s="2">
         <v>466.67</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S56" s="40" t="s">
-        <v>69</v>
+        <v>182</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:22" s="21" customFormat="1">
-      <c r="B57" s="80" t="s">
-        <v>214</v>
+      <c r="B57" s="74" t="s">
+        <v>203</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="40" t="s">
-        <v>72</v>
+      <c r="D57" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="E57" s="16">
         <v>-500</v>
@@ -4309,25 +4318,25 @@
         <v>-33.33</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S57" s="40" t="s">
-        <v>72</v>
+        <v>182</v>
+      </c>
+      <c r="S57" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:22" s="20" customFormat="1">
       <c r="A58" s="21"/>
-      <c r="B58" s="80" t="s">
-        <v>215</v>
+      <c r="B58" s="74" t="s">
+        <v>204</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="40" t="s">
-        <v>72</v>
+      <c r="D58" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="E58" s="2">
         <v>-500</v>
@@ -4374,24 +4383,24 @@
         <v>-33.33</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="S58" s="40" t="s">
-        <v>72</v>
+        <v>182</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="R59" s="35"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="B60" s="39"/>
+      <c r="B60" s="38"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -4400,67 +4409,67 @@
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M61" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P61" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="Q61" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="P61" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q61" s="36" t="s">
-        <v>195</v>
-      </c>
       <c r="R61" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="S61" s="43" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="S61" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="T61" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="15"/>
-      <c r="B62" s="82" t="s">
-        <v>196</v>
+      <c r="B62" s="76" t="s">
+        <v>185</v>
       </c>
       <c r="C62" s="2">
         <f>K62/L62</f>
         <v>0</v>
       </c>
-      <c r="D62" s="40"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="2">
         <v>2500</v>
       </c>
@@ -4508,22 +4517,22 @@
       <c r="R62" s="2">
         <v>0</v>
       </c>
-      <c r="S62" s="40"/>
+      <c r="S62" s="39"/>
       <c r="T62" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="U62" s="63"/>
-      <c r="V62" s="63"/>
+        <v>181</v>
+      </c>
+      <c r="U62" s="62"/>
+      <c r="V62" s="62"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="B63" s="80" t="s">
-        <v>197</v>
+      <c r="B63" s="74" t="s">
+        <v>186</v>
       </c>
       <c r="C63" s="2">
         <f>K63/L63</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D63" s="40"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="2">
         <v>1000</v>
       </c>
@@ -4571,79 +4580,79 @@
       <c r="R63" s="2">
         <v>0.4</v>
       </c>
-      <c r="S63" s="40"/>
+      <c r="S63" s="39"/>
       <c r="T63" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:22">
-      <c r="B64" s="82" t="s">
-        <v>198</v>
+      <c r="B64" s="76" t="s">
+        <v>187</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="40" t="s">
-        <v>64</v>
+      <c r="D64" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S64" s="40" t="s">
-        <v>64</v>
+        <v>182</v>
+      </c>
+      <c r="S64" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:20">
-      <c r="B65" s="80" t="s">
-        <v>199</v>
+      <c r="B65" s="74" t="s">
+        <v>188</v>
       </c>
       <c r="C65" s="16">
         <v>0</v>
       </c>
-      <c r="D65" s="40" t="s">
-        <v>66</v>
+      <c r="D65" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="E65" s="16">
         <v>1000</v>
@@ -4692,22 +4701,22 @@
       <c r="R65" s="7">
         <v>0</v>
       </c>
-      <c r="S65" s="40" t="s">
-        <v>66</v>
+      <c r="S65" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:20">
-      <c r="B66" s="80" t="s">
-        <v>200</v>
+      <c r="B66" s="74" t="s">
+        <v>189</v>
       </c>
       <c r="C66" s="19">
         <v>1000000</v>
       </c>
-      <c r="D66" s="40" t="s">
-        <v>88</v>
+      <c r="D66" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="E66" s="2">
         <v>-500</v>
@@ -4756,31 +4765,31 @@
       <c r="R66" s="37">
         <v>1000000</v>
       </c>
-      <c r="S66" s="40" t="s">
-        <v>88</v>
+      <c r="S66" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:20">
-      <c r="B67" s="80" t="s">
-        <v>201</v>
+      <c r="B67" s="74" t="s">
+        <v>190</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="40" t="s">
-        <v>64</v>
+      <c r="D67" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H67" s="7">
         <v>500</v>
@@ -4792,45 +4801,45 @@
         <v>2500</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q67" s="16" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S67" s="40" t="s">
-        <v>64</v>
+        <v>182</v>
+      </c>
+      <c r="S67" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:20">
-      <c r="B68" s="80" t="s">
-        <v>202</v>
+      <c r="B68" s="74" t="s">
+        <v>191</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="40" t="s">
-        <v>69</v>
+      <c r="D68" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="E68" s="16">
         <v>400</v>
@@ -4842,55 +4851,55 @@
         <v>700</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L68" s="16">
         <f>AVERAGE(E68,F68,G68)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q68" s="2">
         <v>466.67</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S68" s="40" t="s">
-        <v>69</v>
+        <v>182</v>
+      </c>
+      <c r="S68" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="T68" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="20" customFormat="1">
+      <c r="B69" s="74" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" s="20" customFormat="1">
-      <c r="B69" s="80" t="s">
-        <v>203</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="40" t="s">
-        <v>72</v>
+      <c r="D69" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="E69" s="16">
         <v>-500</v>
@@ -4937,24 +4946,24 @@
         <v>-33.33</v>
       </c>
       <c r="R69" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="S69" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" s="20" customFormat="1">
+      <c r="B70" s="74" t="s">
         <v>193</v>
-      </c>
-      <c r="S69" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" s="20" customFormat="1">
-      <c r="B70" s="80" t="s">
-        <v>204</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="40" t="s">
-        <v>72</v>
+      <c r="D70" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="E70" s="2">
         <v>-500</v>
@@ -5001,21 +5010,21 @@
         <v>-33.33</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S70" s="40" t="s">
-        <v>72</v>
+        <v>182</v>
+      </c>
+      <c r="S70" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:20">
-      <c r="B72" s="39"/>
+      <c r="B72" s="38"/>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -5024,52 +5033,52 @@
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M73" s="36" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="N73" s="36" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="O73" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="P73" s="43" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="P73" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="Q73" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:20" s="20" customFormat="1">
       <c r="A74" s="21"/>
-      <c r="B74" s="80" t="s">
-        <v>216</v>
+      <c r="B74" s="74" t="s">
+        <v>205</v>
       </c>
       <c r="C74" s="2">
         <f>K74/L74</f>
@@ -5111,15 +5120,15 @@
       <c r="O74" s="2">
         <v>1.0528999999999999</v>
       </c>
-      <c r="P74" s="40"/>
+      <c r="P74" s="39"/>
       <c r="Q74" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:20" s="20" customFormat="1">
       <c r="A75" s="21"/>
-      <c r="B75" s="80" t="s">
-        <v>217</v>
+      <c r="B75" s="74" t="s">
+        <v>206</v>
       </c>
       <c r="C75" s="2">
         <f>K75/L75</f>
@@ -5130,7 +5139,7 @@
         <v>800</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G75" s="2">
         <v>900</v>
@@ -5142,7 +5151,7 @@
         <v>700</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75" s="2">
         <f>H75/E75</f>
@@ -5161,70 +5170,70 @@
       <c r="O75" s="2">
         <v>0.87829999999999997</v>
       </c>
-      <c r="P75" s="40"/>
+      <c r="P75" s="39"/>
       <c r="Q75" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:20">
-      <c r="B76" s="80" t="s">
-        <v>218</v>
+      <c r="B76" s="74" t="s">
+        <v>207</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M76" s="16" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="P76" s="40" t="s">
-        <v>64</v>
+        <v>182</v>
+      </c>
+      <c r="P76" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:20">
-      <c r="B77" s="80" t="s">
-        <v>219</v>
+      <c r="B77" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="C77" s="19">
         <v>0</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E77" s="2">
         <v>400</v>
@@ -5261,25 +5270,25 @@
       <c r="O77" s="2">
         <v>0</v>
       </c>
-      <c r="P77" s="40" t="s">
-        <v>66</v>
+      <c r="P77" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:20">
-      <c r="B78" s="80" t="s">
-        <v>220</v>
+      <c r="B78" s="74" t="s">
+        <v>209</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F78" s="16">
         <v>500</v>
@@ -5288,7 +5297,7 @@
         <v>400</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I78" s="16">
         <v>300</v>
@@ -5297,40 +5306,40 @@
         <v>100</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="21"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="N78" s="2">
         <v>0.444444444444</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="P78" s="40" t="s">
-        <v>67</v>
+        <v>182</v>
+      </c>
+      <c r="P78" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:20">
-      <c r="B79" s="80" t="s">
-        <v>221</v>
+      <c r="B79" s="74" t="s">
+        <v>210</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F79" s="16">
         <v>500</v>
@@ -5339,7 +5348,7 @@
         <v>400</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I79" s="16">
         <v>300</v>
@@ -5348,31 +5357,31 @@
         <v>-300</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="N79" s="2">
         <v>0</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="P79" s="40" t="s">
-        <v>67</v>
+        <v>182</v>
+      </c>
+      <c r="P79" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:20">
-      <c r="B80" s="80" t="s">
-        <v>222</v>
+      <c r="B80" s="74" t="s">
+        <v>211</v>
       </c>
       <c r="C80" s="7">
         <f>K80/L80</f>
@@ -5383,19 +5392,19 @@
         <v>800</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H80" s="2">
         <v>500</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80" s="2">
         <f>H80/E80</f>
@@ -5414,20 +5423,20 @@
       <c r="O80" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="P80" s="40"/>
+      <c r="P80" s="39"/>
       <c r="Q80" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:60">
-      <c r="B81" s="80" t="s">
-        <v>318</v>
+      <c r="B81" s="74" t="s">
+        <v>304</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E81" s="2">
         <v>800</v>
@@ -5464,16 +5473,16 @@
       <c r="O81" s="37">
         <v>1000000</v>
       </c>
-      <c r="P81" s="40" t="s">
-        <v>77</v>
+      <c r="P81" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84" spans="1:60" ht="19.2" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:60" ht="19.149999999999999" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1</v>
@@ -5482,115 +5491,115 @@
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E84" s="88" t="s">
-        <v>331</v>
-      </c>
-      <c r="F84" s="88" t="s">
-        <v>332</v>
-      </c>
-      <c r="G84" s="88" t="s">
-        <v>333</v>
+        <v>118</v>
+      </c>
+      <c r="E84" s="84" t="s">
+        <v>317</v>
+      </c>
+      <c r="F84" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="G84" s="84" t="s">
+        <v>319</v>
       </c>
       <c r="H84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S84" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L84" s="1" t="s">
+      <c r="T84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z84" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC84" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE84" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF84" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG84" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI84" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ84" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK84" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL84" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM84" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="M84" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T84" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="V84" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="W84" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="X84" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y84" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z84" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA84" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB84" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC84" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD84" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE84" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF84" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AG84" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH84" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI84" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ84" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK84" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL84" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM84" s="36" t="s">
-        <v>130</v>
-      </c>
       <c r="AN84" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AO84" t="str">
         <f>B84&amp;","&amp;E84</f>
@@ -5654,123 +5663,123 @@
       </c>
     </row>
     <row r="85" spans="1:60">
-      <c r="B85" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="C85" s="2">
+      <c r="B85" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" s="56">
         <f>AVERAGE(SUM(T85,W85,Z85,AC85,AF85),SUM(U85,X85,AA85,AD85,AG85),SUM(V85,Y85,AB85,AE85,AH85))</f>
         <v>3133.3333333333335</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="2">
+      <c r="D85" s="55"/>
+      <c r="E85" s="56">
         <v>1000</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="56">
         <v>1500</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="56">
         <v>800</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="56">
         <v>600</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="56">
         <v>300</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="56">
         <v>1000</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="56">
         <v>400</v>
       </c>
-      <c r="L85" s="2">
+      <c r="L85" s="56">
         <v>300</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="56">
         <v>200</v>
       </c>
-      <c r="N85" s="2">
+      <c r="N85" s="56">
         <v>800</v>
       </c>
-      <c r="O85" s="2">
+      <c r="O85" s="56">
         <v>700</v>
       </c>
-      <c r="P85" s="2">
+      <c r="P85" s="56">
         <v>600</v>
       </c>
-      <c r="Q85" s="22">
+      <c r="Q85" s="55">
         <v>500</v>
       </c>
-      <c r="R85" s="22">
+      <c r="R85" s="55">
         <v>400</v>
       </c>
-      <c r="S85" s="22">
+      <c r="S85" s="55">
         <v>300</v>
       </c>
-      <c r="T85" s="65">
+      <c r="T85" s="19">
         <f t="shared" ref="T85:AH89" si="24">IF(E85&lt;0,0,E85)</f>
         <v>1000</v>
       </c>
-      <c r="U85" s="65">
+      <c r="U85" s="19">
         <f t="shared" si="24"/>
         <v>1500</v>
       </c>
-      <c r="V85" s="65">
+      <c r="V85" s="19">
         <f t="shared" si="24"/>
         <v>800</v>
       </c>
-      <c r="W85" s="65">
+      <c r="W85" s="19">
         <f t="shared" si="24"/>
         <v>600</v>
       </c>
-      <c r="X85" s="65">
+      <c r="X85" s="19">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="Y85" s="65">
+      <c r="Y85" s="19">
         <f t="shared" si="24"/>
         <v>1000</v>
       </c>
-      <c r="Z85" s="65">
+      <c r="Z85" s="19">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="AA85" s="65">
+      <c r="AA85" s="19">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="AB85" s="65">
+      <c r="AB85" s="19">
         <f t="shared" si="24"/>
         <v>200</v>
       </c>
-      <c r="AC85" s="65">
+      <c r="AC85" s="19">
         <f t="shared" si="24"/>
         <v>800</v>
       </c>
-      <c r="AD85" s="65">
+      <c r="AD85" s="19">
         <f t="shared" si="24"/>
         <v>700</v>
       </c>
-      <c r="AE85" s="65">
+      <c r="AE85" s="19">
         <f t="shared" si="24"/>
         <v>600</v>
       </c>
-      <c r="AF85" s="65">
+      <c r="AF85" s="19">
         <f t="shared" si="24"/>
         <v>500</v>
       </c>
-      <c r="AG85" s="65">
+      <c r="AG85" s="19">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="AH85" s="65">
+      <c r="AH85" s="19">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="AI85" s="38">
+      <c r="AI85" s="67">
         <v>3300</v>
       </c>
-      <c r="AJ85" s="38">
+      <c r="AJ85" s="67">
         <v>3200</v>
       </c>
       <c r="AK85" s="37">
@@ -5781,7 +5790,7 @@
       </c>
       <c r="AM85" s="2"/>
       <c r="AN85" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AO85" t="str">
         <f>"INSERT INTO TEWSA0W.CT_RETAIL_TMP (" &amp;BC$84&amp; ") VALUES ("</f>
@@ -5847,143 +5856,143 @@
         <f>BC85&amp;","&amp;(IF(OR(LEN(S85)=0,S85="-"),"NULL",S85))</f>
         <v>'0000000000000138',1000,1500,800,600,300,1000,400,300,200,800,700,600,500,400,300</v>
       </c>
-      <c r="BE85" s="89" t="str">
+      <c r="BE85" s="82" t="str">
         <f>AO85&amp;BD85&amp;")"</f>
         <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000138',1000,1500,800,600,300,1000,400,300,200,800,700,600,500,400,300)</v>
       </c>
     </row>
     <row r="86" spans="1:60">
-      <c r="B86" s="80" t="s">
-        <v>335</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="B86" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q86" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R86" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S86" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="T86" s="65" t="str">
+      <c r="D86" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="K86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="L86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="M86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="N86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="O86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="P86" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q86" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="R86" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="S86" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="T86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="U86" s="65" t="str">
+      <c r="U86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="V86" s="65" t="str">
+      <c r="V86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="W86" s="65" t="str">
+      <c r="W86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="X86" s="65" t="str">
+      <c r="X86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="Y86" s="65" t="str">
+      <c r="Y86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="Z86" s="65" t="str">
+      <c r="Z86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AA86" s="65" t="str">
+      <c r="AA86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AB86" s="65" t="str">
+      <c r="AB86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AC86" s="65" t="str">
+      <c r="AC86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AD86" s="65" t="str">
+      <c r="AD86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AE86" s="65" t="str">
+      <c r="AE86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AF86" s="65" t="str">
+      <c r="AF86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AG86" s="65" t="str">
+      <c r="AG86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AH86" s="65" t="str">
+      <c r="AH86" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AI86" s="22">
-        <v>0</v>
-      </c>
-      <c r="AJ86" s="22">
+      <c r="AI86" s="55">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="55">
         <v>0</v>
       </c>
       <c r="AK86" s="2">
         <v>0</v>
       </c>
       <c r="AL86" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="AM86" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AN86" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AO86" t="str">
         <f t="shared" ref="AO86:AO89" si="26">"INSERT INTO TEWSA0W.CT_RETAIL_TMP (" &amp;BC$84&amp; ") VALUES ("</f>
@@ -6049,139 +6058,139 @@
         <f t="shared" ref="BD86:BD89" si="30">BC86&amp;","&amp;(IF(OR(LEN(S86)=0,S86="-"),"NULL",S86))</f>
         <v>'0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
-      <c r="BE86" s="89" t="str">
+      <c r="BE86" s="82" t="str">
         <f>AO86&amp;BD86&amp;")"</f>
         <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000139',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL)</v>
       </c>
     </row>
-    <row r="87" spans="1:60" s="45" customFormat="1">
-      <c r="B87" s="81" t="s">
-        <v>337</v>
-      </c>
-      <c r="C87" s="75">
+    <row r="87" spans="1:60" s="44" customFormat="1">
+      <c r="B87" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" s="69">
         <v>3050</v>
       </c>
-      <c r="D87" s="68"/>
-      <c r="E87" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" s="67">
+      <c r="D87" s="89"/>
+      <c r="E87" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="56">
         <v>1500</v>
       </c>
-      <c r="G87" s="67">
+      <c r="G87" s="56">
         <v>800</v>
       </c>
-      <c r="H87" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="I87" s="67">
+      <c r="H87" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" s="56">
         <v>300</v>
       </c>
-      <c r="J87" s="67">
+      <c r="J87" s="56">
         <v>1000</v>
       </c>
-      <c r="K87" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L87" s="67">
+      <c r="K87" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="L87" s="56">
         <v>300</v>
       </c>
-      <c r="M87" s="67">
+      <c r="M87" s="56">
         <v>200</v>
       </c>
-      <c r="N87" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="O87" s="67">
+      <c r="N87" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="O87" s="56">
         <v>700</v>
       </c>
-      <c r="P87" s="67">
+      <c r="P87" s="56">
         <v>600</v>
       </c>
-      <c r="Q87" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="R87" s="47">
+      <c r="Q87" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="R87" s="55">
         <v>400</v>
       </c>
-      <c r="S87" s="47">
+      <c r="S87" s="55">
         <v>300</v>
       </c>
-      <c r="T87" s="69" t="str">
+      <c r="T87" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="U87" s="69">
+      <c r="U87" s="19">
         <f t="shared" si="24"/>
         <v>1500</v>
       </c>
-      <c r="V87" s="69">
+      <c r="V87" s="19">
         <f t="shared" si="24"/>
         <v>800</v>
       </c>
-      <c r="W87" s="69" t="str">
+      <c r="W87" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="X87" s="69">
+      <c r="X87" s="19">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="Y87" s="69">
+      <c r="Y87" s="19">
         <f t="shared" si="24"/>
         <v>1000</v>
       </c>
-      <c r="Z87" s="69" t="str">
+      <c r="Z87" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AA87" s="69">
+      <c r="AA87" s="19">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="AB87" s="69">
+      <c r="AB87" s="19">
         <f t="shared" si="24"/>
         <v>200</v>
       </c>
-      <c r="AC87" s="69" t="str">
+      <c r="AC87" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AD87" s="69">
+      <c r="AD87" s="19">
         <f t="shared" si="24"/>
         <v>700</v>
       </c>
-      <c r="AE87" s="69">
+      <c r="AE87" s="19">
         <f t="shared" si="24"/>
         <v>600</v>
       </c>
-      <c r="AF87" s="69" t="str">
+      <c r="AF87" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AG87" s="69">
+      <c r="AG87" s="19">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="AH87" s="69">
+      <c r="AH87" s="19">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="AI87" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="AJ87" s="74">
+      <c r="AI87" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ87" s="68">
         <v>3200</v>
       </c>
-      <c r="AK87" s="75">
+      <c r="AK87" s="69">
         <v>2900</v>
       </c>
-      <c r="AL87" s="75">
+      <c r="AL87" s="69">
         <v>3050</v>
       </c>
-      <c r="AM87" s="67"/>
+      <c r="AM87" s="65"/>
       <c r="AN87" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AO87" t="str">
         <f t="shared" si="26"/>
@@ -6247,139 +6256,139 @@
         <f t="shared" si="30"/>
         <v>'0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL,700,600,NULL,400,300</v>
       </c>
-      <c r="BE87" s="89" t="str">
+      <c r="BE87" s="82" t="str">
         <f t="shared" ref="BE87:BE89" si="31">AO87&amp;BD87&amp;")"</f>
         <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000215',NULL,1500,800,NULL,300,1000,NULL,300,200,NULL,700,600,NULL,400,300)</v>
       </c>
     </row>
-    <row r="88" spans="1:60" s="45" customFormat="1">
-      <c r="B88" s="81" t="s">
-        <v>338</v>
-      </c>
-      <c r="C88" s="75">
+    <row r="88" spans="1:60" s="44" customFormat="1">
+      <c r="B88" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" s="69">
         <v>2400</v>
       </c>
-      <c r="D88" s="68"/>
-      <c r="E88" s="67">
+      <c r="D88" s="89"/>
+      <c r="E88" s="56">
         <v>100</v>
       </c>
-      <c r="F88" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="G88" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" s="67">
+      <c r="F88" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H88" s="56">
         <v>600</v>
       </c>
-      <c r="I88" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="J88" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="K88" s="67">
+      <c r="I88" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J88" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="K88" s="56">
         <v>400</v>
       </c>
-      <c r="L88" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="M88" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="N88" s="67">
+      <c r="L88" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="M88" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="N88" s="56">
         <v>800</v>
       </c>
-      <c r="O88" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="P88" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q88" s="47">
+      <c r="O88" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="P88" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q88" s="55">
         <v>500</v>
       </c>
-      <c r="R88" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="S88" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="T88" s="69">
+      <c r="R88" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="S88" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="T88" s="19">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="U88" s="69" t="str">
+      <c r="U88" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="V88" s="69" t="str">
+      <c r="V88" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="W88" s="69">
+      <c r="W88" s="19">
         <f t="shared" si="24"/>
         <v>600</v>
       </c>
-      <c r="X88" s="69" t="str">
+      <c r="X88" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="Y88" s="69" t="str">
+      <c r="Y88" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="Z88" s="69">
+      <c r="Z88" s="19">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="AA88" s="69" t="str">
+      <c r="AA88" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AB88" s="69" t="str">
+      <c r="AB88" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AC88" s="69">
+      <c r="AC88" s="19">
         <f t="shared" si="24"/>
         <v>800</v>
       </c>
-      <c r="AD88" s="69" t="str">
+      <c r="AD88" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AE88" s="69" t="str">
+      <c r="AE88" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AF88" s="69">
+      <c r="AF88" s="19">
         <f t="shared" si="24"/>
         <v>500</v>
       </c>
-      <c r="AG88" s="69" t="str">
+      <c r="AG88" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AH88" s="69" t="str">
+      <c r="AH88" s="19" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="AI88" s="74">
+      <c r="AI88" s="68">
         <v>2400</v>
       </c>
-      <c r="AJ88" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK88" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="AL88" s="75">
+      <c r="AJ88" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK88" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL88" s="69">
         <v>2400</v>
       </c>
-      <c r="AM88" s="67"/>
+      <c r="AM88" s="65"/>
       <c r="AN88" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AO88" t="str">
         <f t="shared" si="26"/>
@@ -6445,140 +6454,140 @@
         <f t="shared" si="30"/>
         <v>'0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL,NULL,800,NULL,NULL,500,NULL,NULL</v>
       </c>
-      <c r="BE88" s="89" t="str">
+      <c r="BE88" s="82" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000216',100,NULL,NULL,600,NULL,NULL,400,NULL,NULL,800,NULL,NULL,500,NULL,NULL)</v>
       </c>
     </row>
-    <row r="89" spans="1:60" s="45" customFormat="1">
-      <c r="B89" s="81" t="s">
-        <v>336</v>
-      </c>
-      <c r="C89" s="67">
+    <row r="89" spans="1:60" s="44" customFormat="1">
+      <c r="B89" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="C89" s="56">
         <f>AVERAGE(SUM(T89,W89,Z89,AC89,AF89),SUM(U89,X89,AA89,AD89,AG89),SUM(V89,Y89,AB89,AE89,AH89))</f>
         <v>2100</v>
       </c>
-      <c r="D89" s="68"/>
-      <c r="E89" s="67">
+      <c r="D89" s="89"/>
+      <c r="E89" s="56">
         <v>1000</v>
       </c>
-      <c r="F89" s="67">
+      <c r="F89" s="56">
         <v>-1500</v>
       </c>
-      <c r="G89" s="67">
+      <c r="G89" s="56">
         <v>800</v>
       </c>
-      <c r="H89" s="67">
+      <c r="H89" s="56">
         <v>-600</v>
       </c>
-      <c r="I89" s="67">
+      <c r="I89" s="56">
         <v>300</v>
       </c>
-      <c r="J89" s="67">
+      <c r="J89" s="56">
         <v>1000</v>
       </c>
-      <c r="K89" s="67">
+      <c r="K89" s="56">
         <v>400</v>
       </c>
-      <c r="L89" s="67">
+      <c r="L89" s="56">
         <v>-300</v>
       </c>
-      <c r="M89" s="67">
+      <c r="M89" s="56">
         <v>200</v>
       </c>
-      <c r="N89" s="67">
+      <c r="N89" s="56">
         <v>800</v>
       </c>
-      <c r="O89" s="67">
+      <c r="O89" s="56">
         <v>-700</v>
       </c>
-      <c r="P89" s="67">
+      <c r="P89" s="56">
         <v>600</v>
       </c>
-      <c r="Q89" s="47">
+      <c r="Q89" s="55">
         <v>500</v>
       </c>
-      <c r="R89" s="47">
+      <c r="R89" s="55">
         <v>400</v>
       </c>
-      <c r="S89" s="47">
+      <c r="S89" s="55">
         <v>300</v>
       </c>
-      <c r="T89" s="69">
+      <c r="T89" s="19">
         <f t="shared" si="24"/>
         <v>1000</v>
       </c>
-      <c r="U89" s="69">
+      <c r="U89" s="19">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="V89" s="69">
+      <c r="V89" s="19">
         <f t="shared" si="24"/>
         <v>800</v>
       </c>
-      <c r="W89" s="69">
+      <c r="W89" s="19">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="X89" s="69">
+      <c r="X89" s="19">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="Y89" s="69">
+      <c r="Y89" s="19">
         <f t="shared" si="24"/>
         <v>1000</v>
       </c>
-      <c r="Z89" s="69">
+      <c r="Z89" s="19">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="AA89" s="69">
+      <c r="AA89" s="19">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB89" s="69">
+      <c r="AB89" s="19">
         <f t="shared" si="24"/>
         <v>200</v>
       </c>
-      <c r="AC89" s="69">
+      <c r="AC89" s="19">
         <f t="shared" si="24"/>
         <v>800</v>
       </c>
-      <c r="AD89" s="69">
+      <c r="AD89" s="19">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AE89" s="69">
+      <c r="AE89" s="19">
         <f t="shared" si="24"/>
         <v>600</v>
       </c>
-      <c r="AF89" s="69">
+      <c r="AF89" s="19">
         <f t="shared" si="24"/>
         <v>500</v>
       </c>
-      <c r="AG89" s="69">
+      <c r="AG89" s="19">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="AH89" s="69">
+      <c r="AH89" s="19">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="AI89" s="73">
+      <c r="AI89" s="67">
         <v>2700</v>
       </c>
-      <c r="AJ89" s="56">
+      <c r="AJ89" s="55">
         <v>700</v>
       </c>
-      <c r="AK89" s="72">
+      <c r="AK89" s="66">
         <v>2900</v>
       </c>
-      <c r="AL89" s="72">
+      <c r="AL89" s="66">
         <v>2100</v>
       </c>
-      <c r="AM89" s="67"/>
-      <c r="AN89" s="57" t="s">
-        <v>192</v>
+      <c r="AM89" s="65"/>
+      <c r="AN89" s="56" t="s">
+        <v>181</v>
       </c>
       <c r="AO89" t="str">
         <f t="shared" si="26"/>
@@ -6644,7 +6653,7 @@
         <f t="shared" si="30"/>
         <v>'0000000000000214',1000,-1500,800,-600,300,1000,400,-300,200,800,-700,600,500,400,300</v>
       </c>
-      <c r="BE89" s="89" t="str">
+      <c r="BE89" s="82" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO TEWSA0W.CT_RETAIL_TMP (SNDG,IMP_SALDO_CC_GT_0_M0,IMP_SALDO_CC_GT_0_M1,IMP_SALDO_CC_GT_0_M2,IMP_VAL_MERC_CD_M0,IMP_VAL_MERC_CD_M1,IMP_VAL_MERC_CD_M2,IMP_SALDO_PCT_M0,IMP_SALDO_PCT_M1,IMP_SALDO_PCT_M2,IMP_SALDO_GPM_M0,IMP_SALDO_GPM_M1,IMP_SALDO_GPM_M2,IMP_SALDO_ASSIC_M0,IMP_SALDO_ASSIC_M1,IMP_SALDO_ASSIC_M2) VALUES ('0000000000000214',1000,-1500,800,-600,300,1000,400,-300,200,800,-700,600,500,400,300)</v>
       </c>
@@ -6652,15 +6661,15 @@
     <row r="90" spans="1:60">
       <c r="V90" s="11"/>
       <c r="BH90" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:60">
-      <c r="B91" s="39"/>
+      <c r="B91" s="38"/>
     </row>
     <row r="92" spans="1:60">
       <c r="A92" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1</v>
@@ -6669,137 +6678,137 @@
         <v>2</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H92" s="36" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:60">
       <c r="A93" s="15"/>
-      <c r="B93" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" s="2">
+      <c r="B93" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="56">
         <f>AVERAGE(E93,F93,G93)</f>
         <v>383.33333333333331</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2">
+      <c r="D93" s="56"/>
+      <c r="E93" s="56">
         <v>300</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="56">
         <v>500</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="56">
         <v>350</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="56">
         <v>383.33333333333331</v>
       </c>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2" t="s">
-        <v>192</v>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:60">
-      <c r="B94" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="C94" s="16" t="s">
+      <c r="B94" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H94" s="16" t="s">
+      <c r="D94" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="G94" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="H94" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>192</v>
+      <c r="I94" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="J94" s="56" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:60">
-      <c r="B95" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="C95" s="16" t="s">
+      <c r="B95" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E95" s="16">
+      <c r="D95" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="71">
         <v>-1000</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="71">
         <v>-500</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G95" s="71">
         <v>400</v>
       </c>
-      <c r="H95" s="16">
+      <c r="H95" s="71">
         <v>-366</v>
       </c>
-      <c r="I95" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>192</v>
+      <c r="I95" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="J95" s="56" t="s">
+        <v>181</v>
       </c>
       <c r="K95" s="11"/>
     </row>
     <row r="96" spans="1:60">
-      <c r="B96" s="81" t="s">
-        <v>312</v>
-      </c>
-      <c r="C96" s="46">
+      <c r="B96" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C96" s="71">
         <f>AVERAGE(E96,F96,G96)</f>
         <v>266.66666666666669</v>
       </c>
-      <c r="D96" s="70"/>
-      <c r="E96" s="46">
+      <c r="D96" s="90"/>
+      <c r="E96" s="71">
         <v>500</v>
       </c>
-      <c r="F96" s="46">
+      <c r="F96" s="71">
         <v>-700</v>
       </c>
-      <c r="G96" s="46">
+      <c r="G96" s="71">
         <v>1000</v>
       </c>
-      <c r="H96" s="16">
+      <c r="H96" s="71">
         <v>266.67</v>
       </c>
-      <c r="I96" s="16"/>
-      <c r="J96" s="2" t="s">
-        <v>192</v>
+      <c r="I96" s="71"/>
+      <c r="J96" s="56" t="s">
+        <v>181</v>
       </c>
       <c r="K96" s="11"/>
     </row>
@@ -6808,7 +6817,7 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1</v>
@@ -6817,73 +6826,73 @@
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E99" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="F99" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="G99" s="86" t="s">
-        <v>147</v>
+        <v>132</v>
+      </c>
+      <c r="E99" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="F99" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="G99" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L99" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M99" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="P99" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Q99" s="36" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="R99" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="S99" s="43" t="s">
-        <v>144</v>
+        <v>131</v>
+      </c>
+      <c r="S99" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="T99" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:20">
-      <c r="B100" s="80" t="s">
-        <v>228</v>
+      <c r="B100" s="74" t="s">
+        <v>217</v>
       </c>
       <c r="C100" s="2">
         <f>K100/L100</f>
         <v>0.40277777777777773</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="87">
+      <c r="E100" s="85">
         <v>-400</v>
       </c>
-      <c r="F100" s="87">
+      <c r="F100" s="85">
         <v>-500</v>
       </c>
-      <c r="G100" s="87">
+      <c r="G100" s="85">
         <v>-550</v>
       </c>
       <c r="H100" s="2">
@@ -6903,15 +6912,15 @@
         <f>AVERAGE(H100,I100,J100)</f>
         <v>1200</v>
       </c>
-      <c r="M100" s="87">
+      <c r="M100" s="80">
         <f>E100*(-1)</f>
         <v>400</v>
       </c>
-      <c r="N100" s="87">
+      <c r="N100" s="80">
         <f>F100*(-1)</f>
         <v>500</v>
       </c>
-      <c r="O100" s="87">
+      <c r="O100" s="80">
         <f>G100*(-1)</f>
         <v>550</v>
       </c>
@@ -6924,31 +6933,31 @@
       <c r="R100" s="2">
         <v>0.40279999999999999</v>
       </c>
-      <c r="S100" s="40"/>
+      <c r="S100" s="39"/>
       <c r="T100" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:20">
-      <c r="B101" s="80" t="s">
-        <v>229</v>
+      <c r="B101" s="74" t="s">
+        <v>218</v>
       </c>
       <c r="C101" s="2">
         <f>K101/L101</f>
         <v>0.375</v>
       </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="87">
+      <c r="E101" s="85">
         <v>-300</v>
       </c>
-      <c r="F101" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="G101" s="87">
+      <c r="F101" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G101" s="85">
         <v>-450</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I101" s="2">
         <v>1000</v>
@@ -6964,14 +6973,14 @@
         <f>AVERAGE(H101,I101,J101)</f>
         <v>1000</v>
       </c>
-      <c r="M101" s="87">
+      <c r="M101" s="80">
         <f t="shared" ref="M101" si="32">E101*(-1)</f>
         <v>300</v>
       </c>
-      <c r="N101" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="O101" s="87">
+      <c r="N101" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="O101" s="80">
         <f t="shared" ref="O101:O103" si="33">G101*(-1)</f>
         <v>450</v>
       </c>
@@ -6984,88 +6993,87 @@
       <c r="R101" s="2">
         <v>0.375</v>
       </c>
-      <c r="S101" s="40"/>
+      <c r="S101" s="39"/>
       <c r="T101" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:20">
-      <c r="A102" s="85"/>
-      <c r="B102" s="80" t="s">
-        <v>230</v>
+      <c r="B102" s="74" t="s">
+        <v>219</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="E102" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G102" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L102" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M102" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N102" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O102" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R102" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S102" s="40" t="s">
-        <v>139</v>
+        <v>182</v>
+      </c>
+      <c r="S102" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:20" s="15" customFormat="1">
-      <c r="B103" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="C103" s="90">
+      <c r="B103" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="87">
         <v>999999</v>
       </c>
-      <c r="D103" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="E103" s="92">
+      <c r="D103" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="85">
         <v>-500</v>
       </c>
-      <c r="F103" s="87">
+      <c r="F103" s="85">
         <v>-200</v>
       </c>
-      <c r="G103" s="87">
+      <c r="G103" s="85">
         <v>300</v>
       </c>
       <c r="H103" s="27">
@@ -7085,15 +7093,15 @@
         <f t="shared" ref="L103:L112" si="34">AVERAGE(H103,I103,J103)</f>
         <v>0</v>
       </c>
-      <c r="M103" s="87">
+      <c r="M103" s="80">
         <f>E103*(-1)</f>
         <v>500</v>
       </c>
-      <c r="N103" s="87">
+      <c r="N103" s="80">
         <f t="shared" ref="N103" si="35">F103*(-1)</f>
         <v>200</v>
       </c>
-      <c r="O103" s="87">
+      <c r="O103" s="80">
         <f t="shared" si="33"/>
         <v>-300</v>
       </c>
@@ -7106,28 +7114,28 @@
       <c r="R103" s="37">
         <v>999999</v>
       </c>
-      <c r="S103" s="42" t="s">
-        <v>151</v>
+      <c r="S103" s="41" t="s">
+        <v>140</v>
       </c>
       <c r="T103" s="2"/>
     </row>
     <row r="104" spans="1:20">
-      <c r="B104" s="80" t="s">
-        <v>232</v>
+      <c r="B104" s="74" t="s">
+        <v>221</v>
       </c>
       <c r="C104" s="22">
         <v>1000000</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" s="87">
+        <v>141</v>
+      </c>
+      <c r="E104" s="85">
         <v>-250</v>
       </c>
-      <c r="F104" s="87">
+      <c r="F104" s="85">
         <v>-250</v>
       </c>
-      <c r="G104" s="87">
+      <c r="G104" s="85">
         <v>-250</v>
       </c>
       <c r="H104" s="26">
@@ -7147,15 +7155,15 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M104" s="87">
+      <c r="M104" s="80">
         <f>E104*(-1)</f>
         <v>250</v>
       </c>
-      <c r="N104" s="87">
+      <c r="N104" s="80">
         <f t="shared" ref="N104" si="36">F104*(-1)</f>
         <v>250</v>
       </c>
-      <c r="O104" s="87">
+      <c r="O104" s="80">
         <f t="shared" ref="O104" si="37">G104*(-1)</f>
         <v>250</v>
       </c>
@@ -7168,57 +7176,57 @@
       <c r="R104" s="37">
         <v>1000000</v>
       </c>
-      <c r="S104" s="40" t="s">
-        <v>152</v>
+      <c r="S104" s="39" t="s">
+        <v>141</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:20">
-      <c r="B105" s="80" t="s">
-        <v>233</v>
+      <c r="B105" s="74" t="s">
+        <v>222</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E105" s="87">
+        <v>142</v>
+      </c>
+      <c r="E105" s="85">
         <v>-100</v>
       </c>
-      <c r="F105" s="87">
+      <c r="F105" s="85">
         <v>-200</v>
       </c>
-      <c r="G105" s="87">
+      <c r="G105" s="85">
         <v>-300</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I105" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105" s="16">
         <f>AVERAGE(M105,N105,O105)</f>
         <v>200</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M105" s="87">
+        <v>47</v>
+      </c>
+      <c r="M105" s="80">
         <f>E105*(-1)</f>
         <v>100</v>
       </c>
-      <c r="N105" s="87">
+      <c r="N105" s="80">
         <f t="shared" ref="N105" si="38">F105*(-1)</f>
         <v>200</v>
       </c>
-      <c r="O105" s="87">
+      <c r="O105" s="80">
         <f t="shared" ref="O105" si="39">G105*(-1)</f>
         <v>300</v>
       </c>
@@ -7226,36 +7234,36 @@
         <v>200</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S105" s="40" t="s">
-        <v>153</v>
+        <v>182</v>
+      </c>
+      <c r="S105" s="39" t="s">
+        <v>142</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:20">
-      <c r="B106" s="80" t="s">
-        <v>234</v>
+      <c r="B106" s="74" t="s">
+        <v>223</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
+      </c>
+      <c r="E106" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G106" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="H106" s="26">
         <v>2500</v>
@@ -7267,54 +7275,54 @@
         <v>2500</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L106" s="16">
         <f t="shared" si="34"/>
         <v>2500</v>
       </c>
       <c r="M106" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N106" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O106" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q106" s="37">
         <v>2500</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S106" s="40" t="s">
-        <v>154</v>
+        <v>182</v>
+      </c>
+      <c r="S106" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:20">
-      <c r="B107" s="80" t="s">
-        <v>235</v>
+      <c r="B107" s="74" t="s">
+        <v>224</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E107" s="87">
+        <v>129</v>
+      </c>
+      <c r="E107" s="85">
         <v>-500</v>
       </c>
-      <c r="F107" s="87">
+      <c r="F107" s="85">
         <v>600</v>
       </c>
-      <c r="G107" s="87">
+      <c r="G107" s="85">
         <v>200</v>
       </c>
       <c r="H107" s="26">
@@ -7334,15 +7342,15 @@
         <f t="shared" si="34"/>
         <v>1300</v>
       </c>
-      <c r="M107" s="87">
+      <c r="M107" s="80">
         <f t="shared" ref="M107" si="41">E107*(-1)</f>
         <v>500</v>
       </c>
-      <c r="N107" s="87">
+      <c r="N107" s="80">
         <f t="shared" ref="N107" si="42">F107*(-1)</f>
         <v>-600</v>
       </c>
-      <c r="O107" s="87">
+      <c r="O107" s="80">
         <f t="shared" ref="O107" si="43">G107*(-1)</f>
         <v>-200</v>
       </c>
@@ -7353,32 +7361,32 @@
         <v>1300</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S107" s="40" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="S107" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:20">
-      <c r="B108" s="80" t="s">
-        <v>236</v>
+      <c r="B108" s="74" t="s">
+        <v>225</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" s="87">
+        <v>129</v>
+      </c>
+      <c r="E108" s="85">
         <v>-500</v>
       </c>
-      <c r="F108" s="87">
+      <c r="F108" s="85">
         <v>600</v>
       </c>
-      <c r="G108" s="87">
+      <c r="G108" s="85">
         <v>200</v>
       </c>
       <c r="H108" s="26">
@@ -7398,15 +7406,15 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M108" s="87">
+      <c r="M108" s="80">
         <f t="shared" ref="M108" si="44">E108*(-1)</f>
         <v>500</v>
       </c>
-      <c r="N108" s="87">
+      <c r="N108" s="80">
         <f t="shared" ref="N108" si="45">F108*(-1)</f>
         <v>-600</v>
       </c>
-      <c r="O108" s="87">
+      <c r="O108" s="80">
         <f t="shared" ref="O108" si="46">G108*(-1)</f>
         <v>-200</v>
       </c>
@@ -7417,32 +7425,32 @@
         <v>0</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S108" s="40" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="S108" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:20">
-      <c r="B109" s="80" t="s">
-        <v>237</v>
+      <c r="B109" s="74" t="s">
+        <v>226</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E109" s="87">
+        <v>285</v>
+      </c>
+      <c r="E109" s="85">
         <v>-500</v>
       </c>
-      <c r="F109" s="87">
+      <c r="F109" s="85">
         <v>600</v>
       </c>
-      <c r="G109" s="87">
+      <c r="G109" s="85">
         <v>200</v>
       </c>
       <c r="H109" s="26">
@@ -7462,15 +7470,15 @@
         <f t="shared" si="34"/>
         <v>-800</v>
       </c>
-      <c r="M109" s="87">
+      <c r="M109" s="80">
         <f t="shared" ref="M109" si="47">E109*(-1)</f>
         <v>500</v>
       </c>
-      <c r="N109" s="87">
+      <c r="N109" s="80">
         <f t="shared" ref="N109" si="48">F109*(-1)</f>
         <v>-600</v>
       </c>
-      <c r="O109" s="87">
+      <c r="O109" s="80">
         <f t="shared" ref="O109" si="49">G109*(-1)</f>
         <v>-200</v>
       </c>
@@ -7481,32 +7489,32 @@
         <v>-800</v>
       </c>
       <c r="R109" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S109" s="40" t="s">
-        <v>296</v>
+        <v>182</v>
+      </c>
+      <c r="S109" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:20">
-      <c r="B110" s="80" t="s">
-        <v>238</v>
+      <c r="B110" s="74" t="s">
+        <v>227</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E110" s="87">
+        <v>144</v>
+      </c>
+      <c r="E110" s="85">
         <v>-250</v>
       </c>
-      <c r="F110" s="87">
+      <c r="F110" s="85">
         <v>-350</v>
       </c>
-      <c r="G110" s="87">
+      <c r="G110" s="85">
         <v>-450</v>
       </c>
       <c r="H110" s="26">
@@ -7526,15 +7534,15 @@
         <f t="shared" si="34"/>
         <v>-1200</v>
       </c>
-      <c r="M110" s="87">
+      <c r="M110" s="80">
         <f t="shared" ref="M110:M112" si="50">E110*(-1)</f>
         <v>250</v>
       </c>
-      <c r="N110" s="87">
+      <c r="N110" s="80">
         <f t="shared" ref="N110:N112" si="51">F110*(-1)</f>
         <v>350</v>
       </c>
-      <c r="O110" s="87">
+      <c r="O110" s="80">
         <f t="shared" ref="O110:O112" si="52">G110*(-1)</f>
         <v>450</v>
       </c>
@@ -7545,32 +7553,32 @@
         <v>-1200</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S110" s="40" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="S110" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:20">
-      <c r="B111" s="80" t="s">
-        <v>239</v>
+      <c r="B111" s="74" t="s">
+        <v>228</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" s="87">
-        <v>0</v>
-      </c>
-      <c r="F111" s="87">
-        <v>0</v>
-      </c>
-      <c r="G111" s="87">
+        <v>144</v>
+      </c>
+      <c r="E111" s="85">
+        <v>0</v>
+      </c>
+      <c r="F111" s="85">
+        <v>0</v>
+      </c>
+      <c r="G111" s="85">
         <v>0</v>
       </c>
       <c r="H111" s="26">
@@ -7590,15 +7598,15 @@
         <f t="shared" si="34"/>
         <v>-1000</v>
       </c>
-      <c r="M111" s="87">
+      <c r="M111" s="80">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="N111" s="87">
+      <c r="N111" s="80">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="O111" s="87">
+      <c r="O111" s="80">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
@@ -7609,32 +7617,32 @@
         <v>-1000</v>
       </c>
       <c r="R111" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S111" s="40" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="S111" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:20">
-      <c r="B112" s="80" t="s">
-        <v>240</v>
+      <c r="B112" s="74" t="s">
+        <v>229</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E112" s="87">
+        <v>285</v>
+      </c>
+      <c r="E112" s="85">
         <v>200</v>
       </c>
-      <c r="F112" s="87">
+      <c r="F112" s="85">
         <v>200</v>
       </c>
-      <c r="G112" s="87">
+      <c r="G112" s="85">
         <v>200</v>
       </c>
       <c r="H112" s="2">
@@ -7654,15 +7662,15 @@
         <f t="shared" si="34"/>
         <v>-700</v>
       </c>
-      <c r="M112" s="87">
+      <c r="M112" s="80">
         <f t="shared" si="50"/>
         <v>-200</v>
       </c>
-      <c r="N112" s="87">
+      <c r="N112" s="80">
         <f t="shared" si="51"/>
         <v>-200</v>
       </c>
-      <c r="O112" s="87">
+      <c r="O112" s="80">
         <f t="shared" si="52"/>
         <v>-200</v>
       </c>
@@ -7673,21 +7681,21 @@
         <v>-700</v>
       </c>
       <c r="R112" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S112" s="40" t="s">
-        <v>296</v>
+        <v>182</v>
+      </c>
+      <c r="S112" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:20">
-      <c r="B114" s="39"/>
+      <c r="B114" s="38"/>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
@@ -7696,74 +7704,74 @@
         <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L115" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M115" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="P115" s="36" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="Q115" s="36" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="R115" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="S115" s="43" t="s">
-        <v>186</v>
+        <v>130</v>
+      </c>
+      <c r="S115" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="T115" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:20">
-      <c r="A116" s="55"/>
-      <c r="B116" s="80" t="s">
-        <v>256</v>
+      <c r="A116" s="54"/>
+      <c r="B116" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="C116" s="2">
         <f>K116/L116</f>
         <v>0.39473684210526311</v>
       </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="87">
+      <c r="E116" s="85">
         <v>-250</v>
       </c>
-      <c r="F116" s="87">
+      <c r="F116" s="85">
         <v>-250</v>
       </c>
-      <c r="G116" s="87">
+      <c r="G116" s="85">
         <v>-250</v>
       </c>
       <c r="H116" s="2">
@@ -7783,15 +7791,15 @@
         <f>AVERAGE(H116,I116,J116)</f>
         <v>633.33333333333337</v>
       </c>
-      <c r="M116" s="87">
+      <c r="M116" s="80">
         <f>E116*(-1)</f>
         <v>250</v>
       </c>
-      <c r="N116" s="87">
+      <c r="N116" s="80">
         <f t="shared" ref="N116:O116" si="53">F116*(-1)</f>
         <v>250</v>
       </c>
-      <c r="O116" s="87">
+      <c r="O116" s="80">
         <f t="shared" si="53"/>
         <v>250</v>
       </c>
@@ -7804,28 +7812,28 @@
       <c r="R116" s="2">
         <v>0.3947</v>
       </c>
-      <c r="S116" s="40"/>
+      <c r="S116" s="39"/>
       <c r="T116" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:20">
-      <c r="B117" s="80" t="s">
-        <v>257</v>
+      <c r="B117" s="74" t="s">
+        <v>246</v>
       </c>
       <c r="C117" s="2">
         <f>K117/L117</f>
         <v>0.2</v>
       </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="87">
+      <c r="E117" s="85">
         <v>-100</v>
       </c>
-      <c r="F117" s="87">
+      <c r="F117" s="85">
         <v>-100</v>
       </c>
-      <c r="G117" s="87" t="s">
-        <v>48</v>
+      <c r="G117" s="85" t="s">
+        <v>47</v>
       </c>
       <c r="H117" s="2">
         <v>500</v>
@@ -7834,7 +7842,7 @@
         <v>500</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K117" s="16">
         <f>AVERAGE(M117,N117,O117)</f>
@@ -7844,16 +7852,16 @@
         <f>AVERAGE(H117,I117,J117)</f>
         <v>500</v>
       </c>
-      <c r="M117" s="87">
+      <c r="M117" s="80">
         <f>E117*(-1)</f>
         <v>100</v>
       </c>
-      <c r="N117" s="87">
+      <c r="N117" s="80">
         <f t="shared" ref="N117" si="54">F117*(-1)</f>
         <v>100</v>
       </c>
-      <c r="O117" s="87" t="s">
-        <v>48</v>
+      <c r="O117" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="P117" s="2">
         <v>100</v>
@@ -7864,87 +7872,87 @@
       <c r="R117" s="2">
         <v>0.2</v>
       </c>
-      <c r="S117" s="40"/>
+      <c r="S117" s="39"/>
       <c r="T117" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:20">
-      <c r="B118" s="80" t="s">
-        <v>258</v>
+      <c r="B118" s="74" t="s">
+        <v>247</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="E118" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G118" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K118" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L118" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M118" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N118" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O118" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R118" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S118" s="40" t="s">
-        <v>139</v>
+        <v>182</v>
+      </c>
+      <c r="S118" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:20">
-      <c r="B119" s="80" t="s">
-        <v>259</v>
+      <c r="B119" s="74" t="s">
+        <v>248</v>
       </c>
       <c r="C119" s="22">
         <v>999999</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E119" s="87">
+        <v>140</v>
+      </c>
+      <c r="E119" s="85">
         <v>500</v>
       </c>
-      <c r="F119" s="87">
+      <c r="F119" s="85">
         <v>-300</v>
       </c>
-      <c r="G119" s="87">
+      <c r="G119" s="85">
         <v>-200</v>
       </c>
       <c r="H119" s="2">
@@ -7964,15 +7972,15 @@
         <f t="shared" ref="L119:L120" si="55">AVERAGE(H119,I119,J119)</f>
         <v>0</v>
       </c>
-      <c r="M119" s="87">
+      <c r="M119" s="80">
         <f>E119*(-1)</f>
         <v>-500</v>
       </c>
-      <c r="N119" s="87">
+      <c r="N119" s="80">
         <f t="shared" ref="N119:O119" si="56">F119*(-1)</f>
         <v>300</v>
       </c>
-      <c r="O119" s="87">
+      <c r="O119" s="80">
         <f t="shared" si="56"/>
         <v>200</v>
       </c>
@@ -7985,30 +7993,30 @@
       <c r="R119" s="37">
         <v>999999</v>
       </c>
-      <c r="S119" s="40" t="s">
-        <v>151</v>
+      <c r="S119" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:20" s="15" customFormat="1">
-      <c r="B120" s="80" t="s">
-        <v>260</v>
+      <c r="B120" s="74" t="s">
+        <v>249</v>
       </c>
       <c r="C120" s="22">
         <v>1000000</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E120" s="87">
+        <v>141</v>
+      </c>
+      <c r="E120" s="85">
         <v>-200</v>
       </c>
-      <c r="F120" s="87">
+      <c r="F120" s="85">
         <v>-200</v>
       </c>
-      <c r="G120" s="87">
+      <c r="G120" s="85">
         <v>-200</v>
       </c>
       <c r="H120" s="2">
@@ -8028,15 +8036,15 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="M120" s="87">
+      <c r="M120" s="80">
         <f>E120*(-1)</f>
         <v>200</v>
       </c>
-      <c r="N120" s="87">
+      <c r="N120" s="80">
         <f t="shared" ref="N120" si="57">F120*(-1)</f>
         <v>200</v>
       </c>
-      <c r="O120" s="87">
+      <c r="O120" s="80">
         <f t="shared" ref="O120" si="58">G120*(-1)</f>
         <v>200</v>
       </c>
@@ -8049,57 +8057,57 @@
       <c r="R120" s="37">
         <v>1000000</v>
       </c>
-      <c r="S120" s="42" t="s">
-        <v>152</v>
+      <c r="S120" s="41" t="s">
+        <v>141</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:20">
-      <c r="B121" s="80" t="s">
-        <v>261</v>
+      <c r="B121" s="74" t="s">
+        <v>250</v>
       </c>
       <c r="C121" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E121" s="87">
+        <v>142</v>
+      </c>
+      <c r="E121" s="85">
         <v>-350</v>
       </c>
-      <c r="F121" s="87">
+      <c r="F121" s="85">
         <v>-300</v>
       </c>
-      <c r="G121" s="87">
+      <c r="G121" s="85">
         <v>-250</v>
       </c>
       <c r="H121" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I121" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J121" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121" s="16">
         <f>AVERAGE(M121,N121,O121)</f>
         <v>300</v>
       </c>
       <c r="L121" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M121" s="87">
+        <v>47</v>
+      </c>
+      <c r="M121" s="80">
         <f>E121*(-1)</f>
         <v>350</v>
       </c>
-      <c r="N121" s="87">
+      <c r="N121" s="80">
         <f t="shared" ref="N121" si="59">F121*(-1)</f>
         <v>300</v>
       </c>
-      <c r="O121" s="87">
+      <c r="O121" s="80">
         <f t="shared" ref="O121" si="60">G121*(-1)</f>
         <v>250</v>
       </c>
@@ -8107,36 +8115,36 @@
         <v>300</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R121" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S121" s="40" t="s">
-        <v>153</v>
+        <v>182</v>
+      </c>
+      <c r="S121" s="39" t="s">
+        <v>142</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:20">
-      <c r="B122" s="80" t="s">
-        <v>262</v>
+      <c r="B122" s="74" t="s">
+        <v>251</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
+      </c>
+      <c r="E122" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F122" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G122" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="H122" s="26">
         <v>250</v>
@@ -8148,54 +8156,54 @@
         <v>700</v>
       </c>
       <c r="K122" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L122" s="16">
         <f>AVERAGE(H122,I122,J122)</f>
         <v>416.66666666666669</v>
       </c>
       <c r="M122" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N122" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O122" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q122" s="2">
         <v>416.67</v>
       </c>
       <c r="R122" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S122" s="40" t="s">
-        <v>154</v>
+        <v>182</v>
+      </c>
+      <c r="S122" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:20">
-      <c r="B123" s="80" t="s">
-        <v>263</v>
+      <c r="B123" s="74" t="s">
+        <v>252</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E123" s="87">
+        <v>129</v>
+      </c>
+      <c r="E123" s="85">
         <v>-250</v>
       </c>
-      <c r="F123" s="87">
+      <c r="F123" s="85">
         <v>500</v>
       </c>
-      <c r="G123" s="87">
+      <c r="G123" s="85">
         <v>100</v>
       </c>
       <c r="H123" s="26">
@@ -8215,15 +8223,15 @@
         <f>AVERAGE(H123,I123,J123)</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="M123" s="87">
+      <c r="M123" s="80">
         <f>E123*(-1)</f>
         <v>250</v>
       </c>
-      <c r="N123" s="87">
+      <c r="N123" s="80">
         <f t="shared" ref="N123" si="61">F123*(-1)</f>
         <v>-500</v>
       </c>
-      <c r="O123" s="87">
+      <c r="O123" s="80">
         <f t="shared" ref="O123" si="62">G123*(-1)</f>
         <v>-100</v>
       </c>
@@ -8234,32 +8242,32 @@
         <v>416.67</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S123" s="40" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="S123" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:20">
-      <c r="B124" s="80" t="s">
-        <v>264</v>
+      <c r="B124" s="74" t="s">
+        <v>253</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E124" s="87">
+        <v>129</v>
+      </c>
+      <c r="E124" s="85">
         <v>-250</v>
       </c>
-      <c r="F124" s="87">
+      <c r="F124" s="85">
         <v>500</v>
       </c>
-      <c r="G124" s="87">
+      <c r="G124" s="85">
         <v>100</v>
       </c>
       <c r="H124" s="26">
@@ -8279,15 +8287,15 @@
         <f>AVERAGE(H124,I124,J124)</f>
         <v>0</v>
       </c>
-      <c r="M124" s="87">
+      <c r="M124" s="80">
         <f>E124*(-1)</f>
         <v>250</v>
       </c>
-      <c r="N124" s="87">
+      <c r="N124" s="80">
         <f t="shared" ref="N124" si="63">F124*(-1)</f>
         <v>-500</v>
       </c>
-      <c r="O124" s="87">
+      <c r="O124" s="80">
         <f t="shared" ref="O124" si="64">G124*(-1)</f>
         <v>-100</v>
       </c>
@@ -8298,32 +8306,32 @@
         <v>0</v>
       </c>
       <c r="R124" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S124" s="40" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="S124" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:20">
-      <c r="B125" s="80" t="s">
-        <v>265</v>
+      <c r="B125" s="74" t="s">
+        <v>254</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E125" s="87">
+        <v>285</v>
+      </c>
+      <c r="E125" s="85">
         <v>-250</v>
       </c>
-      <c r="F125" s="87">
+      <c r="F125" s="85">
         <v>500</v>
       </c>
-      <c r="G125" s="87">
+      <c r="G125" s="85">
         <v>100</v>
       </c>
       <c r="H125" s="26">
@@ -8343,15 +8351,15 @@
         <f>AVERAGE(H125,I125,J125)</f>
         <v>-16.666666666666668</v>
       </c>
-      <c r="M125" s="87">
+      <c r="M125" s="80">
         <f>E125*(-1)</f>
         <v>250</v>
       </c>
-      <c r="N125" s="87">
+      <c r="N125" s="80">
         <f t="shared" ref="N125" si="65">F125*(-1)</f>
         <v>-500</v>
       </c>
-      <c r="O125" s="87">
+      <c r="O125" s="80">
         <f t="shared" ref="O125" si="66">G125*(-1)</f>
         <v>-100</v>
       </c>
@@ -8362,32 +8370,32 @@
         <v>-16.670000000000002</v>
       </c>
       <c r="R125" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S125" s="40" t="s">
-        <v>296</v>
+        <v>182</v>
+      </c>
+      <c r="S125" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:20">
-      <c r="B126" s="80" t="s">
-        <v>266</v>
+      <c r="B126" s="74" t="s">
+        <v>255</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E126" s="87">
+        <v>144</v>
+      </c>
+      <c r="E126" s="85">
         <v>-150</v>
       </c>
-      <c r="F126" s="87">
+      <c r="F126" s="85">
         <v>-150</v>
       </c>
-      <c r="G126" s="87">
+      <c r="G126" s="85">
         <v>-150</v>
       </c>
       <c r="H126" s="26">
@@ -8407,15 +8415,15 @@
         <f>AVERAGE(H126,I126,J126)</f>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M126" s="87">
+      <c r="M126" s="80">
         <f>E126*(-1)</f>
         <v>150</v>
       </c>
-      <c r="N126" s="87">
+      <c r="N126" s="80">
         <f t="shared" ref="N126" si="67">F126*(-1)</f>
         <v>150</v>
       </c>
-      <c r="O126" s="87">
+      <c r="O126" s="80">
         <f t="shared" ref="O126" si="68">G126*(-1)</f>
         <v>150</v>
       </c>
@@ -8426,32 +8434,32 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="R126" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S126" s="40" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="S126" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:20">
-      <c r="B127" s="80" t="s">
-        <v>267</v>
+      <c r="B127" s="74" t="s">
+        <v>256</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E127" s="87">
+        <v>144</v>
+      </c>
+      <c r="E127" s="85">
         <v>200</v>
       </c>
-      <c r="F127" s="87">
+      <c r="F127" s="85">
         <v>-100</v>
       </c>
-      <c r="G127" s="87">
+      <c r="G127" s="85">
         <v>-100</v>
       </c>
       <c r="H127" s="26">
@@ -8471,15 +8479,15 @@
         <f t="shared" ref="L127:L128" si="70">AVERAGE(H127,I127,J127)</f>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M127" s="87">
+      <c r="M127" s="80">
         <f t="shared" ref="M127:M128" si="71">E127*(-1)</f>
         <v>-200</v>
       </c>
-      <c r="N127" s="87">
+      <c r="N127" s="80">
         <f t="shared" ref="N127:N128" si="72">F127*(-1)</f>
         <v>100</v>
       </c>
-      <c r="O127" s="87">
+      <c r="O127" s="80">
         <f t="shared" ref="O127:O128" si="73">G127*(-1)</f>
         <v>100</v>
       </c>
@@ -8490,32 +8498,32 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S127" s="40" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="S127" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:20">
-      <c r="B128" s="80" t="s">
-        <v>319</v>
+      <c r="B128" s="74" t="s">
+        <v>305</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E128" s="87">
+        <v>285</v>
+      </c>
+      <c r="E128" s="85">
         <v>-450</v>
       </c>
-      <c r="F128" s="87">
+      <c r="F128" s="85">
         <v>150</v>
       </c>
-      <c r="G128" s="87">
+      <c r="G128" s="85">
         <v>550</v>
       </c>
       <c r="H128" s="27">
@@ -8535,15 +8543,15 @@
         <f t="shared" si="70"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M128" s="87">
+      <c r="M128" s="80">
         <f t="shared" si="71"/>
         <v>450</v>
       </c>
-      <c r="N128" s="87">
+      <c r="N128" s="80">
         <f t="shared" si="72"/>
         <v>-150</v>
       </c>
-      <c r="O128" s="87">
+      <c r="O128" s="80">
         <f t="shared" si="73"/>
         <v>-550</v>
       </c>
@@ -8556,21 +8564,21 @@
         <v>-305.5555555555556</v>
       </c>
       <c r="R128" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S128" s="42" t="s">
-        <v>296</v>
+        <v>182</v>
+      </c>
+      <c r="S128" s="41" t="s">
+        <v>285</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:20">
-      <c r="B130" s="39"/>
+      <c r="B130" s="38"/>
     </row>
     <row r="131" spans="1:20">
       <c r="A131" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>1</v>
@@ -8579,74 +8587,74 @@
         <v>2</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L131" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L131" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M131" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="P131" s="36" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="Q131" s="36" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="R131" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="S131" s="43" t="s">
-        <v>158</v>
+        <v>145</v>
+      </c>
+      <c r="S131" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="T131" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:20">
-      <c r="A132" s="55"/>
-      <c r="B132" s="80" t="s">
-        <v>243</v>
+      <c r="A132" s="54"/>
+      <c r="B132" s="74" t="s">
+        <v>232</v>
       </c>
       <c r="C132" s="2">
         <f>K132/L132</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="D132" s="9"/>
-      <c r="E132" s="87">
+      <c r="E132" s="85">
         <v>-340</v>
       </c>
-      <c r="F132" s="87">
+      <c r="F132" s="85">
         <v>-570</v>
       </c>
-      <c r="G132" s="87">
+      <c r="G132" s="85">
         <v>-340</v>
       </c>
       <c r="H132" s="2">
@@ -8666,15 +8674,15 @@
         <f>AVERAGE(H132,I132,J132)</f>
         <v>1000</v>
       </c>
-      <c r="M132" s="87">
+      <c r="M132" s="80">
         <f>E132*(-1)</f>
         <v>340</v>
       </c>
-      <c r="N132" s="87">
+      <c r="N132" s="80">
         <f t="shared" ref="N132" si="74">F132*(-1)</f>
         <v>570</v>
       </c>
-      <c r="O132" s="87">
+      <c r="O132" s="80">
         <f t="shared" ref="O132" si="75">G132*(-1)</f>
         <v>340</v>
       </c>
@@ -8687,31 +8695,31 @@
       <c r="R132" s="2">
         <v>0.41670000000000001</v>
       </c>
-      <c r="S132" s="40"/>
+      <c r="S132" s="39"/>
       <c r="T132" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:20">
-      <c r="B133" s="80" t="s">
-        <v>244</v>
+      <c r="B133" s="74" t="s">
+        <v>233</v>
       </c>
       <c r="C133" s="2">
         <f>K133/L133</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F133" s="87">
+      <c r="E133" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="F133" s="85">
         <v>-300</v>
       </c>
-      <c r="G133" s="87">
+      <c r="G133" s="85">
         <v>-300</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I133" s="2">
         <v>1300</v>
@@ -8727,14 +8735,14 @@
         <f>AVERAGE(H133,I133,J133)</f>
         <v>1300</v>
       </c>
-      <c r="M133" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="N133" s="87">
+      <c r="M133" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="N133" s="80">
         <f t="shared" ref="N133" si="76">F133*(-1)</f>
         <v>300</v>
       </c>
-      <c r="O133" s="87">
+      <c r="O133" s="80">
         <f t="shared" ref="O133" si="77">G133*(-1)</f>
         <v>300</v>
       </c>
@@ -8747,87 +8755,87 @@
       <c r="R133" s="2">
         <v>0.23080000000000001</v>
       </c>
-      <c r="S133" s="40"/>
+      <c r="S133" s="39"/>
       <c r="T133" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:20">
-      <c r="B134" s="80" t="s">
-        <v>245</v>
+      <c r="B134" s="74" t="s">
+        <v>234</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="E134" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G134" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M134" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N134" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O134" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q134" s="29" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S134" s="40" t="s">
-        <v>139</v>
+        <v>182</v>
+      </c>
+      <c r="S134" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:20">
-      <c r="B135" s="80" t="s">
-        <v>246</v>
+      <c r="B135" s="74" t="s">
+        <v>235</v>
       </c>
       <c r="C135" s="22">
         <v>999999</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E135" s="87">
+        <v>140</v>
+      </c>
+      <c r="E135" s="85">
         <v>200</v>
       </c>
-      <c r="F135" s="87">
+      <c r="F135" s="85">
         <v>-350</v>
       </c>
-      <c r="G135" s="87">
+      <c r="G135" s="85">
         <v>150</v>
       </c>
       <c r="H135" s="2">
@@ -8847,15 +8855,15 @@
         <f t="shared" ref="L135:L144" si="78">AVERAGE(H135,I135,J135)</f>
         <v>0</v>
       </c>
-      <c r="M135" s="87">
+      <c r="M135" s="80">
         <f>E135*(-1)</f>
         <v>-200</v>
       </c>
-      <c r="N135" s="87">
+      <c r="N135" s="80">
         <f t="shared" ref="N135:N137" si="79">F135*(-1)</f>
         <v>350</v>
       </c>
-      <c r="O135" s="87">
+      <c r="O135" s="80">
         <f t="shared" ref="O135:O137" si="80">G135*(-1)</f>
         <v>-150</v>
       </c>
@@ -8868,30 +8876,30 @@
       <c r="R135" s="37">
         <v>999999</v>
       </c>
-      <c r="S135" s="40" t="s">
-        <v>151</v>
+      <c r="S135" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:20">
-      <c r="B136" s="80" t="s">
-        <v>247</v>
+      <c r="B136" s="74" t="s">
+        <v>236</v>
       </c>
       <c r="C136" s="22">
         <v>1000000</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E136" s="87">
+        <v>141</v>
+      </c>
+      <c r="E136" s="85">
         <v>-200</v>
       </c>
-      <c r="F136" s="87">
+      <c r="F136" s="85">
         <v>-200</v>
       </c>
-      <c r="G136" s="87">
+      <c r="G136" s="85">
         <v>-200</v>
       </c>
       <c r="H136" s="2">
@@ -8911,15 +8919,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="M136" s="87">
+      <c r="M136" s="80">
         <f>E136*(-1)</f>
         <v>200</v>
       </c>
-      <c r="N136" s="87">
+      <c r="N136" s="80">
         <f t="shared" si="79"/>
         <v>200</v>
       </c>
-      <c r="O136" s="87">
+      <c r="O136" s="80">
         <f t="shared" si="80"/>
         <v>200</v>
       </c>
@@ -8932,57 +8940,57 @@
       <c r="R136" s="37">
         <v>1000000</v>
       </c>
-      <c r="S136" s="40" t="s">
-        <v>152</v>
+      <c r="S136" s="39" t="s">
+        <v>141</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:20">
-      <c r="B137" s="80" t="s">
-        <v>248</v>
+      <c r="B137" s="74" t="s">
+        <v>237</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E137" s="87">
+        <v>142</v>
+      </c>
+      <c r="E137" s="85">
         <v>-300</v>
       </c>
-      <c r="F137" s="87">
+      <c r="F137" s="85">
         <v>-300</v>
       </c>
-      <c r="G137" s="87">
+      <c r="G137" s="85">
         <v>-300</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K137" s="2">
         <f>AVERAGE(M137,N137,O137)</f>
         <v>300</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M137" s="87">
+        <v>47</v>
+      </c>
+      <c r="M137" s="80">
         <f>E137*(-1)</f>
         <v>300</v>
       </c>
-      <c r="N137" s="87">
+      <c r="N137" s="80">
         <f t="shared" si="79"/>
         <v>300</v>
       </c>
-      <c r="O137" s="87">
+      <c r="O137" s="80">
         <f t="shared" si="80"/>
         <v>300</v>
       </c>
@@ -8990,36 +8998,36 @@
         <v>300</v>
       </c>
       <c r="Q137" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R137" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S137" s="40" t="s">
-        <v>153</v>
+        <v>182</v>
+      </c>
+      <c r="S137" s="39" t="s">
+        <v>142</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:20">
-      <c r="B138" s="80" t="s">
-        <v>249</v>
+      <c r="B138" s="74" t="s">
+        <v>238</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
+      </c>
+      <c r="E138" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G138" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="H138" s="2">
         <v>1500</v>
@@ -9031,54 +9039,54 @@
         <v>1500</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L138" s="2">
         <f t="shared" si="78"/>
         <v>1500</v>
       </c>
       <c r="M138" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N138" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O138" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q138" s="37">
         <v>1500</v>
       </c>
       <c r="R138" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S138" s="40" t="s">
-        <v>154</v>
+        <v>182</v>
+      </c>
+      <c r="S138" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:20">
-      <c r="B139" s="80" t="s">
-        <v>250</v>
+      <c r="B139" s="74" t="s">
+        <v>239</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E139" s="87">
+        <v>129</v>
+      </c>
+      <c r="E139" s="85">
         <v>-200</v>
       </c>
-      <c r="F139" s="87">
+      <c r="F139" s="85">
         <v>-200</v>
       </c>
-      <c r="G139" s="87">
+      <c r="G139" s="85">
         <v>500</v>
       </c>
       <c r="H139" s="2">
@@ -9098,15 +9106,15 @@
         <f t="shared" si="78"/>
         <v>700</v>
       </c>
-      <c r="M139" s="87">
+      <c r="M139" s="80">
         <f>E139*(-1)</f>
         <v>200</v>
       </c>
-      <c r="N139" s="87">
+      <c r="N139" s="80">
         <f t="shared" ref="N139:N144" si="81">F139*(-1)</f>
         <v>200</v>
       </c>
-      <c r="O139" s="87">
+      <c r="O139" s="80">
         <f t="shared" ref="O139:O144" si="82">G139*(-1)</f>
         <v>-500</v>
       </c>
@@ -9117,32 +9125,32 @@
         <v>700</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S139" s="40" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="S139" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:20">
-      <c r="B140" s="80" t="s">
-        <v>251</v>
+      <c r="B140" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E140" s="87">
+        <v>129</v>
+      </c>
+      <c r="E140" s="85">
         <v>-200</v>
       </c>
-      <c r="F140" s="87">
+      <c r="F140" s="85">
         <v>-200</v>
       </c>
-      <c r="G140" s="87">
+      <c r="G140" s="85">
         <v>500</v>
       </c>
       <c r="H140" s="2">
@@ -9162,15 +9170,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="M140" s="87">
+      <c r="M140" s="80">
         <f>E140*(-1)</f>
         <v>200</v>
       </c>
-      <c r="N140" s="87">
+      <c r="N140" s="80">
         <f t="shared" si="81"/>
         <v>200</v>
       </c>
-      <c r="O140" s="87">
+      <c r="O140" s="80">
         <f t="shared" si="82"/>
         <v>-500</v>
       </c>
@@ -9181,32 +9189,32 @@
         <v>0</v>
       </c>
       <c r="R140" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S140" s="40" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="S140" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:20">
-      <c r="B141" s="80" t="s">
-        <v>252</v>
+      <c r="B141" s="74" t="s">
+        <v>241</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E141" s="87">
+        <v>285</v>
+      </c>
+      <c r="E141" s="85">
         <v>-200</v>
       </c>
-      <c r="F141" s="87">
+      <c r="F141" s="85">
         <v>-100</v>
       </c>
-      <c r="G141" s="87">
+      <c r="G141" s="85">
         <v>500</v>
       </c>
       <c r="H141" s="2">
@@ -9226,15 +9234,15 @@
         <f t="shared" si="78"/>
         <v>-800</v>
       </c>
-      <c r="M141" s="87">
+      <c r="M141" s="80">
         <f>E141*(-1)</f>
         <v>200</v>
       </c>
-      <c r="N141" s="87">
+      <c r="N141" s="80">
         <f t="shared" si="81"/>
         <v>100</v>
       </c>
-      <c r="O141" s="87">
+      <c r="O141" s="80">
         <f t="shared" si="82"/>
         <v>-500</v>
       </c>
@@ -9245,32 +9253,32 @@
         <v>-800</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S141" s="40" t="s">
-        <v>296</v>
+        <v>182</v>
+      </c>
+      <c r="S141" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="T141" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:20">
-      <c r="B142" s="80" t="s">
-        <v>253</v>
+      <c r="B142" s="74" t="s">
+        <v>242</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E142" s="87">
+        <v>144</v>
+      </c>
+      <c r="E142" s="85">
         <v>-100</v>
       </c>
-      <c r="F142" s="87">
+      <c r="F142" s="85">
         <v>-100</v>
       </c>
-      <c r="G142" s="87">
+      <c r="G142" s="85">
         <v>-100</v>
       </c>
       <c r="H142" s="2">
@@ -9290,15 +9298,15 @@
         <f t="shared" si="78"/>
         <v>-500</v>
       </c>
-      <c r="M142" s="87">
+      <c r="M142" s="80">
         <f>E142*(-1)</f>
         <v>100</v>
       </c>
-      <c r="N142" s="87">
+      <c r="N142" s="80">
         <f t="shared" si="81"/>
         <v>100</v>
       </c>
-      <c r="O142" s="87">
+      <c r="O142" s="80">
         <f t="shared" si="82"/>
         <v>100</v>
       </c>
@@ -9309,32 +9317,32 @@
         <v>-500</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S142" s="40" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="S142" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:20">
-      <c r="B143" s="80" t="s">
-        <v>320</v>
+      <c r="B143" s="74" t="s">
+        <v>306</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E143" s="87">
+        <v>144</v>
+      </c>
+      <c r="E143" s="85">
         <v>300</v>
       </c>
-      <c r="F143" s="87">
+      <c r="F143" s="85">
         <v>-300</v>
       </c>
-      <c r="G143" s="87">
+      <c r="G143" s="85">
         <v>0</v>
       </c>
       <c r="H143" s="2">
@@ -9354,15 +9362,15 @@
         <f t="shared" si="78"/>
         <v>-200</v>
       </c>
-      <c r="M143" s="87">
+      <c r="M143" s="80">
         <f t="shared" ref="M143:M144" si="84">E143*(-1)</f>
         <v>-300</v>
       </c>
-      <c r="N143" s="87">
+      <c r="N143" s="80">
         <f t="shared" si="81"/>
         <v>300</v>
       </c>
-      <c r="O143" s="87">
+      <c r="O143" s="80">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
@@ -9373,32 +9381,32 @@
         <v>-200</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S143" s="40" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="S143" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="T143" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:20">
-      <c r="B144" s="80" t="s">
-        <v>321</v>
+      <c r="B144" s="74" t="s">
+        <v>307</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E144" s="87">
+        <v>285</v>
+      </c>
+      <c r="E144" s="85">
         <v>-200</v>
       </c>
-      <c r="F144" s="87">
+      <c r="F144" s="85">
         <v>300</v>
       </c>
-      <c r="G144" s="87">
+      <c r="G144" s="85">
         <v>300</v>
       </c>
       <c r="H144" s="16">
@@ -9418,15 +9426,15 @@
         <f t="shared" si="78"/>
         <v>-166.66666666666666</v>
       </c>
-      <c r="M144" s="87">
+      <c r="M144" s="80">
         <f t="shared" si="84"/>
         <v>200</v>
       </c>
-      <c r="N144" s="87">
+      <c r="N144" s="80">
         <f t="shared" si="81"/>
         <v>-300</v>
       </c>
-      <c r="O144" s="87">
+      <c r="O144" s="80">
         <f t="shared" si="82"/>
         <v>-300</v>
       </c>
@@ -9437,18 +9445,18 @@
         <v>-166.67</v>
       </c>
       <c r="R144" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="S144" s="42" t="s">
-        <v>296</v>
+        <v>182</v>
+      </c>
+      <c r="S144" s="41" t="s">
+        <v>285</v>
       </c>
       <c r="T144" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="1:20">
       <c r="A147" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>1</v>
@@ -9457,74 +9465,74 @@
         <v>2</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L147" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L147" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M147" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="P147" s="36" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="Q147" s="36" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="R147" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="S147" s="43" t="s">
-        <v>164</v>
+        <v>151</v>
+      </c>
+      <c r="S147" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="T147" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:20">
       <c r="A148" s="15"/>
-      <c r="B148" s="80" t="s">
-        <v>270</v>
+      <c r="B148" s="74" t="s">
+        <v>259</v>
       </c>
       <c r="C148" s="2">
         <f>K148/L148</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="D148" s="9"/>
-      <c r="E148" s="87">
+      <c r="E148" s="85">
         <v>-300</v>
       </c>
-      <c r="F148" s="87">
+      <c r="F148" s="85">
         <v>-200</v>
       </c>
-      <c r="G148" s="87">
+      <c r="G148" s="85">
         <v>-500</v>
       </c>
       <c r="H148" s="2">
@@ -9544,15 +9552,15 @@
         <f>AVERAGE(H148,I148,J148)</f>
         <v>833.33333333333337</v>
       </c>
-      <c r="M148" s="87">
+      <c r="M148" s="85">
         <f>E148*(-1)</f>
         <v>300</v>
       </c>
-      <c r="N148" s="87">
+      <c r="N148" s="85">
         <f t="shared" ref="N148:N149" si="85">F148*(-1)</f>
         <v>200</v>
       </c>
-      <c r="O148" s="87">
+      <c r="O148" s="85">
         <f t="shared" ref="O148:O149" si="86">G148*(-1)</f>
         <v>500</v>
       </c>
@@ -9565,31 +9573,31 @@
       <c r="R148" s="2">
         <v>0.4</v>
       </c>
-      <c r="S148" s="40"/>
+      <c r="S148" s="39"/>
       <c r="T148" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="1:20">
-      <c r="B149" s="80" t="s">
-        <v>271</v>
+      <c r="B149" s="74" t="s">
+        <v>260</v>
       </c>
       <c r="C149" s="2">
         <f>K149/L149</f>
         <v>0.42307692307692307</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F149" s="87">
+      <c r="E149" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="F149" s="85">
         <v>-300</v>
       </c>
-      <c r="G149" s="87">
+      <c r="G149" s="85">
         <v>-250</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I149" s="2">
         <v>400</v>
@@ -9605,14 +9613,14 @@
         <f>AVERAGE(H149,I149,J149)</f>
         <v>650</v>
       </c>
-      <c r="M149" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="N149" s="87">
+      <c r="M149" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="N149" s="85">
         <f t="shared" si="85"/>
         <v>300</v>
       </c>
-      <c r="O149" s="87">
+      <c r="O149" s="85">
         <f t="shared" si="86"/>
         <v>250</v>
       </c>
@@ -9625,87 +9633,87 @@
       <c r="R149" s="2">
         <v>0.42309999999999998</v>
       </c>
-      <c r="S149" s="40"/>
+      <c r="S149" s="39"/>
       <c r="T149" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:20">
-      <c r="B150" s="80" t="s">
-        <v>272</v>
+      <c r="B150" s="74" t="s">
+        <v>261</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F150" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G150" s="16" t="s">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="E150" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F150" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G150" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M150" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N150" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O150" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="M150" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N150" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="O150" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q150" s="29" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S150" s="40" t="s">
-        <v>139</v>
+        <v>182</v>
+      </c>
+      <c r="S150" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="T150" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:20">
-      <c r="B151" s="80" t="s">
-        <v>273</v>
+      <c r="B151" s="74" t="s">
+        <v>262</v>
       </c>
       <c r="C151" s="22">
         <v>999999</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E151" s="87">
+        <v>140</v>
+      </c>
+      <c r="E151" s="85">
         <v>-700</v>
       </c>
-      <c r="F151" s="87">
+      <c r="F151" s="85">
         <v>500</v>
       </c>
-      <c r="G151" s="87">
+      <c r="G151" s="85">
         <v>200</v>
       </c>
       <c r="H151" s="2">
@@ -9725,15 +9733,15 @@
         <f t="shared" ref="L151:L160" si="88">AVERAGE(H151,I151,J151)</f>
         <v>0</v>
       </c>
-      <c r="M151" s="87">
+      <c r="M151" s="85">
         <f>E151*(-1)</f>
         <v>700</v>
       </c>
-      <c r="N151" s="87">
+      <c r="N151" s="85">
         <f t="shared" ref="N151:N153" si="89">F151*(-1)</f>
         <v>-500</v>
       </c>
-      <c r="O151" s="87">
+      <c r="O151" s="85">
         <f t="shared" ref="O151:O153" si="90">G151*(-1)</f>
         <v>-200</v>
       </c>
@@ -9746,30 +9754,30 @@
       <c r="R151" s="37">
         <v>999999</v>
       </c>
-      <c r="S151" s="40" t="s">
-        <v>151</v>
+      <c r="S151" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="T151" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:20">
-      <c r="B152" s="80" t="s">
-        <v>274</v>
+      <c r="B152" s="74" t="s">
+        <v>263</v>
       </c>
       <c r="C152" s="23">
         <v>1000000</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E152" s="87">
+        <v>141</v>
+      </c>
+      <c r="E152" s="85">
         <v>-500</v>
       </c>
-      <c r="F152" s="87">
+      <c r="F152" s="85">
         <v>-300</v>
       </c>
-      <c r="G152" s="87">
+      <c r="G152" s="85">
         <v>-400</v>
       </c>
       <c r="H152" s="2">
@@ -9789,15 +9797,15 @@
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="M152" s="87">
+      <c r="M152" s="85">
         <f>E152*(-1)</f>
         <v>500</v>
       </c>
-      <c r="N152" s="87">
+      <c r="N152" s="85">
         <f t="shared" si="89"/>
         <v>300</v>
       </c>
-      <c r="O152" s="87">
+      <c r="O152" s="85">
         <f t="shared" si="90"/>
         <v>400</v>
       </c>
@@ -9810,57 +9818,57 @@
       <c r="R152" s="37">
         <v>1000000</v>
       </c>
-      <c r="S152" s="40" t="s">
-        <v>152</v>
+      <c r="S152" s="39" t="s">
+        <v>141</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:20">
-      <c r="B153" s="80" t="s">
-        <v>275</v>
+      <c r="B153" s="74" t="s">
+        <v>264</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E153" s="87">
+        <v>142</v>
+      </c>
+      <c r="E153" s="85">
         <v>-100</v>
       </c>
-      <c r="F153" s="87">
+      <c r="F153" s="85">
         <v>-700</v>
       </c>
-      <c r="G153" s="87">
+      <c r="G153" s="85">
         <v>-300</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K153" s="2">
         <f t="shared" si="87"/>
         <v>366.66666666666669</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M153" s="87">
+        <v>47</v>
+      </c>
+      <c r="M153" s="85">
         <f>E153*(-1)</f>
         <v>100</v>
       </c>
-      <c r="N153" s="87">
+      <c r="N153" s="85">
         <f t="shared" si="89"/>
         <v>700</v>
       </c>
-      <c r="O153" s="87">
+      <c r="O153" s="85">
         <f t="shared" si="90"/>
         <v>300</v>
       </c>
@@ -9868,36 +9876,36 @@
         <v>366.67</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="R153" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S153" s="40" t="s">
-        <v>153</v>
+        <v>182</v>
+      </c>
+      <c r="S153" s="39" t="s">
+        <v>142</v>
       </c>
       <c r="T153" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:20">
-      <c r="B154" s="80" t="s">
-        <v>276</v>
+      <c r="B154" s="74" t="s">
+        <v>265</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
+      </c>
+      <c r="E154" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F154" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G154" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="H154" s="2">
         <v>1000</v>
@@ -9909,54 +9917,54 @@
         <v>800</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L154" s="2">
         <f t="shared" si="88"/>
         <v>766.66666666666663</v>
       </c>
-      <c r="M154" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N154" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O154" s="16" t="s">
-        <v>48</v>
+      <c r="M154" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N154" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="O154" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q154" s="2">
         <v>766.67</v>
       </c>
       <c r="R154" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S154" s="40" t="s">
-        <v>154</v>
+        <v>182</v>
+      </c>
+      <c r="S154" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="1:20">
-      <c r="B155" s="80" t="s">
-        <v>277</v>
+      <c r="B155" s="74" t="s">
+        <v>266</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E155" s="87">
+        <v>129</v>
+      </c>
+      <c r="E155" s="85">
         <v>-300</v>
       </c>
-      <c r="F155" s="87">
+      <c r="F155" s="85">
         <v>700</v>
       </c>
-      <c r="G155" s="87">
+      <c r="G155" s="85">
         <v>200</v>
       </c>
       <c r="H155" s="2">
@@ -9976,15 +9984,15 @@
         <f t="shared" si="88"/>
         <v>500</v>
       </c>
-      <c r="M155" s="87">
+      <c r="M155" s="85">
         <f>E155*(-1)</f>
         <v>300</v>
       </c>
-      <c r="N155" s="87">
+      <c r="N155" s="85">
         <f t="shared" ref="N155:N160" si="91">F155*(-1)</f>
         <v>-700</v>
       </c>
-      <c r="O155" s="87">
+      <c r="O155" s="85">
         <f t="shared" ref="O155:O160" si="92">G155*(-1)</f>
         <v>-200</v>
       </c>
@@ -9995,32 +10003,32 @@
         <v>500</v>
       </c>
       <c r="R155" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S155" s="40" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="S155" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="T155" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:20">
-      <c r="B156" s="80" t="s">
-        <v>278</v>
+      <c r="B156" s="74" t="s">
+        <v>267</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E156" s="87">
+        <v>129</v>
+      </c>
+      <c r="E156" s="85">
         <v>200</v>
       </c>
-      <c r="F156" s="87">
+      <c r="F156" s="85">
         <v>-500</v>
       </c>
-      <c r="G156" s="87">
+      <c r="G156" s="85">
         <v>800</v>
       </c>
       <c r="H156" s="2">
@@ -10040,15 +10048,15 @@
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="M156" s="87">
+      <c r="M156" s="85">
         <f>E156*(-1)</f>
         <v>-200</v>
       </c>
-      <c r="N156" s="87">
+      <c r="N156" s="85">
         <f t="shared" si="91"/>
         <v>500</v>
       </c>
-      <c r="O156" s="87">
+      <c r="O156" s="85">
         <f t="shared" si="92"/>
         <v>-800</v>
       </c>
@@ -10059,32 +10067,32 @@
         <v>0</v>
       </c>
       <c r="R156" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S156" s="40" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="S156" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:20">
-      <c r="B157" s="80" t="s">
-        <v>279</v>
+      <c r="B157" s="74" t="s">
+        <v>268</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E157" s="87">
+        <v>285</v>
+      </c>
+      <c r="E157" s="85">
         <v>-800</v>
       </c>
-      <c r="F157" s="87">
+      <c r="F157" s="85">
         <v>400</v>
       </c>
-      <c r="G157" s="87">
+      <c r="G157" s="85">
         <v>1000</v>
       </c>
       <c r="H157" s="2">
@@ -10104,15 +10112,15 @@
         <f t="shared" si="88"/>
         <v>-300</v>
       </c>
-      <c r="M157" s="87">
+      <c r="M157" s="85">
         <f>E157*(-1)</f>
         <v>800</v>
       </c>
-      <c r="N157" s="87">
+      <c r="N157" s="85">
         <f t="shared" si="91"/>
         <v>-400</v>
       </c>
-      <c r="O157" s="87">
+      <c r="O157" s="85">
         <f t="shared" si="92"/>
         <v>-1000</v>
       </c>
@@ -10123,32 +10131,32 @@
         <v>-300</v>
       </c>
       <c r="R157" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S157" s="40" t="s">
-        <v>296</v>
+        <v>182</v>
+      </c>
+      <c r="S157" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="T157" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:20">
-      <c r="B158" s="80" t="s">
-        <v>280</v>
+      <c r="B158" s="74" t="s">
+        <v>269</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E158" s="87">
+        <v>144</v>
+      </c>
+      <c r="E158" s="85">
         <v>-200</v>
       </c>
-      <c r="F158" s="87">
+      <c r="F158" s="85">
         <v>-200</v>
       </c>
-      <c r="G158" s="87">
+      <c r="G158" s="85">
         <v>-200</v>
       </c>
       <c r="H158" s="2">
@@ -10168,15 +10176,15 @@
         <f t="shared" si="88"/>
         <v>-66.666666666666671</v>
       </c>
-      <c r="M158" s="87">
+      <c r="M158" s="85">
         <f>E158*(-1)</f>
         <v>200</v>
       </c>
-      <c r="N158" s="87">
+      <c r="N158" s="85">
         <f t="shared" si="91"/>
         <v>200</v>
       </c>
-      <c r="O158" s="87">
+      <c r="O158" s="85">
         <f t="shared" si="92"/>
         <v>200</v>
       </c>
@@ -10187,32 +10195,32 @@
         <v>-66.67</v>
       </c>
       <c r="R158" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S158" s="40" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="S158" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="T158" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:20">
-      <c r="B159" s="80" t="s">
-        <v>322</v>
+      <c r="B159" s="74" t="s">
+        <v>308</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E159" s="87">
+        <v>144</v>
+      </c>
+      <c r="E159" s="85">
         <v>-400</v>
       </c>
-      <c r="F159" s="87">
+      <c r="F159" s="85">
         <v>300</v>
       </c>
-      <c r="G159" s="87">
+      <c r="G159" s="85">
         <v>100</v>
       </c>
       <c r="H159" s="2">
@@ -10232,15 +10240,15 @@
         <f t="shared" si="88"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M159" s="87">
+      <c r="M159" s="85">
         <f t="shared" ref="M159:M160" si="93">E159*(-1)</f>
         <v>400</v>
       </c>
-      <c r="N159" s="87">
+      <c r="N159" s="85">
         <f t="shared" si="91"/>
         <v>-300</v>
       </c>
-      <c r="O159" s="87">
+      <c r="O159" s="85">
         <f t="shared" si="92"/>
         <v>-100</v>
       </c>
@@ -10251,32 +10259,32 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="R159" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S159" s="40" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="S159" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="T159" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:20">
-      <c r="B160" s="80" t="s">
-        <v>323</v>
+      <c r="B160" s="74" t="s">
+        <v>309</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E160" s="87">
+        <v>285</v>
+      </c>
+      <c r="E160" s="85">
         <v>-200</v>
       </c>
-      <c r="F160" s="87">
+      <c r="F160" s="85">
         <v>300</v>
       </c>
-      <c r="G160" s="87">
+      <c r="G160" s="85">
         <v>100</v>
       </c>
       <c r="H160" s="2">
@@ -10296,15 +10304,15 @@
         <f t="shared" si="88"/>
         <v>-50</v>
       </c>
-      <c r="M160" s="87">
+      <c r="M160" s="85">
         <f t="shared" si="93"/>
         <v>200</v>
       </c>
-      <c r="N160" s="87">
+      <c r="N160" s="85">
         <f t="shared" si="91"/>
         <v>-300</v>
       </c>
-      <c r="O160" s="87">
+      <c r="O160" s="85">
         <f t="shared" si="92"/>
         <v>-100</v>
       </c>
@@ -10315,21 +10323,21 @@
         <v>-50</v>
       </c>
       <c r="R160" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S160" s="40" t="s">
-        <v>296</v>
+        <v>182</v>
+      </c>
+      <c r="S160" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="T160" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:15">
-      <c r="B162" s="39"/>
+      <c r="B162" s="38"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="30" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1</v>
@@ -10338,43 +10346,43 @@
         <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H163" s="36" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I163" s="36" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="J163" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="31"/>
-      <c r="B164" s="84" t="s">
-        <v>281</v>
+      <c r="B164" s="78" t="s">
+        <v>270</v>
       </c>
       <c r="C164" s="2">
         <v>3</v>
       </c>
       <c r="D164" s="9"/>
-      <c r="E164" s="87">
-        <v>0</v>
-      </c>
-      <c r="F164" s="87">
-        <v>0</v>
-      </c>
-      <c r="G164" s="87">
+      <c r="E164" s="85">
+        <v>0</v>
+      </c>
+      <c r="F164" s="85">
+        <v>0</v>
+      </c>
+      <c r="G164" s="85">
         <v>0</v>
       </c>
       <c r="H164" s="2">
@@ -10385,46 +10393,46 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="32"/>
-      <c r="B165" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="C165" s="93">
+      <c r="B165" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="C165" s="83">
         <v>1</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="E165" s="87">
-        <v>0</v>
-      </c>
-      <c r="F165" s="87">
-        <v>0</v>
-      </c>
-      <c r="G165" s="87">
+      <c r="E165" s="85">
+        <v>0</v>
+      </c>
+      <c r="F165" s="85">
+        <v>0</v>
+      </c>
+      <c r="G165" s="85">
         <v>1000</v>
       </c>
-      <c r="H165" s="93">
+      <c r="H165" s="83">
         <v>2</v>
       </c>
       <c r="I165" s="2"/>
-      <c r="J165" s="93" t="s">
-        <v>340</v>
+      <c r="J165" s="83" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="32"/>
-      <c r="B166" s="84" t="s">
-        <v>324</v>
+      <c r="B166" s="78" t="s">
+        <v>310</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
       </c>
       <c r="D166" s="9"/>
-      <c r="E166" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F166" s="87">
+      <c r="E166" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="F166" s="85">
         <v>2000</v>
       </c>
-      <c r="G166" s="87">
+      <c r="G166" s="85">
         <v>1000</v>
       </c>
       <c r="H166" s="2">
@@ -10435,32 +10443,32 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="32"/>
-      <c r="B167" s="84" t="s">
-        <v>325</v>
+      <c r="B167" s="78" t="s">
+        <v>311</v>
       </c>
       <c r="C167" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E167" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F167" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="G167" s="87" t="s">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="E167" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="F167" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G167" s="85" t="s">
+        <v>47</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -10471,7 +10479,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="30" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1</v>
@@ -10480,32 +10488,32 @@
         <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H170" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I170" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="J170" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="I170" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="J170" s="36" t="s">
-        <v>181</v>
       </c>
       <c r="O170"/>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="31"/>
-      <c r="B171" s="83" t="s">
-        <v>283</v>
+      <c r="B171" s="77" t="s">
+        <v>272</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -10524,17 +10532,17 @@
         <v>0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O171"/>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="20"/>
-      <c r="B172" s="80" t="s">
-        <v>295</v>
+      <c r="B172" s="74" t="s">
+        <v>284</v>
       </c>
       <c r="C172" s="2">
         <v>1</v>
@@ -10554,14 +10562,14 @@
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O172"/>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="20"/>
-      <c r="B173" s="80" t="s">
-        <v>284</v>
+      <c r="B173" s="74" t="s">
+        <v>273</v>
       </c>
       <c r="C173" s="2">
         <v>1</v>
@@ -10571,90 +10579,90 @@
         <v>1000</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H173" s="2">
         <v>1</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O173"/>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="20"/>
-      <c r="B174" s="80" t="s">
-        <v>285</v>
+      <c r="B174" s="74" t="s">
+        <v>274</v>
       </c>
       <c r="C174" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H174" s="22" t="s">
         <v>4</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O174"/>
     </row>
-    <row r="175" spans="1:15" s="45" customFormat="1">
-      <c r="B175" s="81" t="s">
+    <row r="175" spans="1:15" s="44" customFormat="1">
+      <c r="B175" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="C175" s="46">
+        <v>0</v>
+      </c>
+      <c r="D175" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="E175" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="F175" s="45">
+        <v>-100</v>
+      </c>
+      <c r="G175" s="45">
+        <v>-2000</v>
+      </c>
+      <c r="H175" s="55">
+        <v>0</v>
+      </c>
+      <c r="I175" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="J175" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C175" s="47">
-        <v>0</v>
-      </c>
-      <c r="D175" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="E175" s="46">
-        <v>-1000</v>
-      </c>
-      <c r="F175" s="46">
-        <v>-100</v>
-      </c>
-      <c r="G175" s="46">
-        <v>-2000</v>
-      </c>
-      <c r="H175" s="56">
-        <v>0</v>
-      </c>
-      <c r="I175" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K175" s="64"/>
-      <c r="L175" s="49"/>
-      <c r="M175" s="49"/>
-      <c r="N175" s="49"/>
+      <c r="K175" s="63"/>
+      <c r="L175" s="48"/>
+      <c r="M175" s="48"/>
+      <c r="N175" s="48"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="L177" s="78"/>
-    </row>
-    <row r="178" spans="1:15" ht="18.600000000000001">
+      <c r="L177" s="72"/>
+    </row>
+    <row r="178" spans="1:15" ht="18.75">
       <c r="A178" s="30" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
@@ -10663,35 +10671,35 @@
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I178" s="36" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J178" s="36" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K178" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="L178" s="79"/>
+        <v>170</v>
+      </c>
+      <c r="L178" s="73"/>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="31"/>
-      <c r="B179" s="83" t="s">
-        <v>287</v>
+      <c r="B179" s="77" t="s">
+        <v>276</v>
       </c>
       <c r="C179" s="2">
         <f>H179</f>
@@ -10717,13 +10725,13 @@
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="32"/>
-      <c r="B180" s="80" t="s">
-        <v>288</v>
+      <c r="B180" s="74" t="s">
+        <v>277</v>
       </c>
       <c r="C180" s="2">
         <f>H180</f>
@@ -10749,13 +10757,13 @@
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="32"/>
-      <c r="B181" s="80" t="s">
-        <v>326</v>
+      <c r="B181" s="74" t="s">
+        <v>312</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>4</v>
@@ -10763,15 +10771,15 @@
       <c r="D181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J181" s="2"/>
       <c r="K181" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -10780,7 +10788,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="30" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1</v>
@@ -10789,36 +10797,36 @@
         <v>2</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J184" s="36" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K184" s="36" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="L184" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:15">
-      <c r="B185" s="80" t="s">
-        <v>327</v>
+      <c r="B185" s="74" t="s">
+        <v>313</v>
       </c>
       <c r="C185" s="2">
         <f>E185</f>
@@ -10845,15 +10853,15 @@
         <v>1</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:15">
-      <c r="B186" s="80" t="s">
-        <v>328</v>
+      <c r="B186" s="74" t="s">
+        <v>314</v>
       </c>
       <c r="C186" s="2">
         <f>E186</f>
@@ -10880,15 +10888,15 @@
         <v>1</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="187" spans="1:15">
-      <c r="B187" s="80" t="s">
-        <v>329</v>
+      <c r="B187" s="74" t="s">
+        <v>315</v>
       </c>
       <c r="C187" s="2">
         <f>E187</f>
@@ -10915,54 +10923,54 @@
         <v>0</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" s="51" customFormat="1">
-      <c r="B188" s="80" t="s">
-        <v>330</v>
-      </c>
-      <c r="C188" s="52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" s="50" customFormat="1">
+      <c r="B188" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="C188" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D188" s="52"/>
-      <c r="E188" s="52"/>
-      <c r="F188" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G188" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="H188" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="I188" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="J188" s="52" t="s">
+      <c r="D188" s="51"/>
+      <c r="E188" s="51"/>
+      <c r="F188" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G188" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H188" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I188" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="J188" s="51" t="s">
         <v>4</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="M188" s="50"/>
-      <c r="N188" s="50"/>
-      <c r="O188" s="50"/>
+        <v>286</v>
+      </c>
+      <c r="M188" s="49"/>
+      <c r="N188" s="49"/>
+      <c r="O188" s="49"/>
     </row>
     <row r="189" spans="1:15">
       <c r="B189" s="34"/>
       <c r="C189" s="35"/>
       <c r="D189" s="35"/>
-      <c r="E189" s="53"/>
+      <c r="E189" s="52"/>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
-      <c r="H189" s="53"/>
+      <c r="H189" s="52"/>
       <c r="I189" s="35"/>
       <c r="J189" s="35"/>
       <c r="K189" s="35"/>
@@ -10988,7 +10996,7 @@
     </row>
     <row r="208" spans="4:10">
       <c r="J208" s="5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -11068,24 +11076,24 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -11094,67 +11102,67 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -11163,31 +11171,31 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -11196,31 +11204,31 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O8" s="5"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -11229,19 +11237,19 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -11250,23 +11258,23 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -11275,7 +11283,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -11285,13 +11293,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="10">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -11300,7 +11308,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -11309,85 +11317,85 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>181</v>
       </c>
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -11402,13 +11410,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="22">
         <v>1</v>
@@ -11417,19 +11425,19 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -11438,34 +11446,34 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O19" s="5"/>
     </row>
